--- a/outputs/aht/wl_retention_aht_monthly.xlsx
+++ b/outputs/aht/wl_retention_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>658.1224607026406</v>
+        <v>537.4477969238861</v>
       </c>
       <c r="D2" t="n">
-        <v>615.4262543291128</v>
+        <v>527.1395858493188</v>
       </c>
       <c r="E2" t="n">
-        <v>787.7846516651467</v>
+        <v>671.932378369759</v>
       </c>
       <c r="F2" t="n">
-        <v>658.1224607026406</v>
+        <v>537.4477969238861</v>
       </c>
       <c r="G2" t="n">
-        <v>658.1224607026406</v>
+        <v>537.4477969238861</v>
       </c>
       <c r="H2" t="n">
-        <v>48.10226645223828</v>
+        <v>61.07324261402707</v>
       </c>
       <c r="I2" t="n">
-        <v>48.10226645223828</v>
+        <v>61.07324261402707</v>
       </c>
       <c r="J2" t="n">
-        <v>48.10226645223828</v>
+        <v>61.07324261402707</v>
       </c>
       <c r="K2" t="n">
-        <v>48.10226645223828</v>
+        <v>61.07324261402707</v>
       </c>
       <c r="L2" t="n">
-        <v>48.10226645223828</v>
+        <v>61.07324261402707</v>
       </c>
       <c r="M2" t="n">
-        <v>48.10226645223828</v>
+        <v>61.07324261402707</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>706.2247271548789</v>
+        <v>598.5210395379132</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>657.279615963865</v>
+        <v>543.1221282388797</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2580507610822</v>
+        <v>477.9151317989941</v>
       </c>
       <c r="E3" t="n">
-        <v>810.4759362913902</v>
+        <v>636.1247942515563</v>
       </c>
       <c r="F3" t="n">
-        <v>657.279615963865</v>
+        <v>543.1221282388797</v>
       </c>
       <c r="G3" t="n">
-        <v>657.279615963865</v>
+        <v>543.1221282388797</v>
       </c>
       <c r="H3" t="n">
-        <v>65.05087926271152</v>
+        <v>12.09327527525714</v>
       </c>
       <c r="I3" t="n">
-        <v>65.05087926271152</v>
+        <v>12.09327527525714</v>
       </c>
       <c r="J3" t="n">
-        <v>65.05087926271152</v>
+        <v>12.09327527525714</v>
       </c>
       <c r="K3" t="n">
-        <v>65.05087926271152</v>
+        <v>12.09327527525714</v>
       </c>
       <c r="L3" t="n">
-        <v>65.05087926271152</v>
+        <v>12.09327527525714</v>
       </c>
       <c r="M3" t="n">
-        <v>65.05087926271152</v>
+        <v>12.09327527525714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>722.3304952265765</v>
+        <v>555.2154035141368</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>656.4911483050105</v>
+        <v>548.2473307169384</v>
       </c>
       <c r="D4" t="n">
-        <v>593.208735226458</v>
+        <v>490.5427273644508</v>
       </c>
       <c r="E4" t="n">
-        <v>760.8413471927604</v>
+        <v>644.1696658093224</v>
       </c>
       <c r="F4" t="n">
-        <v>656.4911483050105</v>
+        <v>548.2473307169384</v>
       </c>
       <c r="G4" t="n">
-        <v>656.4911483050105</v>
+        <v>548.2473307169384</v>
       </c>
       <c r="H4" t="n">
-        <v>21.69262792390179</v>
+        <v>19.96781994674587</v>
       </c>
       <c r="I4" t="n">
-        <v>21.69262792390179</v>
+        <v>19.96781994674587</v>
       </c>
       <c r="J4" t="n">
-        <v>21.69262792390179</v>
+        <v>19.96781994674587</v>
       </c>
       <c r="K4" t="n">
-        <v>21.69262792390179</v>
+        <v>19.96781994674587</v>
       </c>
       <c r="L4" t="n">
-        <v>21.69262792390179</v>
+        <v>19.96781994674587</v>
       </c>
       <c r="M4" t="n">
-        <v>21.69262792390179</v>
+        <v>19.96781994674587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>678.1837762289123</v>
+        <v>568.2151506636843</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>655.648303561558</v>
+        <v>553.9216620342869</v>
       </c>
       <c r="D5" t="n">
-        <v>556.0903564194293</v>
+        <v>478.3130142744658</v>
       </c>
       <c r="E5" t="n">
-        <v>735.5928406870024</v>
+        <v>631.4339656798745</v>
       </c>
       <c r="F5" t="n">
-        <v>655.648303561558</v>
+        <v>553.9216620342869</v>
       </c>
       <c r="G5" t="n">
-        <v>655.648303561558</v>
+        <v>553.9216620342869</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.440848642600534</v>
+        <v>-1.157720913952741</v>
       </c>
       <c r="I5" t="n">
-        <v>-9.440848642600534</v>
+        <v>-1.157720913952741</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.440848642600534</v>
+        <v>-1.157720913952741</v>
       </c>
       <c r="K5" t="n">
-        <v>-9.440848642600534</v>
+        <v>-1.157720913952741</v>
       </c>
       <c r="L5" t="n">
-        <v>-9.440848642600534</v>
+        <v>-1.157720913952741</v>
       </c>
       <c r="M5" t="n">
-        <v>-9.440848642600534</v>
+        <v>-1.157720913952741</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>646.2074549189575</v>
+        <v>552.7639411203342</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>654.8326473582168</v>
+        <v>559.4129504059144</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0792328473184</v>
+        <v>472.8347657814452</v>
       </c>
       <c r="E6" t="n">
-        <v>732.6661803777422</v>
+        <v>624.1424870144613</v>
       </c>
       <c r="F6" t="n">
-        <v>654.8326473582168</v>
+        <v>559.4129504059144</v>
       </c>
       <c r="G6" t="n">
-        <v>654.8326473582168</v>
+        <v>559.4129504059144</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.212103310142314</v>
+        <v>-7.120694495072549</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.212103310142314</v>
+        <v>-7.120694495072549</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.212103310142314</v>
+        <v>-7.120694495072549</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.212103310142314</v>
+        <v>-7.120694495072549</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.212103310142314</v>
+        <v>-7.120694495072549</v>
       </c>
       <c r="M6" t="n">
-        <v>-4.212103310142314</v>
+        <v>-7.120694495072549</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>650.6205440480745</v>
+        <v>552.2922559108418</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>653.9898026147644</v>
+        <v>565.0872817260469</v>
       </c>
       <c r="D7" t="n">
-        <v>558.7291232184459</v>
+        <v>477.8569593721162</v>
       </c>
       <c r="E7" t="n">
-        <v>722.7148358080948</v>
+        <v>624.8415185711224</v>
       </c>
       <c r="F7" t="n">
-        <v>653.9898026147644</v>
+        <v>565.0872817260469</v>
       </c>
       <c r="G7" t="n">
-        <v>653.9898026147644</v>
+        <v>565.0872817260469</v>
       </c>
       <c r="H7" t="n">
-        <v>-14.18749145382049</v>
+        <v>-13.50193424340513</v>
       </c>
       <c r="I7" t="n">
-        <v>-14.18749145382049</v>
+        <v>-13.50193424340513</v>
       </c>
       <c r="J7" t="n">
-        <v>-14.18749145382049</v>
+        <v>-13.50193424340513</v>
       </c>
       <c r="K7" t="n">
-        <v>-14.18749145382049</v>
+        <v>-13.50193424340513</v>
       </c>
       <c r="L7" t="n">
-        <v>-14.18749145382049</v>
+        <v>-13.50193424340513</v>
       </c>
       <c r="M7" t="n">
-        <v>-14.18749145382049</v>
+        <v>-13.50193424340513</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>639.8023111609439</v>
+        <v>551.5853474826417</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>653.1741464127144</v>
+        <v>570.5785701003684</v>
       </c>
       <c r="D8" t="n">
-        <v>521.7810117954566</v>
+        <v>474.580242074011</v>
       </c>
       <c r="E8" t="n">
-        <v>693.389708494139</v>
+        <v>616.0247273738659</v>
       </c>
       <c r="F8" t="n">
-        <v>653.1741464127144</v>
+        <v>570.5785701003684</v>
       </c>
       <c r="G8" t="n">
-        <v>653.1741464127144</v>
+        <v>570.5785701003684</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.6731079165684</v>
+        <v>-24.3128855365579</v>
       </c>
       <c r="I8" t="n">
-        <v>-46.6731079165684</v>
+        <v>-24.3128855365579</v>
       </c>
       <c r="J8" t="n">
-        <v>-46.6731079165684</v>
+        <v>-24.3128855365579</v>
       </c>
       <c r="K8" t="n">
-        <v>-46.6731079165684</v>
+        <v>-24.3128855365579</v>
       </c>
       <c r="L8" t="n">
-        <v>-46.6731079165684</v>
+        <v>-24.3128855365579</v>
       </c>
       <c r="M8" t="n">
-        <v>-46.6731079165684</v>
+        <v>-24.3128855365579</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>606.5010384961461</v>
+        <v>546.2656845638105</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>652.3313016705962</v>
+        <v>576.2529014223687</v>
       </c>
       <c r="D9" t="n">
-        <v>528.5624331145031</v>
+        <v>479.9779016442675</v>
       </c>
       <c r="E9" t="n">
-        <v>696.388640651091</v>
+        <v>639.0275888983696</v>
       </c>
       <c r="F9" t="n">
-        <v>652.3313016705962</v>
+        <v>576.2529014223687</v>
       </c>
       <c r="G9" t="n">
-        <v>652.3313016705962</v>
+        <v>576.2529014223687</v>
       </c>
       <c r="H9" t="n">
-        <v>-41.69695605897291</v>
+        <v>-17.63984420861726</v>
       </c>
       <c r="I9" t="n">
-        <v>-41.69695605897291</v>
+        <v>-17.63984420861726</v>
       </c>
       <c r="J9" t="n">
-        <v>-41.69695605897291</v>
+        <v>-17.63984420861726</v>
       </c>
       <c r="K9" t="n">
-        <v>-41.69695605897291</v>
+        <v>-17.63984420861726</v>
       </c>
       <c r="L9" t="n">
-        <v>-41.69695605897291</v>
+        <v>-17.63984420861726</v>
       </c>
       <c r="M9" t="n">
-        <v>-41.69695605897291</v>
+        <v>-17.63984420861726</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>610.6343456116233</v>
+        <v>558.6130572137515</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>651.4884569318733</v>
+        <v>581.927232744369</v>
       </c>
       <c r="D10" t="n">
-        <v>518.0051445045586</v>
+        <v>474.8625991530342</v>
       </c>
       <c r="E10" t="n">
-        <v>688.9931776618661</v>
+        <v>619.812689920543</v>
       </c>
       <c r="F10" t="n">
-        <v>651.4884569318733</v>
+        <v>581.927232744369</v>
       </c>
       <c r="G10" t="n">
-        <v>651.4884569318733</v>
+        <v>581.927232744369</v>
       </c>
       <c r="H10" t="n">
-        <v>-47.26907467325574</v>
+        <v>-30.99184817177049</v>
       </c>
       <c r="I10" t="n">
-        <v>-47.26907467325574</v>
+        <v>-30.99184817177049</v>
       </c>
       <c r="J10" t="n">
-        <v>-47.26907467325574</v>
+        <v>-30.99184817177049</v>
       </c>
       <c r="K10" t="n">
-        <v>-47.26907467325574</v>
+        <v>-30.99184817177049</v>
       </c>
       <c r="L10" t="n">
-        <v>-47.26907467325574</v>
+        <v>-30.99184817177049</v>
       </c>
       <c r="M10" t="n">
-        <v>-47.26907467325574</v>
+        <v>-30.99184817177049</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>604.2193822586175</v>
+        <v>550.9353845725985</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>650.6728007331092</v>
+        <v>587.418521118651</v>
       </c>
       <c r="D11" t="n">
-        <v>530.1730736940773</v>
+        <v>464.9269496369364</v>
       </c>
       <c r="E11" t="n">
-        <v>700.0224147391764</v>
+        <v>620.2437988864712</v>
       </c>
       <c r="F11" t="n">
-        <v>650.6728007331092</v>
+        <v>587.418521118651</v>
       </c>
       <c r="G11" t="n">
-        <v>650.6728007331092</v>
+        <v>587.418521118651</v>
       </c>
       <c r="H11" t="n">
-        <v>-38.27974004136814</v>
+        <v>-45.61336251204758</v>
       </c>
       <c r="I11" t="n">
-        <v>-38.27974004136814</v>
+        <v>-45.61336251204758</v>
       </c>
       <c r="J11" t="n">
-        <v>-38.27974004136814</v>
+        <v>-45.61336251204758</v>
       </c>
       <c r="K11" t="n">
-        <v>-38.27974004136814</v>
+        <v>-45.61336251204758</v>
       </c>
       <c r="L11" t="n">
-        <v>-38.27974004136814</v>
+        <v>-45.61336251204758</v>
       </c>
       <c r="M11" t="n">
-        <v>-38.27974004136814</v>
+        <v>-45.61336251204758</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>612.3930606917411</v>
+        <v>541.8051586066034</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>649.829955998865</v>
+        <v>593.0928524387424</v>
       </c>
       <c r="D12" t="n">
-        <v>535.2372874771899</v>
+        <v>479.1986932317074</v>
       </c>
       <c r="E12" t="n">
-        <v>703.6216864518716</v>
+        <v>627.3011530988043</v>
       </c>
       <c r="F12" t="n">
-        <v>649.829955998865</v>
+        <v>593.0928524387424</v>
       </c>
       <c r="G12" t="n">
-        <v>649.829955998865</v>
+        <v>593.0928524387424</v>
       </c>
       <c r="H12" t="n">
-        <v>-28.27782533824227</v>
+        <v>-37.98062607576319</v>
       </c>
       <c r="I12" t="n">
-        <v>-28.27782533824227</v>
+        <v>-37.98062607576319</v>
       </c>
       <c r="J12" t="n">
-        <v>-28.27782533824227</v>
+        <v>-37.98062607576319</v>
       </c>
       <c r="K12" t="n">
-        <v>-28.27782533824227</v>
+        <v>-37.98062607576319</v>
       </c>
       <c r="L12" t="n">
-        <v>-28.27782533824227</v>
+        <v>-37.98062607576319</v>
       </c>
       <c r="M12" t="n">
-        <v>-28.27782533824227</v>
+        <v>-37.98062607576319</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>621.5521306606228</v>
+        <v>555.1122263629792</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>649.0142998044352</v>
+        <v>598.5841408164223</v>
       </c>
       <c r="D13" t="n">
-        <v>562.1075439185986</v>
+        <v>519.5270366840176</v>
       </c>
       <c r="E13" t="n">
-        <v>724.7512649161457</v>
+        <v>675.305654015764</v>
       </c>
       <c r="F13" t="n">
-        <v>649.0142998044352</v>
+        <v>598.5841408164223</v>
       </c>
       <c r="G13" t="n">
-        <v>649.0142998044352</v>
+        <v>598.5841408164223</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.519013217637851</v>
+        <v>-1.40322283178666</v>
       </c>
       <c r="I13" t="n">
-        <v>-7.519013217637851</v>
+        <v>-1.40322283178666</v>
       </c>
       <c r="J13" t="n">
-        <v>-7.519013217637851</v>
+        <v>-1.40322283178666</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.519013217637851</v>
+        <v>-1.40322283178666</v>
       </c>
       <c r="L13" t="n">
-        <v>-7.519013217637851</v>
+        <v>-1.40322283178666</v>
       </c>
       <c r="M13" t="n">
-        <v>-7.519013217637851</v>
+        <v>-1.40322283178666</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>641.4952865867973</v>
+        <v>597.1809179846356</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>648.171455070191</v>
+        <v>604.2584721400249</v>
       </c>
       <c r="D14" t="n">
-        <v>585.9134747503263</v>
+        <v>581.6649619767965</v>
       </c>
       <c r="E14" t="n">
-        <v>749.9320801614872</v>
+        <v>725.2489133461307</v>
       </c>
       <c r="F14" t="n">
-        <v>648.171455070191</v>
+        <v>604.2584721400249</v>
       </c>
       <c r="G14" t="n">
-        <v>648.171455070191</v>
+        <v>604.2584721400249</v>
       </c>
       <c r="H14" t="n">
-        <v>19.60464594901581</v>
+        <v>50.16409651307542</v>
       </c>
       <c r="I14" t="n">
-        <v>19.60464594901581</v>
+        <v>50.16409651307542</v>
       </c>
       <c r="J14" t="n">
-        <v>19.60464594901581</v>
+        <v>50.16409651307542</v>
       </c>
       <c r="K14" t="n">
-        <v>19.60464594901581</v>
+        <v>50.16409651307542</v>
       </c>
       <c r="L14" t="n">
-        <v>19.60464594901581</v>
+        <v>50.16409651307542</v>
       </c>
       <c r="M14" t="n">
-        <v>19.60464594901581</v>
+        <v>50.16409651307542</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>667.7761010192067</v>
+        <v>654.4225686531003</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>647.3290029257823</v>
+        <v>609.9328034643514</v>
       </c>
       <c r="D15" t="n">
-        <v>517.6515238699889</v>
+        <v>572.5734235332211</v>
       </c>
       <c r="E15" t="n">
-        <v>684.1104917018382</v>
+        <v>712.6867913113542</v>
       </c>
       <c r="F15" t="n">
-        <v>647.3290029257823</v>
+        <v>609.9328034643514</v>
       </c>
       <c r="G15" t="n">
-        <v>647.3290029257823</v>
+        <v>609.9328034643514</v>
       </c>
       <c r="H15" t="n">
-        <v>-47.02085743879955</v>
+        <v>32.81239525737328</v>
       </c>
       <c r="I15" t="n">
-        <v>-47.02085743879955</v>
+        <v>32.81239525737328</v>
       </c>
       <c r="J15" t="n">
-        <v>-47.02085743879955</v>
+        <v>32.81239525737328</v>
       </c>
       <c r="K15" t="n">
-        <v>-47.02085743879955</v>
+        <v>32.81239525737328</v>
       </c>
       <c r="L15" t="n">
-        <v>-47.02085743879955</v>
+        <v>32.81239525737328</v>
       </c>
       <c r="M15" t="n">
-        <v>-47.02085743879955</v>
+        <v>32.81239525737328</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>600.3081454869828</v>
+        <v>642.7451987217247</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>646.5680784082519</v>
+        <v>615.0580059508401</v>
       </c>
       <c r="D16" t="n">
-        <v>572.122111339316</v>
+        <v>563.1104949077481</v>
       </c>
       <c r="E16" t="n">
-        <v>731.3645779058938</v>
+        <v>711.7715095500284</v>
       </c>
       <c r="F16" t="n">
-        <v>646.5680784082519</v>
+        <v>615.0580059508401</v>
       </c>
       <c r="G16" t="n">
-        <v>646.5680784082519</v>
+        <v>615.0580059508401</v>
       </c>
       <c r="H16" t="n">
-        <v>5.729128192305033</v>
+        <v>22.08388588663487</v>
       </c>
       <c r="I16" t="n">
-        <v>5.729128192305033</v>
+        <v>22.08388588663487</v>
       </c>
       <c r="J16" t="n">
-        <v>5.729128192305033</v>
+        <v>22.08388588663487</v>
       </c>
       <c r="K16" t="n">
-        <v>5.729128192305033</v>
+        <v>22.08388588663487</v>
       </c>
       <c r="L16" t="n">
-        <v>5.729128192305033</v>
+        <v>22.08388588663487</v>
       </c>
       <c r="M16" t="n">
-        <v>5.729128192305033</v>
+        <v>22.08388588663487</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>652.2972066005569</v>
+        <v>637.141891837475</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>645.726664254928</v>
+        <v>620.7323372776641</v>
       </c>
       <c r="D17" t="n">
-        <v>542.4241031154714</v>
+        <v>538.5517972082054</v>
       </c>
       <c r="E17" t="n">
-        <v>704.8704969629053</v>
+        <v>691.237298083924</v>
       </c>
       <c r="F17" t="n">
-        <v>645.726664254928</v>
+        <v>620.7323372776641</v>
       </c>
       <c r="G17" t="n">
-        <v>645.726664254928</v>
+        <v>620.7323372776641</v>
       </c>
       <c r="H17" t="n">
-        <v>-18.93814111097478</v>
+        <v>-2.611752044963746</v>
       </c>
       <c r="I17" t="n">
-        <v>-18.93814111097478</v>
+        <v>-2.611752044963746</v>
       </c>
       <c r="J17" t="n">
-        <v>-18.93814111097478</v>
+        <v>-2.611752044963746</v>
       </c>
       <c r="K17" t="n">
-        <v>-18.93814111097478</v>
+        <v>-2.611752044963746</v>
       </c>
       <c r="L17" t="n">
-        <v>-18.93814111097478</v>
+        <v>-2.611752044963746</v>
       </c>
       <c r="M17" t="n">
-        <v>-18.93814111097478</v>
+        <v>-2.611752044963746</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>626.7885231439532</v>
+        <v>618.1205852327004</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>644.9123924936467</v>
+        <v>626.2236256584616</v>
       </c>
       <c r="D18" t="n">
-        <v>549.6988627068134</v>
+        <v>537.3596901842951</v>
       </c>
       <c r="E18" t="n">
-        <v>712.1573572417811</v>
+        <v>691.861121648453</v>
       </c>
       <c r="F18" t="n">
-        <v>644.9123924936467</v>
+        <v>626.2236256584616</v>
       </c>
       <c r="G18" t="n">
-        <v>644.9123924936467</v>
+        <v>626.2236256584616</v>
       </c>
       <c r="H18" t="n">
-        <v>-14.20491870567525</v>
+        <v>-13.57661808704303</v>
       </c>
       <c r="I18" t="n">
-        <v>-14.20491870567525</v>
+        <v>-13.57661808704303</v>
       </c>
       <c r="J18" t="n">
-        <v>-14.20491870567525</v>
+        <v>-13.57661808704303</v>
       </c>
       <c r="K18" t="n">
-        <v>-14.20491870567525</v>
+        <v>-13.57661808704303</v>
       </c>
       <c r="L18" t="n">
-        <v>-14.20491870567525</v>
+        <v>-13.57661808704303</v>
       </c>
       <c r="M18" t="n">
-        <v>-14.20491870567525</v>
+        <v>-13.57661808704303</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>630.7074737879715</v>
+        <v>612.6470075714186</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>644.0709783403228</v>
+        <v>631.8979569859634</v>
       </c>
       <c r="D19" t="n">
-        <v>543.878078487507</v>
+        <v>530.4476163481615</v>
       </c>
       <c r="E19" t="n">
-        <v>705.2372158588893</v>
+        <v>675.4260695441485</v>
       </c>
       <c r="F19" t="n">
-        <v>644.0709783403228</v>
+        <v>631.8979569859634</v>
       </c>
       <c r="G19" t="n">
-        <v>644.0709783403228</v>
+        <v>631.8979569859634</v>
       </c>
       <c r="H19" t="n">
-        <v>-20.79614304511784</v>
+        <v>-23.58751434480291</v>
       </c>
       <c r="I19" t="n">
-        <v>-20.79614304511784</v>
+        <v>-23.58751434480291</v>
       </c>
       <c r="J19" t="n">
-        <v>-20.79614304511784</v>
+        <v>-23.58751434480291</v>
       </c>
       <c r="K19" t="n">
-        <v>-20.79614304511784</v>
+        <v>-23.58751434480291</v>
       </c>
       <c r="L19" t="n">
-        <v>-20.79614304511784</v>
+        <v>-23.58751434480291</v>
       </c>
       <c r="M19" t="n">
-        <v>-20.79614304511784</v>
+        <v>-23.58751434480291</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>623.274835295205</v>
+        <v>608.3104426411605</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>643.256844257808</v>
+        <v>637.3892453674168</v>
       </c>
       <c r="D20" t="n">
-        <v>534.8816607004386</v>
+        <v>544.6950356064243</v>
       </c>
       <c r="E20" t="n">
-        <v>697.5330517200132</v>
+        <v>695.392291662678</v>
       </c>
       <c r="F20" t="n">
-        <v>643.256844257808</v>
+        <v>637.3892453674168</v>
       </c>
       <c r="G20" t="n">
-        <v>643.256844257808</v>
+        <v>637.3892453674168</v>
       </c>
       <c r="H20" t="n">
-        <v>-30.1202198808503</v>
+        <v>-14.65236996320321</v>
       </c>
       <c r="I20" t="n">
-        <v>-30.1202198808503</v>
+        <v>-14.65236996320321</v>
       </c>
       <c r="J20" t="n">
-        <v>-30.1202198808503</v>
+        <v>-14.65236996320321</v>
       </c>
       <c r="K20" t="n">
-        <v>-30.1202198808503</v>
+        <v>-14.65236996320321</v>
       </c>
       <c r="L20" t="n">
-        <v>-30.1202198808503</v>
+        <v>-14.65236996320321</v>
       </c>
       <c r="M20" t="n">
-        <v>-30.1202198808503</v>
+        <v>-14.65236996320321</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>613.1366243769577</v>
+        <v>622.7368754042136</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>642.4155723725426</v>
+        <v>643.0635766933493</v>
       </c>
       <c r="D21" t="n">
-        <v>526.0275895766916</v>
+        <v>544.9565324811011</v>
       </c>
       <c r="E21" t="n">
-        <v>694.6564759877109</v>
+        <v>698.8853571048963</v>
       </c>
       <c r="F21" t="n">
-        <v>642.4155723725426</v>
+        <v>643.0635766933493</v>
       </c>
       <c r="G21" t="n">
-        <v>642.4155723725426</v>
+        <v>643.0635766933493</v>
       </c>
       <c r="H21" t="n">
-        <v>-34.27656611870093</v>
+        <v>-21.43881737013604</v>
       </c>
       <c r="I21" t="n">
-        <v>-34.27656611870093</v>
+        <v>-21.43881737013604</v>
       </c>
       <c r="J21" t="n">
-        <v>-34.27656611870093</v>
+        <v>-21.43881737013604</v>
       </c>
       <c r="K21" t="n">
-        <v>-34.27656611870093</v>
+        <v>-21.43881737013604</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.27656611870093</v>
+        <v>-21.43881737013604</v>
       </c>
       <c r="M21" t="n">
-        <v>-34.27656611870093</v>
+        <v>-21.43881737013604</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>608.1390062538417</v>
+        <v>621.6247593232133</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>641.5917088071144</v>
+        <v>648.7379080192818</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4520539533369</v>
+        <v>542.3246234736501</v>
       </c>
       <c r="E22" t="n">
-        <v>689.572381298915</v>
+        <v>691.8401639606785</v>
       </c>
       <c r="F22" t="n">
-        <v>641.5917088071144</v>
+        <v>648.7379080192818</v>
       </c>
       <c r="G22" t="n">
-        <v>641.5917088071144</v>
+        <v>648.7379080192818</v>
       </c>
       <c r="H22" t="n">
-        <v>-39.93557012177867</v>
+        <v>-25.75476123840967</v>
       </c>
       <c r="I22" t="n">
-        <v>-39.93557012177867</v>
+        <v>-25.75476123840967</v>
       </c>
       <c r="J22" t="n">
-        <v>-39.93557012177867</v>
+        <v>-25.75476123840967</v>
       </c>
       <c r="K22" t="n">
-        <v>-39.93557012177867</v>
+        <v>-25.75476123840967</v>
       </c>
       <c r="L22" t="n">
-        <v>-39.93557012177867</v>
+        <v>-25.75476123840967</v>
       </c>
       <c r="M22" t="n">
-        <v>-39.93557012177867</v>
+        <v>-25.75476123840967</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>601.6561386853357</v>
+        <v>622.9831467808722</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>640.7944214857323</v>
+        <v>654.2323060942418</v>
       </c>
       <c r="D23" t="n">
-        <v>505.6383451563888</v>
+        <v>542.6645361666907</v>
       </c>
       <c r="E23" t="n">
-        <v>680.1305846102458</v>
+        <v>687.1065174429099</v>
       </c>
       <c r="F23" t="n">
-        <v>640.7944214857323</v>
+        <v>654.2323060942418</v>
       </c>
       <c r="G23" t="n">
-        <v>640.7944214857323</v>
+        <v>654.2323060942418</v>
       </c>
       <c r="H23" t="n">
-        <v>-42.73532130262598</v>
+        <v>-36.23435607461751</v>
       </c>
       <c r="I23" t="n">
-        <v>-42.73532130262598</v>
+        <v>-36.23435607461751</v>
       </c>
       <c r="J23" t="n">
-        <v>-42.73532130262598</v>
+        <v>-36.23435607461751</v>
       </c>
       <c r="K23" t="n">
-        <v>-42.73532130262598</v>
+        <v>-36.23435607461751</v>
       </c>
       <c r="L23" t="n">
-        <v>-42.73532130262598</v>
+        <v>-36.23435607461751</v>
       </c>
       <c r="M23" t="n">
-        <v>-42.73532130262598</v>
+        <v>-36.23435607461751</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>598.0591001831064</v>
+        <v>617.9979500196243</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>643.5882281593174</v>
+        <v>659.9098507717005</v>
       </c>
       <c r="D24" t="n">
-        <v>515.3612201169566</v>
+        <v>543.4414818418446</v>
       </c>
       <c r="E24" t="n">
-        <v>680.7177616068819</v>
+        <v>700.2796161944985</v>
       </c>
       <c r="F24" t="n">
-        <v>643.5882281593174</v>
+        <v>659.9098507717005</v>
       </c>
       <c r="G24" t="n">
-        <v>643.5882281593174</v>
+        <v>659.9098507717005</v>
       </c>
       <c r="H24" t="n">
-        <v>-42.27204851379714</v>
+        <v>-38.59526129024929</v>
       </c>
       <c r="I24" t="n">
-        <v>-42.27204851379714</v>
+        <v>-38.59526129024929</v>
       </c>
       <c r="J24" t="n">
-        <v>-42.27204851379714</v>
+        <v>-38.59526129024929</v>
       </c>
       <c r="K24" t="n">
-        <v>-42.27204851379714</v>
+        <v>-38.59526129024929</v>
       </c>
       <c r="L24" t="n">
-        <v>-42.27204851379714</v>
+        <v>-38.59526129024929</v>
       </c>
       <c r="M24" t="n">
-        <v>-42.27204851379714</v>
+        <v>-38.59526129024929</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>601.3161796455203</v>
+        <v>621.3145894814512</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>646.2919120369804</v>
+        <v>665.4068226546708</v>
       </c>
       <c r="D25" t="n">
-        <v>538.8545800630815</v>
+        <v>572.0172854039524</v>
       </c>
       <c r="E25" t="n">
-        <v>706.4426266210827</v>
+        <v>726.6387360477073</v>
       </c>
       <c r="F25" t="n">
-        <v>646.2919120369804</v>
+        <v>665.4068226546708</v>
       </c>
       <c r="G25" t="n">
-        <v>646.2919120369804</v>
+        <v>665.4068226546708</v>
       </c>
       <c r="H25" t="n">
-        <v>-26.09852597559266</v>
+        <v>-19.5038972393401</v>
       </c>
       <c r="I25" t="n">
-        <v>-26.09852597559266</v>
+        <v>-19.5038972393401</v>
       </c>
       <c r="J25" t="n">
-        <v>-26.09852597559266</v>
+        <v>-19.5038972393401</v>
       </c>
       <c r="K25" t="n">
-        <v>-26.09852597559266</v>
+        <v>-19.5038972393401</v>
       </c>
       <c r="L25" t="n">
-        <v>-26.09852597559266</v>
+        <v>-19.5038972393401</v>
       </c>
       <c r="M25" t="n">
-        <v>-26.09852597559266</v>
+        <v>-19.5038972393401</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>620.1933860613877</v>
+        <v>645.9029254153307</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>649.0857187105655</v>
+        <v>671.08702693374</v>
       </c>
       <c r="D26" t="n">
-        <v>600.6616210365324</v>
+        <v>635.7183085696068</v>
       </c>
       <c r="E26" t="n">
-        <v>759.2563589516329</v>
+        <v>782.7465560172334</v>
       </c>
       <c r="F26" t="n">
-        <v>649.0857187105655</v>
+        <v>671.08702693374</v>
       </c>
       <c r="G26" t="n">
-        <v>649.0857187105655</v>
+        <v>671.08702693374</v>
       </c>
       <c r="H26" t="n">
-        <v>28.27019111442808</v>
+        <v>39.83405151154942</v>
       </c>
       <c r="I26" t="n">
-        <v>28.27019111442808</v>
+        <v>39.83405151154942</v>
       </c>
       <c r="J26" t="n">
-        <v>28.27019111442808</v>
+        <v>39.83405151154942</v>
       </c>
       <c r="K26" t="n">
-        <v>28.27019111442808</v>
+        <v>39.83405151154942</v>
       </c>
       <c r="L26" t="n">
-        <v>28.27019111442808</v>
+        <v>39.83405151154942</v>
       </c>
       <c r="M26" t="n">
-        <v>28.27019111442808</v>
+        <v>39.83405151154942</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>677.3559098249935</v>
+        <v>710.9210784452895</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>651.8854904014642</v>
+        <v>676.7680940240122</v>
       </c>
       <c r="D27" t="n">
-        <v>561.0703859365187</v>
+        <v>656.8455916413271</v>
       </c>
       <c r="E27" t="n">
-        <v>725.2283649404011</v>
+        <v>805.6183310523489</v>
       </c>
       <c r="F27" t="n">
-        <v>651.8854904014642</v>
+        <v>676.7680940240122</v>
       </c>
       <c r="G27" t="n">
-        <v>651.8854904014642</v>
+        <v>676.7680940240122</v>
       </c>
       <c r="H27" t="n">
-        <v>-9.494816573422185</v>
+        <v>53.85370295245963</v>
       </c>
       <c r="I27" t="n">
-        <v>-9.494816573422185</v>
+        <v>53.85370295245963</v>
       </c>
       <c r="J27" t="n">
-        <v>-9.494816573422185</v>
+        <v>53.85370295245963</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.494816573422185</v>
+        <v>53.85370295245963</v>
       </c>
       <c r="L27" t="n">
-        <v>-9.494816573422185</v>
+        <v>53.85370295245963</v>
       </c>
       <c r="M27" t="n">
-        <v>-9.494816573422185</v>
+        <v>53.85370295245963</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>642.3906738280419</v>
+        <v>730.6217969764718</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>654.4143164448564</v>
+        <v>681.899380428129</v>
       </c>
       <c r="D28" t="n">
-        <v>567.5558083765815</v>
+        <v>633.1522742170727</v>
       </c>
       <c r="E28" t="n">
-        <v>730.2721182764493</v>
+        <v>781.8019481460461</v>
       </c>
       <c r="F28" t="n">
-        <v>654.4143164448564</v>
+        <v>681.899380428129</v>
       </c>
       <c r="G28" t="n">
-        <v>654.4143164448564</v>
+        <v>681.899380428129</v>
       </c>
       <c r="H28" t="n">
-        <v>-10.94949208747724</v>
+        <v>23.86933567055446</v>
       </c>
       <c r="I28" t="n">
-        <v>-10.94949208747724</v>
+        <v>23.86933567055446</v>
       </c>
       <c r="J28" t="n">
-        <v>-10.94949208747724</v>
+        <v>23.86933567055446</v>
       </c>
       <c r="K28" t="n">
-        <v>-10.94949208747724</v>
+        <v>23.86933567055446</v>
       </c>
       <c r="L28" t="n">
-        <v>-10.94949208747724</v>
+        <v>23.86933567055446</v>
       </c>
       <c r="M28" t="n">
-        <v>-10.94949208747724</v>
+        <v>23.86933567055446</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>643.4648243573791</v>
+        <v>705.7687160986835</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>657.2214090787136</v>
+        <v>687.5804475184012</v>
       </c>
       <c r="D29" t="n">
-        <v>540.0820106439768</v>
+        <v>600.8906928719977</v>
       </c>
       <c r="E29" t="n">
-        <v>710.9589129869888</v>
+        <v>755.0282016057326</v>
       </c>
       <c r="F29" t="n">
-        <v>657.2214090787136</v>
+        <v>687.5804475184012</v>
       </c>
       <c r="G29" t="n">
-        <v>657.2214090787136</v>
+        <v>687.5804475184012</v>
       </c>
       <c r="H29" t="n">
-        <v>-28.55322887155945</v>
+        <v>-4.326508417150789</v>
       </c>
       <c r="I29" t="n">
-        <v>-28.55322887155945</v>
+        <v>-4.326508417150789</v>
       </c>
       <c r="J29" t="n">
-        <v>-28.55322887155945</v>
+        <v>-4.326508417150789</v>
       </c>
       <c r="K29" t="n">
-        <v>-28.55322887155945</v>
+        <v>-4.326508417150789</v>
       </c>
       <c r="L29" t="n">
-        <v>-28.55322887155945</v>
+        <v>-4.326508417150789</v>
       </c>
       <c r="M29" t="n">
-        <v>-28.55322887155945</v>
+        <v>-4.326508417150789</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>628.6681802071541</v>
+        <v>683.2539391012505</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>659.9379503372849</v>
+        <v>693.0798430763625</v>
       </c>
       <c r="D30" t="n">
-        <v>555.1888070506433</v>
+        <v>592.8419784724066</v>
       </c>
       <c r="E30" t="n">
-        <v>717.224180747502</v>
+        <v>748.8068395004439</v>
       </c>
       <c r="F30" t="n">
-        <v>659.9379503372849</v>
+        <v>693.0798430763625</v>
       </c>
       <c r="G30" t="n">
-        <v>659.9379503372849</v>
+        <v>693.0798430763625</v>
       </c>
       <c r="H30" t="n">
-        <v>-24.00970713034762</v>
+        <v>-20.145178054381</v>
       </c>
       <c r="I30" t="n">
-        <v>-24.00970713034762</v>
+        <v>-20.145178054381</v>
       </c>
       <c r="J30" t="n">
-        <v>-24.00970713034762</v>
+        <v>-20.145178054381</v>
       </c>
       <c r="K30" t="n">
-        <v>-24.00970713034762</v>
+        <v>-20.145178054381</v>
       </c>
       <c r="L30" t="n">
-        <v>-24.00970713034762</v>
+        <v>-20.145178054381</v>
       </c>
       <c r="M30" t="n">
-        <v>-24.00970713034762</v>
+        <v>-20.145178054381</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>635.9282432069373</v>
+        <v>672.9346650219816</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>662.7558901189457</v>
+        <v>698.7625518195891</v>
       </c>
       <c r="D31" t="n">
-        <v>553.5700457525888</v>
+        <v>589.1443456759879</v>
       </c>
       <c r="E31" t="n">
-        <v>719.2384831245763</v>
+        <v>736.9810339529284</v>
       </c>
       <c r="F31" t="n">
-        <v>662.7558901189457</v>
+        <v>698.7625518195891</v>
       </c>
       <c r="G31" t="n">
-        <v>662.7558901189457</v>
+        <v>698.7625518195891</v>
       </c>
       <c r="H31" t="n">
-        <v>-26.89695776764524</v>
+        <v>-33.44734392177151</v>
       </c>
       <c r="I31" t="n">
-        <v>-26.89695776764524</v>
+        <v>-33.44734392177151</v>
       </c>
       <c r="J31" t="n">
-        <v>-26.89695776764524</v>
+        <v>-33.44734392177151</v>
       </c>
       <c r="K31" t="n">
-        <v>-26.89695776764524</v>
+        <v>-33.44734392177151</v>
       </c>
       <c r="L31" t="n">
-        <v>-26.89695776764524</v>
+        <v>-33.44734392177151</v>
       </c>
       <c r="M31" t="n">
-        <v>-26.89695776764524</v>
+        <v>-33.44734392177151</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>635.8589323513004</v>
+        <v>665.3152078978176</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>665.482928617327</v>
+        <v>704.2698778531438</v>
       </c>
       <c r="D32" t="n">
-        <v>569.8653984325985</v>
+        <v>626.8712232139907</v>
       </c>
       <c r="E32" t="n">
-        <v>729.095943292634</v>
+        <v>775.2364452240726</v>
       </c>
       <c r="F32" t="n">
-        <v>665.482928617327</v>
+        <v>704.2698778531438</v>
       </c>
       <c r="G32" t="n">
-        <v>665.482928617327</v>
+        <v>704.2698778531438</v>
       </c>
       <c r="H32" t="n">
-        <v>-13.2867231571791</v>
+        <v>-4.823530186339306</v>
       </c>
       <c r="I32" t="n">
-        <v>-13.2867231571791</v>
+        <v>-4.823530186339306</v>
       </c>
       <c r="J32" t="n">
-        <v>-13.2867231571791</v>
+        <v>-4.823530186339306</v>
       </c>
       <c r="K32" t="n">
-        <v>-13.2867231571791</v>
+        <v>-4.823530186339306</v>
       </c>
       <c r="L32" t="n">
-        <v>-13.2867231571791</v>
+        <v>-4.823530186339306</v>
       </c>
       <c r="M32" t="n">
-        <v>-13.2867231571791</v>
+        <v>-4.823530186339306</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>652.1962054601479</v>
+        <v>699.4463476668045</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>668.3008683989877</v>
+        <v>709.9607814211505</v>
       </c>
       <c r="D33" t="n">
-        <v>557.6207441966412</v>
+        <v>607.2514539745907</v>
       </c>
       <c r="E33" t="n">
-        <v>724.1742595029914</v>
+        <v>755.683909583693</v>
       </c>
       <c r="F33" t="n">
-        <v>668.3008683989877</v>
+        <v>709.9607814211505</v>
       </c>
       <c r="G33" t="n">
-        <v>668.3008683989877</v>
+        <v>709.9607814211505</v>
       </c>
       <c r="H33" t="n">
-        <v>-27.00569763199731</v>
+        <v>-25.19019483193525</v>
       </c>
       <c r="I33" t="n">
-        <v>-27.00569763199731</v>
+        <v>-25.19019483193525</v>
       </c>
       <c r="J33" t="n">
-        <v>-27.00569763199731</v>
+        <v>-25.19019483193525</v>
       </c>
       <c r="K33" t="n">
-        <v>-27.00569763199731</v>
+        <v>-25.19019483193525</v>
       </c>
       <c r="L33" t="n">
-        <v>-27.00569763199731</v>
+        <v>-25.19019483193525</v>
       </c>
       <c r="M33" t="n">
-        <v>-27.00569763199731</v>
+        <v>-25.19019483193525</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>641.2951707669904</v>
+        <v>684.7705865892152</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>671.1301853456195</v>
+        <v>715.653057887613</v>
       </c>
       <c r="D34" t="n">
-        <v>560.7795038503879</v>
+        <v>619.9577338465905</v>
       </c>
       <c r="E34" t="n">
-        <v>728.951530603835</v>
+        <v>773.2282080837837</v>
       </c>
       <c r="F34" t="n">
-        <v>671.1301853456195</v>
+        <v>715.653057887613</v>
       </c>
       <c r="G34" t="n">
-        <v>671.1301853456195</v>
+        <v>715.653057887613</v>
       </c>
       <c r="H34" t="n">
-        <v>-32.94784321581695</v>
+        <v>-20.38960283763072</v>
       </c>
       <c r="I34" t="n">
-        <v>-32.94784321581695</v>
+        <v>-20.38960283763072</v>
       </c>
       <c r="J34" t="n">
-        <v>-32.94784321581695</v>
+        <v>-20.38960283763072</v>
       </c>
       <c r="K34" t="n">
-        <v>-32.94784321581695</v>
+        <v>-20.38960283763072</v>
       </c>
       <c r="L34" t="n">
-        <v>-32.94784321581695</v>
+        <v>-20.38960283763072</v>
       </c>
       <c r="M34" t="n">
-        <v>-32.94784321581695</v>
+        <v>-20.38960283763072</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>638.1823421298025</v>
+        <v>695.2634550499823</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>673.8682340036502</v>
+        <v>721.1617125325769</v>
       </c>
       <c r="D35" t="n">
-        <v>540.0715473458007</v>
+        <v>619.424387582332</v>
       </c>
       <c r="E35" t="n">
-        <v>701.7593785298226</v>
+        <v>767.5039129063032</v>
       </c>
       <c r="F35" t="n">
-        <v>673.8682340036502</v>
+        <v>721.1617125325769</v>
       </c>
       <c r="G35" t="n">
-        <v>673.8682340036502</v>
+        <v>721.1617125325769</v>
       </c>
       <c r="H35" t="n">
-        <v>-47.62797720086758</v>
+        <v>-27.05595273161765</v>
       </c>
       <c r="I35" t="n">
-        <v>-47.62797720086758</v>
+        <v>-27.05595273161765</v>
       </c>
       <c r="J35" t="n">
-        <v>-47.62797720086758</v>
+        <v>-27.05595273161765</v>
       </c>
       <c r="K35" t="n">
-        <v>-47.62797720086758</v>
+        <v>-27.05595273161765</v>
       </c>
       <c r="L35" t="n">
-        <v>-47.62797720086758</v>
+        <v>-27.05595273161765</v>
       </c>
       <c r="M35" t="n">
-        <v>-47.62797720086758</v>
+        <v>-27.05595273161765</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>626.2402568027826</v>
+        <v>694.1057598009593</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>676.7083411476407</v>
+        <v>726.8539890451564</v>
       </c>
       <c r="D36" t="n">
-        <v>545.6744973523896</v>
+        <v>612.08673387658</v>
       </c>
       <c r="E36" t="n">
-        <v>702.2473037026305</v>
+        <v>761.6790421459626</v>
       </c>
       <c r="F36" t="n">
-        <v>676.7083411476407</v>
+        <v>726.8539890451564</v>
       </c>
       <c r="G36" t="n">
-        <v>676.7083411476407</v>
+        <v>726.8539890451564</v>
       </c>
       <c r="H36" t="n">
-        <v>-56.42702261927264</v>
+        <v>-39.64382978934975</v>
       </c>
       <c r="I36" t="n">
-        <v>-56.42702261927264</v>
+        <v>-39.64382978934975</v>
       </c>
       <c r="J36" t="n">
-        <v>-56.42702261927264</v>
+        <v>-39.64382978934975</v>
       </c>
       <c r="K36" t="n">
-        <v>-56.42702261927264</v>
+        <v>-39.64382978934975</v>
       </c>
       <c r="L36" t="n">
-        <v>-56.42702261927264</v>
+        <v>-39.64382978934975</v>
       </c>
       <c r="M36" t="n">
-        <v>-56.42702261927264</v>
+        <v>-39.64382978934975</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>620.281318528368</v>
+        <v>687.2101592558066</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>679.4568319321476</v>
+        <v>732.3626437347494</v>
       </c>
       <c r="D37" t="n">
-        <v>554.4067995166337</v>
+        <v>618.7249520831421</v>
       </c>
       <c r="E37" t="n">
-        <v>719.908246301198</v>
+        <v>767.4688017824637</v>
       </c>
       <c r="F37" t="n">
-        <v>679.4568319321476</v>
+        <v>732.3626437347494</v>
       </c>
       <c r="G37" t="n">
-        <v>679.4568319321476</v>
+        <v>732.3626437347494</v>
       </c>
       <c r="H37" t="n">
-        <v>-44.11344632168132</v>
+        <v>-37.63332755104776</v>
       </c>
       <c r="I37" t="n">
-        <v>-44.11344632168132</v>
+        <v>-37.63332755104776</v>
       </c>
       <c r="J37" t="n">
-        <v>-44.11344632168132</v>
+        <v>-37.63332755104776</v>
       </c>
       <c r="K37" t="n">
-        <v>-44.11344632168132</v>
+        <v>-37.63332755104776</v>
       </c>
       <c r="L37" t="n">
-        <v>-44.11344632168132</v>
+        <v>-37.63332755104776</v>
       </c>
       <c r="M37" t="n">
-        <v>-44.11344632168132</v>
+        <v>-37.63332755104776</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>635.3433856104663</v>
+        <v>694.7293161837017</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>683.9508451115128</v>
+        <v>738.0549202482695</v>
       </c>
       <c r="D38" t="n">
-        <v>642.7197511748097</v>
+        <v>692.6317265878564</v>
       </c>
       <c r="E38" t="n">
-        <v>811.5308618093778</v>
+        <v>840.6800618268965</v>
       </c>
       <c r="F38" t="n">
-        <v>683.9508451115128</v>
+        <v>738.0549202482695</v>
       </c>
       <c r="G38" t="n">
-        <v>683.9508451115128</v>
+        <v>738.0549202482695</v>
       </c>
       <c r="H38" t="n">
-        <v>37.77521366001348</v>
+        <v>30.09422985419593</v>
       </c>
       <c r="I38" t="n">
-        <v>37.77521366001348</v>
+        <v>30.09422985419593</v>
       </c>
       <c r="J38" t="n">
-        <v>37.77521366001348</v>
+        <v>30.09422985419593</v>
       </c>
       <c r="K38" t="n">
-        <v>37.77521366001348</v>
+        <v>30.09422985419593</v>
       </c>
       <c r="L38" t="n">
-        <v>37.77521366001348</v>
+        <v>30.09422985419593</v>
       </c>
       <c r="M38" t="n">
-        <v>37.77521366001348</v>
+        <v>30.09422985419593</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>721.7260587715263</v>
+        <v>768.1491501024655</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>688.4448582908781</v>
+        <v>743.7471967617894</v>
       </c>
       <c r="D39" t="n">
-        <v>622.272087413163</v>
+        <v>745.4075948121335</v>
       </c>
       <c r="E39" t="n">
-        <v>800.1499384293842</v>
+        <v>894.9569148516703</v>
       </c>
       <c r="F39" t="n">
-        <v>688.4448582908781</v>
+        <v>743.7471967617894</v>
       </c>
       <c r="G39" t="n">
-        <v>688.4448582908781</v>
+        <v>743.7471967617894</v>
       </c>
       <c r="H39" t="n">
-        <v>27.877646002062</v>
+        <v>75.19437619823016</v>
       </c>
       <c r="I39" t="n">
-        <v>27.877646002062</v>
+        <v>75.19437619823016</v>
       </c>
       <c r="J39" t="n">
-        <v>27.877646002062</v>
+        <v>75.19437619823016</v>
       </c>
       <c r="K39" t="n">
-        <v>27.877646002062</v>
+        <v>75.19437619823016</v>
       </c>
       <c r="L39" t="n">
-        <v>27.877646002062</v>
+        <v>75.19437619823016</v>
       </c>
       <c r="M39" t="n">
-        <v>27.877646002062</v>
+        <v>75.19437619823016</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>716.32250429294</v>
+        <v>818.9415729600196</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>692.5039669690144</v>
+        <v>749.0722296319329</v>
       </c>
       <c r="D40" t="n">
-        <v>582.2605791158148</v>
+        <v>694.9324493714859</v>
       </c>
       <c r="E40" t="n">
-        <v>750.2668136216217</v>
+        <v>844.4671390745857</v>
       </c>
       <c r="F40" t="n">
-        <v>692.5039669690144</v>
+        <v>749.0722296319329</v>
       </c>
       <c r="G40" t="n">
-        <v>692.5039669690144</v>
+        <v>749.0722296319329</v>
       </c>
       <c r="H40" t="n">
-        <v>-28.32805305944907</v>
+        <v>17.52858654070685</v>
       </c>
       <c r="I40" t="n">
-        <v>-28.32805305944907</v>
+        <v>17.52858654070685</v>
       </c>
       <c r="J40" t="n">
-        <v>-28.32805305944907</v>
+        <v>17.52858654070685</v>
       </c>
       <c r="K40" t="n">
-        <v>-28.32805305944907</v>
+        <v>17.52858654070685</v>
       </c>
       <c r="L40" t="n">
-        <v>-28.32805305944907</v>
+        <v>17.52858654070685</v>
       </c>
       <c r="M40" t="n">
-        <v>-28.32805305944907</v>
+        <v>17.52858654070685</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>664.1759139095653</v>
+        <v>766.6008161726398</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>697.010186544414</v>
+        <v>754.7645061482932</v>
       </c>
       <c r="D41" t="n">
-        <v>570.703170304873</v>
+        <v>673.4843383411772</v>
       </c>
       <c r="E41" t="n">
-        <v>735.3028627459365</v>
+        <v>831.1123720066663</v>
       </c>
       <c r="F41" t="n">
-        <v>697.010186544414</v>
+        <v>754.7645061482932</v>
       </c>
       <c r="G41" t="n">
-        <v>697.010186544414</v>
+        <v>754.7645061482932</v>
       </c>
       <c r="H41" t="n">
-        <v>-38.26643925542911</v>
+        <v>0.03298431207974135</v>
       </c>
       <c r="I41" t="n">
-        <v>-38.26643925542911</v>
+        <v>0.03298431207974135</v>
       </c>
       <c r="J41" t="n">
-        <v>-38.26643925542911</v>
+        <v>0.03298431207974135</v>
       </c>
       <c r="K41" t="n">
-        <v>-38.26643925542911</v>
+        <v>0.03298431207974135</v>
       </c>
       <c r="L41" t="n">
-        <v>-38.26643925542911</v>
+        <v>0.03298431207974135</v>
       </c>
       <c r="M41" t="n">
-        <v>-38.26643925542911</v>
+        <v>0.03298431207974135</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>658.7437472889849</v>
+        <v>754.797490460373</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>701.3710441980264</v>
+        <v>760.2731608423534</v>
       </c>
       <c r="D42" t="n">
-        <v>577.2509419567548</v>
+        <v>684.923483211288</v>
       </c>
       <c r="E42" t="n">
-        <v>752.1325551456177</v>
+        <v>837.8573849510561</v>
       </c>
       <c r="F42" t="n">
-        <v>701.3710441980264</v>
+        <v>760.2731608423534</v>
       </c>
       <c r="G42" t="n">
-        <v>701.3710441980264</v>
+        <v>760.2731608423534</v>
       </c>
       <c r="H42" t="n">
-        <v>-33.60917069515173</v>
+        <v>-0.7891358006899726</v>
       </c>
       <c r="I42" t="n">
-        <v>-33.60917069515173</v>
+        <v>-0.7891358006899726</v>
       </c>
       <c r="J42" t="n">
-        <v>-33.60917069515173</v>
+        <v>-0.7891358006899726</v>
       </c>
       <c r="K42" t="n">
-        <v>-33.60917069515173</v>
+        <v>-0.7891358006899726</v>
       </c>
       <c r="L42" t="n">
-        <v>-33.60917069515173</v>
+        <v>-0.7891358006899726</v>
       </c>
       <c r="M42" t="n">
-        <v>-33.60917069515173</v>
+        <v>-0.7891358006899726</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>667.7618735028747</v>
+        <v>759.4840250416634</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>705.8830582100777</v>
+        <v>765.9654373595487</v>
       </c>
       <c r="D43" t="n">
-        <v>585.5020027172309</v>
+        <v>691.0805044513207</v>
       </c>
       <c r="E43" t="n">
-        <v>758.8525322414945</v>
+        <v>841.9605860876881</v>
       </c>
       <c r="F43" t="n">
-        <v>705.8830582100777</v>
+        <v>765.9654373595487</v>
       </c>
       <c r="G43" t="n">
-        <v>705.8830582100777</v>
+        <v>765.9654373595487</v>
       </c>
       <c r="H43" t="n">
-        <v>-32.48371655423637</v>
+        <v>-3.202838485376798</v>
       </c>
       <c r="I43" t="n">
-        <v>-32.48371655423637</v>
+        <v>-3.202838485376798</v>
       </c>
       <c r="J43" t="n">
-        <v>-32.48371655423637</v>
+        <v>-3.202838485376798</v>
       </c>
       <c r="K43" t="n">
-        <v>-32.48371655423637</v>
+        <v>-3.202838485376798</v>
       </c>
       <c r="L43" t="n">
-        <v>-32.48371655423637</v>
+        <v>-3.202838485376798</v>
       </c>
       <c r="M43" t="n">
-        <v>-32.48371655423637</v>
+        <v>-3.202838485376798</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>673.3993416558413</v>
+        <v>762.7625988741719</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>710.2495233830306</v>
+        <v>771.4739290123513</v>
       </c>
       <c r="D44" t="n">
-        <v>627.7597827993067</v>
+        <v>656.5144424093772</v>
       </c>
       <c r="E44" t="n">
-        <v>800.1550771809559</v>
+        <v>809.7796344867439</v>
       </c>
       <c r="F44" t="n">
-        <v>710.2495233830306</v>
+        <v>771.4739290123513</v>
       </c>
       <c r="G44" t="n">
-        <v>710.2495233830306</v>
+        <v>771.4739290123513</v>
       </c>
       <c r="H44" t="n">
-        <v>3.805596622462347</v>
+        <v>-33.79737628301555</v>
       </c>
       <c r="I44" t="n">
-        <v>3.805596622462347</v>
+        <v>-33.79737628301555</v>
       </c>
       <c r="J44" t="n">
-        <v>3.805596622462347</v>
+        <v>-33.79737628301555</v>
       </c>
       <c r="K44" t="n">
-        <v>3.805596622462347</v>
+        <v>-33.79737628301555</v>
       </c>
       <c r="L44" t="n">
-        <v>3.805596622462347</v>
+        <v>-33.79737628301555</v>
       </c>
       <c r="M44" t="n">
-        <v>3.805596622462347</v>
+        <v>-33.79737628301555</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>714.0551200054929</v>
+        <v>737.6765527293358</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>714.7631781325246</v>
+        <v>777.1660370535805</v>
       </c>
       <c r="D45" t="n">
-        <v>607.2139848230328</v>
+        <v>680.7430731929601</v>
       </c>
       <c r="E45" t="n">
-        <v>777.6966994591753</v>
+        <v>836.7293289096255</v>
       </c>
       <c r="F45" t="n">
-        <v>714.7631781325246</v>
+        <v>777.1660370535805</v>
       </c>
       <c r="G45" t="n">
-        <v>714.7631781325246</v>
+        <v>777.1660370535805</v>
       </c>
       <c r="H45" t="n">
-        <v>-19.90083580122357</v>
+        <v>-13.79291236822188</v>
       </c>
       <c r="I45" t="n">
-        <v>-19.90083580122357</v>
+        <v>-13.79291236822188</v>
       </c>
       <c r="J45" t="n">
-        <v>-19.90083580122357</v>
+        <v>-13.79291236822188</v>
       </c>
       <c r="K45" t="n">
-        <v>-19.90083580122357</v>
+        <v>-13.79291236822188</v>
       </c>
       <c r="L45" t="n">
-        <v>-19.90083580122357</v>
+        <v>-13.79291236822188</v>
       </c>
       <c r="M45" t="n">
-        <v>-19.90083580122357</v>
+        <v>-13.79291236822188</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>694.862342331301</v>
+        <v>763.3731246853586</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>719.2768328820185</v>
+        <v>782.8553603374124</v>
       </c>
       <c r="D46" t="n">
-        <v>614.2610375223386</v>
+        <v>672.2995074136948</v>
       </c>
       <c r="E46" t="n">
-        <v>773.8011114731131</v>
+        <v>820.2079346070711</v>
       </c>
       <c r="F46" t="n">
-        <v>719.2768328820185</v>
+        <v>782.8553603374124</v>
       </c>
       <c r="G46" t="n">
-        <v>719.2768328820185</v>
+        <v>782.8553603374124</v>
       </c>
       <c r="H46" t="n">
-        <v>-26.31593216094856</v>
+        <v>-36.09226719903664</v>
       </c>
       <c r="I46" t="n">
-        <v>-26.31593216094856</v>
+        <v>-36.09226719903664</v>
       </c>
       <c r="J46" t="n">
-        <v>-26.31593216094856</v>
+        <v>-36.09226719903664</v>
       </c>
       <c r="K46" t="n">
-        <v>-26.31593216094856</v>
+        <v>-36.09226719903664</v>
       </c>
       <c r="L46" t="n">
-        <v>-26.31593216094856</v>
+        <v>-36.09226719903664</v>
       </c>
       <c r="M46" t="n">
-        <v>-26.31593216094856</v>
+        <v>-36.09226719903664</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>692.9609007210699</v>
+        <v>746.7630931383758</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>723.6448858653997</v>
+        <v>788.3611570637014</v>
       </c>
       <c r="D47" t="n">
-        <v>583.3404524088123</v>
+        <v>661.1981520523379</v>
       </c>
       <c r="E47" t="n">
-        <v>752.2614401729877</v>
+        <v>813.8204073225179</v>
       </c>
       <c r="F47" t="n">
-        <v>723.6448858653997</v>
+        <v>788.3611570637014</v>
       </c>
       <c r="G47" t="n">
-        <v>723.6448858653997</v>
+        <v>788.3611570637014</v>
       </c>
       <c r="H47" t="n">
-        <v>-52.94796144325081</v>
+        <v>-55.18098518978017</v>
       </c>
       <c r="I47" t="n">
-        <v>-52.94796144325081</v>
+        <v>-55.18098518978017</v>
       </c>
       <c r="J47" t="n">
-        <v>-52.94796144325081</v>
+        <v>-55.18098518978017</v>
       </c>
       <c r="K47" t="n">
-        <v>-52.94796144325081</v>
+        <v>-55.18098518978017</v>
       </c>
       <c r="L47" t="n">
-        <v>-52.94796144325081</v>
+        <v>-55.18098518978017</v>
       </c>
       <c r="M47" t="n">
-        <v>-52.94796144325081</v>
+        <v>-55.18098518978017</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>670.6969244221489</v>
+        <v>733.1801718739213</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>728.1585406126092</v>
+        <v>794.0493710140055</v>
       </c>
       <c r="D48" t="n">
-        <v>575.3350057675116</v>
+        <v>678.6452154675643</v>
       </c>
       <c r="E48" t="n">
-        <v>736.8361523586752</v>
+        <v>836.4098422880877</v>
       </c>
       <c r="F48" t="n">
-        <v>728.1585406126092</v>
+        <v>794.0493710140055</v>
       </c>
       <c r="G48" t="n">
-        <v>728.1585406126092</v>
+        <v>794.0493710140055</v>
       </c>
       <c r="H48" t="n">
-        <v>-70.71830394218621</v>
+        <v>-37.80306913213801</v>
       </c>
       <c r="I48" t="n">
-        <v>-70.71830394218621</v>
+        <v>-37.80306913213801</v>
       </c>
       <c r="J48" t="n">
-        <v>-70.71830394218621</v>
+        <v>-37.80306913213801</v>
       </c>
       <c r="K48" t="n">
-        <v>-70.71830394218621</v>
+        <v>-37.80306913213801</v>
       </c>
       <c r="L48" t="n">
-        <v>-70.71830394218621</v>
+        <v>-37.80306913213801</v>
       </c>
       <c r="M48" t="n">
-        <v>-70.71830394218621</v>
+        <v>-37.80306913213801</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>657.4402366704229</v>
+        <v>756.2463018818675</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>732.5265935937795</v>
+        <v>799.5540941917189</v>
       </c>
       <c r="D49" t="n">
-        <v>591.1305587334821</v>
+        <v>740.3723429794063</v>
       </c>
       <c r="E49" t="n">
-        <v>753.2108499567237</v>
+        <v>890.0544634583282</v>
       </c>
       <c r="F49" t="n">
-        <v>732.5265935937795</v>
+        <v>799.5540941917189</v>
       </c>
       <c r="G49" t="n">
-        <v>732.5265935937795</v>
+        <v>799.5540941917189</v>
       </c>
       <c r="H49" t="n">
-        <v>-61.54243433614171</v>
+        <v>16.64435549575935</v>
       </c>
       <c r="I49" t="n">
-        <v>-61.54243433614171</v>
+        <v>16.64435549575935</v>
       </c>
       <c r="J49" t="n">
-        <v>-61.54243433614171</v>
+        <v>16.64435549575935</v>
       </c>
       <c r="K49" t="n">
-        <v>-61.54243433614171</v>
+        <v>16.64435549575935</v>
       </c>
       <c r="L49" t="n">
-        <v>-61.54243433614171</v>
+        <v>16.64435549575935</v>
       </c>
       <c r="M49" t="n">
-        <v>-61.54243433614171</v>
+        <v>16.64435549575935</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>670.9841592576378</v>
+        <v>816.1984496874783</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>737.0402483445578</v>
+        <v>800.4326800654383</v>
       </c>
       <c r="D50" t="n">
-        <v>704.3159151852051</v>
+        <v>786.090455445436</v>
       </c>
       <c r="E50" t="n">
-        <v>866.9127839576803</v>
+        <v>933.7779530783325</v>
       </c>
       <c r="F50" t="n">
-        <v>737.0402483445578</v>
+        <v>800.4326800654383</v>
       </c>
       <c r="G50" t="n">
-        <v>737.0402483445578</v>
+        <v>800.4326800654383</v>
       </c>
       <c r="H50" t="n">
-        <v>48.10226645217655</v>
+        <v>61.07324261396252</v>
       </c>
       <c r="I50" t="n">
-        <v>48.10226645217655</v>
+        <v>61.07324261396252</v>
       </c>
       <c r="J50" t="n">
-        <v>48.10226645217655</v>
+        <v>61.07324261396252</v>
       </c>
       <c r="K50" t="n">
-        <v>48.10226645217655</v>
+        <v>61.07324261396252</v>
       </c>
       <c r="L50" t="n">
-        <v>48.10226645217655</v>
+        <v>61.07324261396252</v>
       </c>
       <c r="M50" t="n">
-        <v>48.10226645217655</v>
+        <v>61.07324261396252</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>785.1425147967343</v>
+        <v>861.5059226794008</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>741.5539030953357</v>
+        <v>801.3112659391575</v>
       </c>
       <c r="D51" t="n">
-        <v>719.5114476428223</v>
+        <v>734.1331080821625</v>
       </c>
       <c r="E51" t="n">
-        <v>891.1643241543009</v>
+        <v>890.5754271932384</v>
       </c>
       <c r="F51" t="n">
-        <v>741.5539030953357</v>
+        <v>801.3112659391575</v>
       </c>
       <c r="G51" t="n">
-        <v>741.5539030953357</v>
+        <v>801.3112659391575</v>
       </c>
       <c r="H51" t="n">
-        <v>65.05087926261049</v>
+        <v>12.0932752752841</v>
       </c>
       <c r="I51" t="n">
-        <v>65.05087926261049</v>
+        <v>12.0932752752841</v>
       </c>
       <c r="J51" t="n">
-        <v>65.05087926261049</v>
+        <v>12.0932752752841</v>
       </c>
       <c r="K51" t="n">
-        <v>65.05087926261049</v>
+        <v>12.0932752752841</v>
       </c>
       <c r="L51" t="n">
-        <v>65.05087926261049</v>
+        <v>12.0932752752841</v>
       </c>
       <c r="M51" t="n">
-        <v>65.05087926261049</v>
+        <v>12.0932752752841</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>806.6047823579462</v>
+        <v>813.4045412144416</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>745.7763543138055</v>
+        <v>802.0824446831436</v>
       </c>
       <c r="D52" t="n">
-        <v>672.7293021948996</v>
+        <v>743.7448222764571</v>
       </c>
       <c r="E52" t="n">
-        <v>849.4846772198912</v>
+        <v>896.9976457028653</v>
       </c>
       <c r="F52" t="n">
-        <v>745.7763543138055</v>
+        <v>802.0824446831436</v>
       </c>
       <c r="G52" t="n">
-        <v>745.7763543138055</v>
+        <v>802.0824446831436</v>
       </c>
       <c r="H52" t="n">
-        <v>21.69262792383426</v>
+        <v>19.96781994680621</v>
       </c>
       <c r="I52" t="n">
-        <v>21.69262792383426</v>
+        <v>19.96781994680621</v>
       </c>
       <c r="J52" t="n">
-        <v>21.69262792383426</v>
+        <v>19.96781994680621</v>
       </c>
       <c r="K52" t="n">
-        <v>21.69262792383426</v>
+        <v>19.96781994680621</v>
       </c>
       <c r="L52" t="n">
-        <v>21.69262792383426</v>
+        <v>19.96781994680621</v>
       </c>
       <c r="M52" t="n">
-        <v>21.69262792383426</v>
+        <v>19.96781994680621</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>767.4689822376398</v>
+        <v>822.0502646299499</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>750.2900090649679</v>
+        <v>802.9362497211285</v>
       </c>
       <c r="D53" t="n">
-        <v>651.8533378272982</v>
+        <v>724.982176301649</v>
       </c>
       <c r="E53" t="n">
-        <v>826.7648287582108</v>
+        <v>876.1026412914035</v>
       </c>
       <c r="F53" t="n">
-        <v>750.2900090649679</v>
+        <v>802.9362497211285</v>
       </c>
       <c r="G53" t="n">
-        <v>750.2900090649679</v>
+        <v>802.9362497211285</v>
       </c>
       <c r="H53" t="n">
-        <v>-9.44084864257016</v>
+        <v>-1.157720913974238</v>
       </c>
       <c r="I53" t="n">
-        <v>-9.44084864257016</v>
+        <v>-1.157720913974238</v>
       </c>
       <c r="J53" t="n">
-        <v>-9.44084864257016</v>
+        <v>-1.157720913974238</v>
       </c>
       <c r="K53" t="n">
-        <v>-9.44084864257016</v>
+        <v>-1.157720913974238</v>
       </c>
       <c r="L53" t="n">
-        <v>-9.44084864257016</v>
+        <v>-1.157720913974238</v>
       </c>
       <c r="M53" t="n">
-        <v>-9.44084864257016</v>
+        <v>-1.157720913974238</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>740.8491604223977</v>
+        <v>801.7785288071543</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>754.6580620499635</v>
+        <v>803.7599630911753</v>
       </c>
       <c r="D54" t="n">
-        <v>666.2597298219529</v>
+        <v>723.0081685830443</v>
       </c>
       <c r="E54" t="n">
-        <v>831.2349126658388</v>
+        <v>875.354878522786</v>
       </c>
       <c r="F54" t="n">
-        <v>754.6580620499635</v>
+        <v>803.7599630911753</v>
       </c>
       <c r="G54" t="n">
-        <v>754.6580620499635</v>
+        <v>803.7599630911753</v>
       </c>
       <c r="H54" t="n">
-        <v>-4.212103310314524</v>
+        <v>-7.120694495150369</v>
       </c>
       <c r="I54" t="n">
-        <v>-4.212103310314524</v>
+        <v>-7.120694495150369</v>
       </c>
       <c r="J54" t="n">
-        <v>-4.212103310314524</v>
+        <v>-7.120694495150369</v>
       </c>
       <c r="K54" t="n">
-        <v>-4.212103310314524</v>
+        <v>-7.120694495150369</v>
       </c>
       <c r="L54" t="n">
-        <v>-4.212103310314524</v>
+        <v>-7.120694495150369</v>
       </c>
       <c r="M54" t="n">
-        <v>-4.212103310314524</v>
+        <v>-7.120694495150369</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>750.445958739649</v>
+        <v>796.639268596025</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>759.1717168037618</v>
+        <v>804.6111335735569</v>
       </c>
       <c r="D55" t="n">
-        <v>660.0873324320122</v>
+        <v>716.7749851728839</v>
       </c>
       <c r="E55" t="n">
-        <v>833.592090964293</v>
+        <v>868.2596969052975</v>
       </c>
       <c r="F55" t="n">
-        <v>759.1717168037618</v>
+        <v>804.6111335735569</v>
       </c>
       <c r="G55" t="n">
-        <v>759.1717168037618</v>
+        <v>804.6111335735569</v>
       </c>
       <c r="H55" t="n">
-        <v>-14.18749145388307</v>
+        <v>-13.50193424336775</v>
       </c>
       <c r="I55" t="n">
-        <v>-14.18749145388307</v>
+        <v>-13.50193424336775</v>
       </c>
       <c r="J55" t="n">
-        <v>-14.18749145388307</v>
+        <v>-13.50193424336775</v>
       </c>
       <c r="K55" t="n">
-        <v>-14.18749145388307</v>
+        <v>-13.50193424336775</v>
       </c>
       <c r="L55" t="n">
-        <v>-14.18749145388307</v>
+        <v>-13.50193424336775</v>
       </c>
       <c r="M55" t="n">
-        <v>-14.18749145388307</v>
+        <v>-13.50193424336775</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>744.9842253498788</v>
+        <v>791.1091993301892</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>763.5397697913085</v>
+        <v>805.4348469436037</v>
       </c>
       <c r="D56" t="n">
-        <v>628.5253780456444</v>
+        <v>707.4161371123031</v>
       </c>
       <c r="E56" t="n">
-        <v>799.9267876638935</v>
+        <v>858.0136088767116</v>
       </c>
       <c r="F56" t="n">
-        <v>763.5397697913085</v>
+        <v>805.4348469436037</v>
       </c>
       <c r="G56" t="n">
-        <v>763.5397697913085</v>
+        <v>805.4348469436037</v>
       </c>
       <c r="H56" t="n">
-        <v>-46.67310791642492</v>
+        <v>-24.31288553656571</v>
       </c>
       <c r="I56" t="n">
-        <v>-46.67310791642492</v>
+        <v>-24.31288553656571</v>
       </c>
       <c r="J56" t="n">
-        <v>-46.67310791642492</v>
+        <v>-24.31288553656571</v>
       </c>
       <c r="K56" t="n">
-        <v>-46.67310791642492</v>
+        <v>-24.31288553656571</v>
       </c>
       <c r="L56" t="n">
-        <v>-46.67310791642492</v>
+        <v>-24.31288553656571</v>
       </c>
       <c r="M56" t="n">
-        <v>-46.67310791642492</v>
+        <v>-24.31288553656571</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>716.8666618748836</v>
+        <v>781.121961407038</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>768.0534245364105</v>
+        <v>806.2860174259853</v>
       </c>
       <c r="D57" t="n">
-        <v>643.3470354436713</v>
+        <v>714.4997539751793</v>
       </c>
       <c r="E57" t="n">
-        <v>812.9501902981743</v>
+        <v>859.0089599139002</v>
       </c>
       <c r="F57" t="n">
-        <v>768.0534245364105</v>
+        <v>806.2860174259853</v>
       </c>
       <c r="G57" t="n">
-        <v>768.0534245364105</v>
+        <v>806.2860174259853</v>
       </c>
       <c r="H57" t="n">
-        <v>-41.69695605915229</v>
+        <v>-17.63984420866094</v>
       </c>
       <c r="I57" t="n">
-        <v>-41.69695605915229</v>
+        <v>-17.63984420866094</v>
       </c>
       <c r="J57" t="n">
-        <v>-41.69695605915229</v>
+        <v>-17.63984420866094</v>
       </c>
       <c r="K57" t="n">
-        <v>-41.69695605915229</v>
+        <v>-17.63984420866094</v>
       </c>
       <c r="L57" t="n">
-        <v>-41.69695605915229</v>
+        <v>-17.63984420866094</v>
       </c>
       <c r="M57" t="n">
-        <v>-41.69695605915229</v>
+        <v>-17.63984420866094</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>726.3564684772582</v>
+        <v>788.6461732173243</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>772.5670792815124</v>
+        <v>807.137187908367</v>
       </c>
       <c r="D58" t="n">
-        <v>638.181654897148</v>
+        <v>703.6104952766636</v>
       </c>
       <c r="E58" t="n">
-        <v>812.6510024406775</v>
+        <v>851.8040524011917</v>
       </c>
       <c r="F58" t="n">
-        <v>772.5670792815124</v>
+        <v>807.137187908367</v>
       </c>
       <c r="G58" t="n">
-        <v>772.5670792815124</v>
+        <v>807.137187908367</v>
       </c>
       <c r="H58" t="n">
-        <v>-47.26907467327545</v>
+        <v>-30.99184817170922</v>
       </c>
       <c r="I58" t="n">
-        <v>-47.26907467327545</v>
+        <v>-30.99184817170922</v>
       </c>
       <c r="J58" t="n">
-        <v>-47.26907467327545</v>
+        <v>-30.99184817170922</v>
       </c>
       <c r="K58" t="n">
-        <v>-47.26907467327545</v>
+        <v>-30.99184817170922</v>
       </c>
       <c r="L58" t="n">
-        <v>-47.26907467327545</v>
+        <v>-30.99184817170922</v>
       </c>
       <c r="M58" t="n">
-        <v>-47.26907467327545</v>
+        <v>-30.99184817170922</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>725.298004608237</v>
+        <v>776.1453397366578</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>776.9351322606433</v>
+        <v>807.9609012784138</v>
       </c>
       <c r="D59" t="n">
-        <v>659.7764220312107</v>
+        <v>684.1711698053163</v>
       </c>
       <c r="E59" t="n">
-        <v>821.9683109455161</v>
+        <v>835.26992278565</v>
       </c>
       <c r="F59" t="n">
-        <v>776.9351322606433</v>
+        <v>807.9609012784138</v>
       </c>
       <c r="G59" t="n">
-        <v>776.9351322606433</v>
+        <v>807.9609012784138</v>
       </c>
       <c r="H59" t="n">
-        <v>-38.27974004139762</v>
+        <v>-45.61336251206612</v>
       </c>
       <c r="I59" t="n">
-        <v>-38.27974004139762</v>
+        <v>-45.61336251206612</v>
       </c>
       <c r="J59" t="n">
-        <v>-38.27974004139762</v>
+        <v>-45.61336251206612</v>
       </c>
       <c r="K59" t="n">
-        <v>-38.27974004139762</v>
+        <v>-45.61336251206612</v>
       </c>
       <c r="L59" t="n">
-        <v>-38.27974004139762</v>
+        <v>-45.61336251206612</v>
       </c>
       <c r="M59" t="n">
-        <v>-38.27974004139762</v>
+        <v>-45.61336251206612</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>738.6553922192456</v>
+        <v>762.3475387663476</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>781.4451702209572</v>
+        <v>808.8120717607953</v>
       </c>
       <c r="D60" t="n">
-        <v>668.0694750198742</v>
+        <v>691.0486150987216</v>
       </c>
       <c r="E60" t="n">
-        <v>839.1752248247307</v>
+        <v>846.8394274339629</v>
       </c>
       <c r="F60" t="n">
-        <v>781.4451702209572</v>
+        <v>808.8120717607953</v>
       </c>
       <c r="G60" t="n">
-        <v>781.4451702209572</v>
+        <v>808.8120717607953</v>
       </c>
       <c r="H60" t="n">
-        <v>-28.2778253383303</v>
+        <v>-37.98062607577132</v>
       </c>
       <c r="I60" t="n">
-        <v>-28.2778253383303</v>
+        <v>-37.98062607577132</v>
       </c>
       <c r="J60" t="n">
-        <v>-28.2778253383303</v>
+        <v>-37.98062607577132</v>
       </c>
       <c r="K60" t="n">
-        <v>-28.2778253383303</v>
+        <v>-37.98062607577132</v>
       </c>
       <c r="L60" t="n">
-        <v>-28.2778253383303</v>
+        <v>-37.98062607577132</v>
       </c>
       <c r="M60" t="n">
-        <v>-28.2778253383303</v>
+        <v>-37.98062607577132</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>753.1673448826268</v>
+        <v>770.8314456850241</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>785.8097230857769</v>
+        <v>809.6357851308421</v>
       </c>
       <c r="D61" t="n">
-        <v>687.3080749058626</v>
+        <v>732.2069501701512</v>
       </c>
       <c r="E61" t="n">
-        <v>861.3629282695044</v>
+        <v>888.4723053047882</v>
       </c>
       <c r="F61" t="n">
-        <v>785.8097230857769</v>
+        <v>809.6357851308421</v>
       </c>
       <c r="G61" t="n">
-        <v>785.8097230857769</v>
+        <v>809.6357851308421</v>
       </c>
       <c r="H61" t="n">
-        <v>-7.519013217630306</v>
+        <v>-1.40322283181731</v>
       </c>
       <c r="I61" t="n">
-        <v>-7.519013217630306</v>
+        <v>-1.40322283181731</v>
       </c>
       <c r="J61" t="n">
-        <v>-7.519013217630306</v>
+        <v>-1.40322283181731</v>
       </c>
       <c r="K61" t="n">
-        <v>-7.519013217630306</v>
+        <v>-1.40322283181731</v>
       </c>
       <c r="L61" t="n">
-        <v>-7.519013217630306</v>
+        <v>-1.40322283181731</v>
       </c>
       <c r="M61" t="n">
-        <v>-7.519013217630306</v>
+        <v>-1.40322283181731</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>778.2907098681466</v>
+        <v>808.2325622990248</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>790.3174554729351</v>
+        <v>810.4869556132237</v>
       </c>
       <c r="D62" t="n">
-        <v>726.8748215352774</v>
+        <v>782.2550638031627</v>
       </c>
       <c r="E62" t="n">
-        <v>898.1662071605134</v>
+        <v>937.8173113324069</v>
       </c>
       <c r="F62" t="n">
-        <v>790.3174554729351</v>
+        <v>810.4869556132237</v>
       </c>
       <c r="G62" t="n">
-        <v>790.3174554729351</v>
+        <v>810.4869556132237</v>
       </c>
       <c r="H62" t="n">
-        <v>19.60464594901925</v>
+        <v>50.16409651307007</v>
       </c>
       <c r="I62" t="n">
-        <v>19.60464594901925</v>
+        <v>50.16409651307007</v>
       </c>
       <c r="J62" t="n">
-        <v>19.60464594901925</v>
+        <v>50.16409651307007</v>
       </c>
       <c r="K62" t="n">
-        <v>19.60464594901925</v>
+        <v>50.16409651307007</v>
       </c>
       <c r="L62" t="n">
-        <v>19.60464594901925</v>
+        <v>50.16409651307007</v>
       </c>
       <c r="M62" t="n">
-        <v>19.60464594901925</v>
+        <v>50.16409651307007</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>809.9221014219544</v>
+        <v>860.6510521262937</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>794.8251878600934</v>
+        <v>811.3381260956054</v>
       </c>
       <c r="D63" t="n">
-        <v>664.9255541965726</v>
+        <v>766.0981068115318</v>
       </c>
       <c r="E63" t="n">
-        <v>836.5352724113561</v>
+        <v>921.203089703173</v>
       </c>
       <c r="F63" t="n">
-        <v>794.8251878600934</v>
+        <v>811.3381260956054</v>
       </c>
       <c r="G63" t="n">
-        <v>794.8251878600934</v>
+        <v>811.3381260956054</v>
       </c>
       <c r="H63" t="n">
-        <v>-47.02085743875605</v>
+        <v>32.81239525738409</v>
       </c>
       <c r="I63" t="n">
-        <v>-47.02085743875605</v>
+        <v>32.81239525738409</v>
       </c>
       <c r="J63" t="n">
-        <v>-47.02085743875605</v>
+        <v>32.81239525738409</v>
       </c>
       <c r="K63" t="n">
-        <v>-47.02085743875605</v>
+        <v>32.81239525738409</v>
       </c>
       <c r="L63" t="n">
-        <v>-47.02085743875605</v>
+        <v>32.81239525738409</v>
       </c>
       <c r="M63" t="n">
-        <v>-47.02085743875605</v>
+        <v>32.81239525738409</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>747.8043304213373</v>
+        <v>844.1505213529895</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>798.8966880807526</v>
+        <v>812.1069252409824</v>
       </c>
       <c r="D64" t="n">
-        <v>721.4106788460982</v>
+        <v>759.4123036088652</v>
       </c>
       <c r="E64" t="n">
-        <v>886.1811743546689</v>
+        <v>913.5872643912699</v>
       </c>
       <c r="F64" t="n">
-        <v>798.8966880807526</v>
+        <v>812.1069252409824</v>
       </c>
       <c r="G64" t="n">
-        <v>798.8966880807526</v>
+        <v>812.1069252409824</v>
       </c>
       <c r="H64" t="n">
-        <v>5.729128192359384</v>
+        <v>22.0838858866753</v>
       </c>
       <c r="I64" t="n">
-        <v>5.729128192359384</v>
+        <v>22.0838858866753</v>
       </c>
       <c r="J64" t="n">
-        <v>5.729128192359384</v>
+        <v>22.0838858866753</v>
       </c>
       <c r="K64" t="n">
-        <v>5.729128192359384</v>
+        <v>22.0838858866753</v>
       </c>
       <c r="L64" t="n">
-        <v>5.729128192359384</v>
+        <v>22.0838858866753</v>
       </c>
       <c r="M64" t="n">
-        <v>5.729128192359384</v>
+        <v>22.0838858866753</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>804.625816273112</v>
+        <v>834.1908111276576</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>803.4044204679109</v>
+        <v>812.9580957233641</v>
       </c>
       <c r="D65" t="n">
-        <v>702.8725393314099</v>
+        <v>734.5040726669221</v>
       </c>
       <c r="E65" t="n">
-        <v>873.2057459234015</v>
+        <v>881.480063886694</v>
       </c>
       <c r="F65" t="n">
-        <v>803.4044204679109</v>
+        <v>812.9580957233641</v>
       </c>
       <c r="G65" t="n">
-        <v>803.4044204679109</v>
+        <v>812.9580957233641</v>
       </c>
       <c r="H65" t="n">
-        <v>-18.93814111086228</v>
+        <v>-2.611752045046081</v>
       </c>
       <c r="I65" t="n">
-        <v>-18.93814111086228</v>
+        <v>-2.611752045046081</v>
       </c>
       <c r="J65" t="n">
-        <v>-18.93814111086228</v>
+        <v>-2.611752045046081</v>
       </c>
       <c r="K65" t="n">
-        <v>-18.93814111086228</v>
+        <v>-2.611752045046081</v>
       </c>
       <c r="L65" t="n">
-        <v>-18.93814111086228</v>
+        <v>-2.611752045046081</v>
       </c>
       <c r="M65" t="n">
-        <v>-18.93814111086228</v>
+        <v>-2.611752045046081</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>784.4662793570486</v>
+        <v>810.346343678318</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>807.7667421329027</v>
+        <v>813.7818090934109</v>
       </c>
       <c r="D66" t="n">
-        <v>712.3257788787923</v>
+        <v>724.8270911237838</v>
       </c>
       <c r="E66" t="n">
-        <v>875.4601639966543</v>
+        <v>871.2177867508993</v>
       </c>
       <c r="F66" t="n">
-        <v>807.7667421329027</v>
+        <v>813.7818090934109</v>
       </c>
       <c r="G66" t="n">
-        <v>807.7667421329027</v>
+        <v>813.7818090934109</v>
       </c>
       <c r="H66" t="n">
-        <v>-14.20491870579436</v>
+        <v>-13.57661808700201</v>
       </c>
       <c r="I66" t="n">
-        <v>-14.20491870579436</v>
+        <v>-13.57661808700201</v>
       </c>
       <c r="J66" t="n">
-        <v>-14.20491870579436</v>
+        <v>-13.57661808700201</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.20491870579436</v>
+        <v>-13.57661808700201</v>
       </c>
       <c r="L66" t="n">
-        <v>-14.20491870579436</v>
+        <v>-13.57661808700201</v>
       </c>
       <c r="M66" t="n">
-        <v>-14.20491870579436</v>
+        <v>-13.57661808700201</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>793.5618234271083</v>
+        <v>800.2051910064089</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>812.2744745200611</v>
+        <v>814.6329795757924</v>
       </c>
       <c r="D67" t="n">
-        <v>706.480037688595</v>
+        <v>713.8875232403432</v>
       </c>
       <c r="E67" t="n">
-        <v>874.3820849049271</v>
+        <v>867.9644570334382</v>
       </c>
       <c r="F67" t="n">
-        <v>812.2744745200611</v>
+        <v>814.6005028119187</v>
       </c>
       <c r="G67" t="n">
-        <v>812.2744745200611</v>
+        <v>814.69948713843</v>
       </c>
       <c r="H67" t="n">
-        <v>-20.79614304514152</v>
+        <v>-23.58751434471329</v>
       </c>
       <c r="I67" t="n">
-        <v>-20.79614304514152</v>
+        <v>-23.58751434471329</v>
       </c>
       <c r="J67" t="n">
-        <v>-20.79614304514152</v>
+        <v>-23.58751434471329</v>
       </c>
       <c r="K67" t="n">
-        <v>-20.79614304514152</v>
+        <v>-23.58751434471329</v>
       </c>
       <c r="L67" t="n">
-        <v>-20.79614304514152</v>
+        <v>-23.58751434471329</v>
       </c>
       <c r="M67" t="n">
-        <v>-20.79614304514152</v>
+        <v>-23.58751434471329</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>791.4783314749195</v>
+        <v>791.0454652310791</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>816.636796185053</v>
+        <v>815.4566929458391</v>
       </c>
       <c r="D68" t="n">
-        <v>703.8288554337033</v>
+        <v>725.7893931177624</v>
       </c>
       <c r="E68" t="n">
-        <v>863.8324713393313</v>
+        <v>873.0671541589778</v>
       </c>
       <c r="F68" t="n">
-        <v>816.636796185053</v>
+        <v>815.2568401177439</v>
       </c>
       <c r="G68" t="n">
-        <v>816.636796185053</v>
+        <v>815.7300332290981</v>
       </c>
       <c r="H68" t="n">
-        <v>-30.12021988070026</v>
+        <v>-14.6523699632057</v>
       </c>
       <c r="I68" t="n">
-        <v>-30.12021988070026</v>
+        <v>-14.6523699632057</v>
       </c>
       <c r="J68" t="n">
-        <v>-30.12021988070026</v>
+        <v>-14.6523699632057</v>
       </c>
       <c r="K68" t="n">
-        <v>-30.12021988070026</v>
+        <v>-14.6523699632057</v>
       </c>
       <c r="L68" t="n">
-        <v>-30.12021988070026</v>
+        <v>-14.6523699632057</v>
       </c>
       <c r="M68" t="n">
-        <v>-30.12021988070026</v>
+        <v>-14.6523699632057</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>786.5165763043527</v>
+        <v>800.8043229826334</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>821.1445285722112</v>
+        <v>816.3078634282208</v>
       </c>
       <c r="D69" t="n">
-        <v>701.8436060660669</v>
+        <v>722.3804672536158</v>
       </c>
       <c r="E69" t="n">
-        <v>876.7923530580767</v>
+        <v>874.8792761192143</v>
       </c>
       <c r="F69" t="n">
-        <v>821.1445285722112</v>
+        <v>815.841551625892</v>
       </c>
       <c r="G69" t="n">
-        <v>821.1445285722112</v>
+        <v>816.8530178768668</v>
       </c>
       <c r="H69" t="n">
-        <v>-34.27656611872982</v>
+        <v>-21.4388173700801</v>
       </c>
       <c r="I69" t="n">
-        <v>-34.27656611872982</v>
+        <v>-21.4388173700801</v>
       </c>
       <c r="J69" t="n">
-        <v>-34.27656611872982</v>
+        <v>-21.4388173700801</v>
       </c>
       <c r="K69" t="n">
-        <v>-34.27656611872982</v>
+        <v>-21.4388173700801</v>
       </c>
       <c r="L69" t="n">
-        <v>-34.27656611872982</v>
+        <v>-21.4388173700801</v>
       </c>
       <c r="M69" t="n">
-        <v>-34.27656611872982</v>
+        <v>-21.4388173700801</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>786.8679624534814</v>
+        <v>794.8690460581407</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>825.6522609593695</v>
+        <v>817.1590339106025</v>
       </c>
       <c r="D70" t="n">
-        <v>698.433804133035</v>
+        <v>722.0202240498336</v>
       </c>
       <c r="E70" t="n">
-        <v>865.3337003531004</v>
+        <v>870.3938095565402</v>
       </c>
       <c r="F70" t="n">
-        <v>825.6522609593695</v>
+        <v>816.3950638346876</v>
       </c>
       <c r="G70" t="n">
-        <v>825.6522609593695</v>
+        <v>818.0498562256487</v>
       </c>
       <c r="H70" t="n">
-        <v>-39.93557012170962</v>
+        <v>-25.75476123842236</v>
       </c>
       <c r="I70" t="n">
-        <v>-39.93557012170962</v>
+        <v>-25.75476123842236</v>
       </c>
       <c r="J70" t="n">
-        <v>-39.93557012170962</v>
+        <v>-25.75476123842236</v>
       </c>
       <c r="K70" t="n">
-        <v>-39.93557012170962</v>
+        <v>-25.75476123842236</v>
       </c>
       <c r="L70" t="n">
-        <v>-39.93557012170962</v>
+        <v>-25.75476123842236</v>
       </c>
       <c r="M70" t="n">
-        <v>-39.93557012170962</v>
+        <v>-25.75476123842236</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>785.7166908376599</v>
+        <v>791.4042726721801</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>830.0145826243615</v>
+        <v>817.9827472806493</v>
       </c>
       <c r="D71" t="n">
-        <v>703.7016226950684</v>
+        <v>705.6236295402931</v>
       </c>
       <c r="E71" t="n">
-        <v>864.4515420404299</v>
+        <v>857.1965610661799</v>
       </c>
       <c r="F71" t="n">
-        <v>830.0145826243615</v>
+        <v>816.9028268684671</v>
       </c>
       <c r="G71" t="n">
-        <v>830.0145826243615</v>
+        <v>819.2254263849549</v>
       </c>
       <c r="H71" t="n">
-        <v>-42.73532130260503</v>
+        <v>-36.23435607462684</v>
       </c>
       <c r="I71" t="n">
-        <v>-42.73532130260503</v>
+        <v>-36.23435607462684</v>
       </c>
       <c r="J71" t="n">
-        <v>-42.73532130260503</v>
+        <v>-36.23435607462684</v>
       </c>
       <c r="K71" t="n">
-        <v>-42.73532130260503</v>
+        <v>-36.23435607462684</v>
       </c>
       <c r="L71" t="n">
-        <v>-42.73532130260503</v>
+        <v>-36.23435607462684</v>
       </c>
       <c r="M71" t="n">
-        <v>-42.73532130260503</v>
+        <v>-36.23435607462684</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>787.2792613217565</v>
+        <v>781.7483912060225</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>834.5223150115197</v>
+        <v>818.8339177630309</v>
       </c>
       <c r="D72" t="n">
-        <v>707.7070803935567</v>
+        <v>703.6912320826548</v>
       </c>
       <c r="E72" t="n">
-        <v>880.0525355795324</v>
+        <v>860.0039653801141</v>
       </c>
       <c r="F72" t="n">
-        <v>834.5223150115197</v>
+        <v>817.3199876744999</v>
       </c>
       <c r="G72" t="n">
-        <v>834.5223150115197</v>
+        <v>820.4743646731677</v>
       </c>
       <c r="H72" t="n">
-        <v>-42.2720485139375</v>
+        <v>-38.59526129021017</v>
       </c>
       <c r="I72" t="n">
-        <v>-42.2720485139375</v>
+        <v>-38.59526129021017</v>
       </c>
       <c r="J72" t="n">
-        <v>-42.2720485139375</v>
+        <v>-38.59526129021017</v>
       </c>
       <c r="K72" t="n">
-        <v>-42.2720485139375</v>
+        <v>-38.59526129021017</v>
       </c>
       <c r="L72" t="n">
-        <v>-42.2720485139375</v>
+        <v>-38.59526129021017</v>
       </c>
       <c r="M72" t="n">
-        <v>-42.2720485139375</v>
+        <v>-38.59526129021017</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>792.2502664975822</v>
+        <v>780.2386564728207</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>838.8846366765117</v>
+        <v>819.6576311330776</v>
       </c>
       <c r="D73" t="n">
-        <v>730.7101032485281</v>
+        <v>724.2787418341268</v>
       </c>
       <c r="E73" t="n">
-        <v>892.0405028281488</v>
+        <v>874.4717052036492</v>
       </c>
       <c r="F73" t="n">
-        <v>838.8846366765117</v>
+        <v>817.6373317198669</v>
       </c>
       <c r="G73" t="n">
-        <v>838.8846366765117</v>
+        <v>821.8111297281633</v>
       </c>
       <c r="H73" t="n">
-        <v>-26.0985259755967</v>
+        <v>-19.50389723926783</v>
       </c>
       <c r="I73" t="n">
-        <v>-26.0985259755967</v>
+        <v>-19.50389723926783</v>
       </c>
       <c r="J73" t="n">
-        <v>-26.0985259755967</v>
+        <v>-19.50389723926783</v>
       </c>
       <c r="K73" t="n">
-        <v>-26.0985259755967</v>
+        <v>-19.50389723926783</v>
       </c>
       <c r="L73" t="n">
-        <v>-26.0985259755967</v>
+        <v>-19.50389723926783</v>
       </c>
       <c r="M73" t="n">
-        <v>-26.0985259755967</v>
+        <v>-19.50389723926783</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>812.7861107009151</v>
+        <v>800.1537338938098</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>843.39236906367</v>
+        <v>820.5088016154592</v>
       </c>
       <c r="D74" t="n">
-        <v>781.4632009908563</v>
+        <v>784.1178458999791</v>
       </c>
       <c r="E74" t="n">
-        <v>951.5839626801977</v>
+        <v>940.6592814532617</v>
       </c>
       <c r="F74" t="n">
-        <v>843.39236906367</v>
+        <v>818.0072041725593</v>
       </c>
       <c r="G74" t="n">
-        <v>843.39236906367</v>
+        <v>823.1191870033691</v>
       </c>
       <c r="H74" t="n">
-        <v>28.27019111446767</v>
+        <v>39.83405151160594</v>
       </c>
       <c r="I74" t="n">
-        <v>28.27019111446767</v>
+        <v>39.83405151160594</v>
       </c>
       <c r="J74" t="n">
-        <v>28.27019111446767</v>
+        <v>39.83405151160594</v>
       </c>
       <c r="K74" t="n">
-        <v>28.27019111446767</v>
+        <v>39.83405151160594</v>
       </c>
       <c r="L74" t="n">
-        <v>28.27019111446767</v>
+        <v>39.83405151160594</v>
       </c>
       <c r="M74" t="n">
-        <v>28.27019111446767</v>
+        <v>39.83405151160594</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>871.6625601781377</v>
+        <v>860.3428531270652</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>847.9001014508283</v>
+        <v>821.3599720978409</v>
       </c>
       <c r="D75" t="n">
-        <v>755.669116838806</v>
+        <v>798.3937716405854</v>
       </c>
       <c r="E75" t="n">
-        <v>913.9471441350736</v>
+        <v>949.386196717471</v>
       </c>
       <c r="F75" t="n">
-        <v>847.9001014508283</v>
+        <v>818.345606075021</v>
       </c>
       <c r="G75" t="n">
-        <v>847.9001014508283</v>
+        <v>824.3505325417849</v>
       </c>
       <c r="H75" t="n">
-        <v>-9.494816573488947</v>
+        <v>53.85370295256973</v>
       </c>
       <c r="I75" t="n">
-        <v>-9.494816573488947</v>
+        <v>53.85370295256973</v>
       </c>
       <c r="J75" t="n">
-        <v>-9.494816573488947</v>
+        <v>53.85370295256973</v>
       </c>
       <c r="K75" t="n">
-        <v>-9.494816573488947</v>
+        <v>53.85370295256973</v>
       </c>
       <c r="L75" t="n">
-        <v>-9.494816573488947</v>
+        <v>53.85370295256973</v>
       </c>
       <c r="M75" t="n">
-        <v>-9.494816573488947</v>
+        <v>53.85370295256973</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>838.4052848773393</v>
+        <v>875.2136750504106</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>851.9716016714874</v>
+        <v>822.1287712432179</v>
       </c>
       <c r="D76" t="n">
-        <v>754.8933411663166</v>
+        <v>773.0692340186059</v>
       </c>
       <c r="E76" t="n">
-        <v>926.1419558500749</v>
+        <v>921.7566180326362</v>
       </c>
       <c r="F76" t="n">
-        <v>851.9716016714874</v>
+        <v>818.6822175660357</v>
       </c>
       <c r="G76" t="n">
-        <v>851.9716016714874</v>
+        <v>825.5931119812471</v>
       </c>
       <c r="H76" t="n">
-        <v>-10.94949208744837</v>
+        <v>23.86933567045914</v>
       </c>
       <c r="I76" t="n">
-        <v>-10.94949208744837</v>
+        <v>23.86933567045914</v>
       </c>
       <c r="J76" t="n">
-        <v>-10.94949208744837</v>
+        <v>23.86933567045914</v>
       </c>
       <c r="K76" t="n">
-        <v>-10.94949208744837</v>
+        <v>23.86933567045914</v>
       </c>
       <c r="L76" t="n">
-        <v>-10.94949208744837</v>
+        <v>23.86933567045914</v>
       </c>
       <c r="M76" t="n">
-        <v>-10.94949208744837</v>
+        <v>23.86933567045914</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>841.0221095840391</v>
+        <v>845.998106913677</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>856.4793340586458</v>
+        <v>822.9799417255995</v>
       </c>
       <c r="D77" t="n">
-        <v>746.8620859174728</v>
+        <v>736.8007309434604</v>
       </c>
       <c r="E77" t="n">
-        <v>918.0261333473369</v>
+        <v>891.3380860472183</v>
       </c>
       <c r="F77" t="n">
-        <v>856.4793340586458</v>
+        <v>819.0385326497372</v>
       </c>
       <c r="G77" t="n">
-        <v>856.4793340586458</v>
+        <v>827.0006205220091</v>
       </c>
       <c r="H77" t="n">
-        <v>-28.55322887150212</v>
+        <v>-4.326508417132974</v>
       </c>
       <c r="I77" t="n">
-        <v>-28.55322887150212</v>
+        <v>-4.326508417132974</v>
       </c>
       <c r="J77" t="n">
-        <v>-28.55322887150212</v>
+        <v>-4.326508417132974</v>
       </c>
       <c r="K77" t="n">
-        <v>-28.55322887150212</v>
+        <v>-4.326508417132974</v>
       </c>
       <c r="L77" t="n">
-        <v>-28.55322887150212</v>
+        <v>-4.326508417132974</v>
       </c>
       <c r="M77" t="n">
-        <v>-28.55322887150212</v>
+        <v>-4.326508417132974</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>827.9261051871437</v>
+        <v>818.6534333084664</v>
       </c>
     </row>
     <row r="78">
@@ -4552,40 +4552,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>860.8416557236376</v>
+        <v>823.8036550956461</v>
       </c>
       <c r="D78" t="n">
-        <v>762.0206407260484</v>
+        <v>733.0345966082039</v>
       </c>
       <c r="E78" t="n">
-        <v>924.8521056807165</v>
+        <v>874.7921373461492</v>
       </c>
       <c r="F78" t="n">
-        <v>860.7978531770385</v>
+        <v>819.1898632721267</v>
       </c>
       <c r="G78" t="n">
-        <v>860.8584081146544</v>
+        <v>828.3884661005925</v>
       </c>
       <c r="H78" t="n">
-        <v>-24.00970713020597</v>
+        <v>-20.14517805434673</v>
       </c>
       <c r="I78" t="n">
-        <v>-24.00970713020597</v>
+        <v>-20.14517805434673</v>
       </c>
       <c r="J78" t="n">
-        <v>-24.00970713020597</v>
+        <v>-20.14517805434673</v>
       </c>
       <c r="K78" t="n">
-        <v>-24.00970713020597</v>
+        <v>-20.14517805434673</v>
       </c>
       <c r="L78" t="n">
-        <v>-24.00970713020597</v>
+        <v>-20.14517805434673</v>
       </c>
       <c r="M78" t="n">
-        <v>-24.00970713020597</v>
+        <v>-20.14517805434673</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>836.8319485934317</v>
+        <v>803.6584770412994</v>
       </c>
     </row>
     <row r="79">
@@ -4605,40 +4605,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>865.3493881107959</v>
+        <v>824.654825578028</v>
       </c>
       <c r="D79" t="n">
-        <v>751.1548370222655</v>
+        <v>712.6137288578891</v>
       </c>
       <c r="E79" t="n">
-        <v>919.0871653490922</v>
+        <v>868.0988077974573</v>
       </c>
       <c r="F79" t="n">
-        <v>865.1054185888166</v>
+        <v>819.4161085221582</v>
       </c>
       <c r="G79" t="n">
-        <v>865.5321131516544</v>
+        <v>830.1226930765599</v>
       </c>
       <c r="H79" t="n">
-        <v>-26.89695776757542</v>
+        <v>-33.44734392174642</v>
       </c>
       <c r="I79" t="n">
-        <v>-26.89695776757542</v>
+        <v>-33.44734392174642</v>
       </c>
       <c r="J79" t="n">
-        <v>-26.89695776757542</v>
+        <v>-33.44734392174642</v>
       </c>
       <c r="K79" t="n">
-        <v>-26.89695776757542</v>
+        <v>-33.44734392174642</v>
       </c>
       <c r="L79" t="n">
-        <v>-26.89695776757542</v>
+        <v>-33.44734392174642</v>
       </c>
       <c r="M79" t="n">
-        <v>-26.89695776757542</v>
+        <v>-33.44734392174642</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>838.4524303432205</v>
+        <v>791.2074816562815</v>
       </c>
     </row>
     <row r="80">
@@ -4658,40 +4658,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>869.7117097757879</v>
+        <v>825.4785389480746</v>
       </c>
       <c r="D80" t="n">
-        <v>774.1478265533183</v>
+        <v>740.2804618118274</v>
       </c>
       <c r="E80" t="n">
-        <v>945.3240584402179</v>
+        <v>900.0849858224718</v>
       </c>
       <c r="F80" t="n">
-        <v>869.1689183253386</v>
+        <v>819.6806550010685</v>
       </c>
       <c r="G80" t="n">
-        <v>870.1654859137881</v>
+        <v>831.7436059998507</v>
       </c>
       <c r="H80" t="n">
-        <v>-13.28672315720595</v>
+        <v>-4.823530186341413</v>
       </c>
       <c r="I80" t="n">
-        <v>-13.28672315720595</v>
+        <v>-4.823530186341413</v>
       </c>
       <c r="J80" t="n">
-        <v>-13.28672315720595</v>
+        <v>-4.823530186341413</v>
       </c>
       <c r="K80" t="n">
-        <v>-13.28672315720595</v>
+        <v>-4.823530186341413</v>
       </c>
       <c r="L80" t="n">
-        <v>-13.28672315720595</v>
+        <v>-4.823530186341413</v>
       </c>
       <c r="M80" t="n">
-        <v>-13.28672315720595</v>
+        <v>-4.823530186341413</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>856.4249866185819</v>
+        <v>820.6550087617333</v>
       </c>
     </row>
     <row r="81">
@@ -4711,40 +4711,40 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>874.2194421629462</v>
+        <v>826.3297094304563</v>
       </c>
       <c r="D81" t="n">
-        <v>761.0286240905626</v>
+        <v>725.6145262855698</v>
       </c>
       <c r="E81" t="n">
-        <v>936.5760935580804</v>
+        <v>879.5841736603251</v>
       </c>
       <c r="F81" t="n">
-        <v>873.3225701752255</v>
+        <v>819.7718378414888</v>
       </c>
       <c r="G81" t="n">
-        <v>874.9699801649554</v>
+        <v>833.5025048540472</v>
       </c>
       <c r="H81" t="n">
-        <v>-27.00569763188761</v>
+        <v>-25.19019483187619</v>
       </c>
       <c r="I81" t="n">
-        <v>-27.00569763188761</v>
+        <v>-25.19019483187619</v>
       </c>
       <c r="J81" t="n">
-        <v>-27.00569763188761</v>
+        <v>-25.19019483187619</v>
       </c>
       <c r="K81" t="n">
-        <v>-27.00569763188761</v>
+        <v>-25.19019483187619</v>
       </c>
       <c r="L81" t="n">
-        <v>-27.00569763188761</v>
+        <v>-25.19019483187619</v>
       </c>
       <c r="M81" t="n">
-        <v>-27.00569763188761</v>
+        <v>-25.19019483187619</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>847.2137445310585</v>
+        <v>801.1395145985801</v>
       </c>
     </row>
     <row r="82">
@@ -4764,40 +4764,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>878.7271745501045</v>
+        <v>827.1808799128379</v>
       </c>
       <c r="D82" t="n">
-        <v>763.5901581306503</v>
+        <v>731.3261499370723</v>
       </c>
       <c r="E82" t="n">
-        <v>930.484571743572</v>
+        <v>880.4602984207985</v>
       </c>
       <c r="F82" t="n">
-        <v>877.3462398468946</v>
+        <v>819.9156564441556</v>
       </c>
       <c r="G82" t="n">
-        <v>879.8441465758139</v>
+        <v>835.0736260842563</v>
       </c>
       <c r="H82" t="n">
-        <v>-32.94784321586219</v>
+        <v>-20.38960283758035</v>
       </c>
       <c r="I82" t="n">
-        <v>-32.94784321586219</v>
+        <v>-20.38960283758035</v>
       </c>
       <c r="J82" t="n">
-        <v>-32.94784321586219</v>
+        <v>-20.38960283758035</v>
       </c>
       <c r="K82" t="n">
-        <v>-32.94784321586219</v>
+        <v>-20.38960283758035</v>
       </c>
       <c r="L82" t="n">
-        <v>-32.94784321586219</v>
+        <v>-20.38960283758035</v>
       </c>
       <c r="M82" t="n">
-        <v>-32.94784321586219</v>
+        <v>-20.38960283758035</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>845.7793313342422</v>
+        <v>806.7912770752575</v>
       </c>
     </row>
     <row r="83">
@@ -4817,40 +4817,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>883.0894962150963</v>
+        <v>828.0045932828846</v>
       </c>
       <c r="D83" t="n">
-        <v>752.631169157189</v>
+        <v>723.1107536245457</v>
       </c>
       <c r="E83" t="n">
-        <v>922.5051422457743</v>
+        <v>874.8733342094368</v>
       </c>
       <c r="F83" t="n">
-        <v>881.2127142068296</v>
+        <v>820.0184689040028</v>
       </c>
       <c r="G83" t="n">
-        <v>884.6196129672514</v>
+        <v>836.5470903654837</v>
       </c>
       <c r="H83" t="n">
-        <v>-47.6279772009712</v>
+        <v>-27.05595273153452</v>
       </c>
       <c r="I83" t="n">
-        <v>-47.6279772009712</v>
+        <v>-27.05595273153452</v>
       </c>
       <c r="J83" t="n">
-        <v>-47.6279772009712</v>
+        <v>-27.05595273153452</v>
       </c>
       <c r="K83" t="n">
-        <v>-47.6279772009712</v>
+        <v>-27.05595273153452</v>
       </c>
       <c r="L83" t="n">
-        <v>-47.6279772009712</v>
+        <v>-27.05595273153452</v>
       </c>
       <c r="M83" t="n">
-        <v>-47.6279772009712</v>
+        <v>-27.05595273153452</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,590 +4862,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>835.4615190141251</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>887.5972286022547</v>
-      </c>
-      <c r="D84" t="n">
-        <v>750.1813491940289</v>
-      </c>
-      <c r="E84" t="n">
-        <v>913.8018609698707</v>
-      </c>
-      <c r="F84" t="n">
-        <v>885.1815957763928</v>
-      </c>
-      <c r="G84" t="n">
-        <v>889.5318190607406</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-56.42702261926523</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-56.42702261926523</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-56.42702261926523</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-56.42702261926523</v>
-      </c>
-      <c r="L84" t="n">
-        <v>-56.42702261926523</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-56.42702261926523</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>831.1702059829895</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>891.9595502672465</v>
-      </c>
-      <c r="D85" t="n">
-        <v>767.4113698029923</v>
-      </c>
-      <c r="E85" t="n">
-        <v>937.4663623513316</v>
-      </c>
-      <c r="F85" t="n">
-        <v>888.9562957347316</v>
-      </c>
-      <c r="G85" t="n">
-        <v>894.4484615946798</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-44.1134463215975</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-44.1134463215975</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-44.1134463215975</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-44.1134463215975</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-44.1134463215975</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-44.1134463215975</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>847.846103945649</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>896.4672826544048</v>
-      </c>
-      <c r="D86" t="n">
-        <v>850.4053061580361</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1008.987575216525</v>
-      </c>
-      <c r="F86" t="n">
-        <v>892.8847784092317</v>
-      </c>
-      <c r="G86" t="n">
-        <v>899.4062310593619</v>
-      </c>
-      <c r="H86" t="n">
-        <v>37.7752136599419</v>
-      </c>
-      <c r="I86" t="n">
-        <v>37.7752136599419</v>
-      </c>
-      <c r="J86" t="n">
-        <v>37.7752136599419</v>
-      </c>
-      <c r="K86" t="n">
-        <v>37.7752136599419</v>
-      </c>
-      <c r="L86" t="n">
-        <v>37.7752136599419</v>
-      </c>
-      <c r="M86" t="n">
-        <v>37.7752136599419</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>934.2424963143467</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>900.9750150415632</v>
-      </c>
-      <c r="D87" t="n">
-        <v>849.0372064845869</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1013.286949113506</v>
-      </c>
-      <c r="F87" t="n">
-        <v>896.7922833813054</v>
-      </c>
-      <c r="G87" t="n">
-        <v>904.68832761001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>27.87764600225056</v>
-      </c>
-      <c r="I87" t="n">
-        <v>27.87764600225056</v>
-      </c>
-      <c r="J87" t="n">
-        <v>27.87764600225056</v>
-      </c>
-      <c r="K87" t="n">
-        <v>27.87764600225056</v>
-      </c>
-      <c r="L87" t="n">
-        <v>27.87764600225056</v>
-      </c>
-      <c r="M87" t="n">
-        <v>27.87764600225056</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>928.8526610438138</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>905.0465152622223</v>
-      </c>
-      <c r="D88" t="n">
-        <v>795.6393039954298</v>
-      </c>
-      <c r="E88" t="n">
-        <v>966.5884121935902</v>
-      </c>
-      <c r="F88" t="n">
-        <v>900.28270047969</v>
-      </c>
-      <c r="G88" t="n">
-        <v>909.2744612132062</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-28.32805305948215</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-28.32805305948215</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-28.32805305948215</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-28.32805305948215</v>
-      </c>
-      <c r="L88" t="n">
-        <v>-28.32805305948215</v>
-      </c>
-      <c r="M88" t="n">
-        <v>-28.32805305948215</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>876.7184622027402</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>909.5542476493805</v>
-      </c>
-      <c r="D89" t="n">
-        <v>791.3453748993853</v>
-      </c>
-      <c r="E89" t="n">
-        <v>953.6690047231712</v>
-      </c>
-      <c r="F89" t="n">
-        <v>904.2112638929473</v>
-      </c>
-      <c r="G89" t="n">
-        <v>914.411759850947</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-38.2664392554214</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-38.2664392554214</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-38.2664392554214</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-38.2664392554214</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-38.2664392554214</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-38.2664392554214</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>871.287808393959</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>913.9165693143725</v>
-      </c>
-      <c r="D90" t="n">
-        <v>792.9499005066938</v>
-      </c>
-      <c r="E90" t="n">
-        <v>968.9788924374155</v>
-      </c>
-      <c r="F90" t="n">
-        <v>907.8727392916084</v>
-      </c>
-      <c r="G90" t="n">
-        <v>919.3674584522284</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-33.60917069516866</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-33.60917069516866</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-33.60917069516866</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-33.60917069516866</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-33.60917069516866</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-33.60917069516866</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>880.3073986192038</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>918.4243017015308</v>
-      </c>
-      <c r="D91" t="n">
-        <v>802.1934435480085</v>
-      </c>
-      <c r="E91" t="n">
-        <v>967.322980346585</v>
-      </c>
-      <c r="F91" t="n">
-        <v>911.8183924378349</v>
-      </c>
-      <c r="G91" t="n">
-        <v>924.6142395777455</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-32.48371655415605</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-32.48371655415605</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-32.48371655415605</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-32.48371655415605</v>
-      </c>
-      <c r="L91" t="n">
-        <v>-32.48371655415605</v>
-      </c>
-      <c r="M91" t="n">
-        <v>-32.48371655415605</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>885.9405851473748</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>922.7866233665227</v>
-      </c>
-      <c r="D92" t="n">
-        <v>843.5659958383376</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1017.119822366386</v>
-      </c>
-      <c r="F92" t="n">
-        <v>915.6048676854123</v>
-      </c>
-      <c r="G92" t="n">
-        <v>929.5468156702186</v>
-      </c>
-      <c r="H92" t="n">
-        <v>3.805596622425248</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.805596622425248</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3.805596622425248</v>
-      </c>
-      <c r="K92" t="n">
-        <v>3.805596622425248</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.805596622425248</v>
-      </c>
-      <c r="M92" t="n">
-        <v>3.805596622425248</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>926.5922199889479</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>927.294355753681</v>
-      </c>
-      <c r="D93" t="n">
-        <v>823.8735288619108</v>
-      </c>
-      <c r="E93" t="n">
-        <v>989.1148135358862</v>
-      </c>
-      <c r="F93" t="n">
-        <v>919.3184250666748</v>
-      </c>
-      <c r="G93" t="n">
-        <v>934.6621789294682</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-19.90083580111569</v>
-      </c>
-      <c r="I93" t="n">
-        <v>-19.90083580111569</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-19.90083580111569</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-19.90083580111569</v>
-      </c>
-      <c r="L93" t="n">
-        <v>-19.90083580111569</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-19.90083580111569</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>907.3935199525653</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>931.8020881408393</v>
-      </c>
-      <c r="D94" t="n">
-        <v>816.7781192044529</v>
-      </c>
-      <c r="E94" t="n">
-        <v>980.516397039973</v>
-      </c>
-      <c r="F94" t="n">
-        <v>922.956416624515</v>
-      </c>
-      <c r="G94" t="n">
-        <v>939.9530230724137</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-26.31593216080478</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-26.31593216080478</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-26.31593216080478</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-26.31593216080478</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-26.31593216080478</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-26.31593216080478</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>905.4861559800345</v>
+        <v>800.9486405513501</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/aht/wl_retention_aht_monthly.xlsx
+++ b/outputs/aht/wl_retention_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>537.4477969238861</v>
+        <v>538.3670053030032</v>
       </c>
       <c r="D2" t="n">
-        <v>527.1395858493188</v>
+        <v>520.312765419946</v>
       </c>
       <c r="E2" t="n">
-        <v>671.932378369759</v>
+        <v>673.4108894200306</v>
       </c>
       <c r="F2" t="n">
-        <v>537.4477969238861</v>
+        <v>538.3670053030032</v>
       </c>
       <c r="G2" t="n">
-        <v>537.4477969238861</v>
+        <v>538.3670053030032</v>
       </c>
       <c r="H2" t="n">
-        <v>61.07324261402707</v>
+        <v>60.08939763603072</v>
       </c>
       <c r="I2" t="n">
-        <v>61.07324261402707</v>
+        <v>60.08939763603072</v>
       </c>
       <c r="J2" t="n">
-        <v>61.07324261402707</v>
+        <v>60.08939763603072</v>
       </c>
       <c r="K2" t="n">
-        <v>61.07324261402707</v>
+        <v>60.08939763603072</v>
       </c>
       <c r="L2" t="n">
-        <v>61.07324261402707</v>
+        <v>60.08939763603072</v>
       </c>
       <c r="M2" t="n">
-        <v>61.07324261402707</v>
+        <v>60.08939763603072</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>598.5210395379132</v>
+        <v>598.456402939034</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>543.1221282388797</v>
+        <v>544.0109684602052</v>
       </c>
       <c r="D3" t="n">
-        <v>477.9151317989941</v>
+        <v>474.4535984758214</v>
       </c>
       <c r="E3" t="n">
-        <v>636.1247942515563</v>
+        <v>628.50801124031</v>
       </c>
       <c r="F3" t="n">
-        <v>543.1221282388797</v>
+        <v>544.0109684602052</v>
       </c>
       <c r="G3" t="n">
-        <v>543.1221282388797</v>
+        <v>544.0109684602052</v>
       </c>
       <c r="H3" t="n">
-        <v>12.09327527525714</v>
+        <v>11.02834853091933</v>
       </c>
       <c r="I3" t="n">
-        <v>12.09327527525714</v>
+        <v>11.02834853091933</v>
       </c>
       <c r="J3" t="n">
-        <v>12.09327527525714</v>
+        <v>11.02834853091933</v>
       </c>
       <c r="K3" t="n">
-        <v>12.09327527525714</v>
+        <v>11.02834853091933</v>
       </c>
       <c r="L3" t="n">
-        <v>12.09327527525714</v>
+        <v>11.02834853091933</v>
       </c>
       <c r="M3" t="n">
-        <v>12.09327527525714</v>
+        <v>11.02834853091933</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>555.2154035141368</v>
+        <v>555.0393169911245</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>548.2473307169384</v>
+        <v>549.1087416344521</v>
       </c>
       <c r="D4" t="n">
-        <v>490.5427273644508</v>
+        <v>493.9713193625483</v>
       </c>
       <c r="E4" t="n">
-        <v>644.1696658093224</v>
+        <v>638.4850364785659</v>
       </c>
       <c r="F4" t="n">
-        <v>548.2473307169384</v>
+        <v>549.1087416344521</v>
       </c>
       <c r="G4" t="n">
-        <v>548.2473307169384</v>
+        <v>549.1087416344521</v>
       </c>
       <c r="H4" t="n">
-        <v>19.96781994674587</v>
+        <v>19.34782624233671</v>
       </c>
       <c r="I4" t="n">
-        <v>19.96781994674587</v>
+        <v>19.34782624233671</v>
       </c>
       <c r="J4" t="n">
-        <v>19.96781994674587</v>
+        <v>19.34782624233671</v>
       </c>
       <c r="K4" t="n">
-        <v>19.96781994674587</v>
+        <v>19.34782624233671</v>
       </c>
       <c r="L4" t="n">
-        <v>19.96781994674587</v>
+        <v>19.34782624233671</v>
       </c>
       <c r="M4" t="n">
-        <v>19.96781994674587</v>
+        <v>19.34782624233671</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>568.2151506636843</v>
+        <v>568.4565678767889</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>553.9216620342869</v>
+        <v>554.7527047940418</v>
       </c>
       <c r="D5" t="n">
-        <v>478.3130142744658</v>
+        <v>474.1997212647938</v>
       </c>
       <c r="E5" t="n">
-        <v>631.4339656798745</v>
+        <v>627.8926877322937</v>
       </c>
       <c r="F5" t="n">
-        <v>553.9216620342869</v>
+        <v>554.7527047940418</v>
       </c>
       <c r="G5" t="n">
-        <v>553.9216620342869</v>
+        <v>554.7527047940418</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.157720913952741</v>
+        <v>-1.842742323211265</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.157720913952741</v>
+        <v>-1.842742323211265</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.157720913952741</v>
+        <v>-1.842742323211265</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.157720913952741</v>
+        <v>-1.842742323211265</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.157720913952741</v>
+        <v>-1.842742323211265</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.157720913952741</v>
+        <v>-1.842742323211265</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.7639411203342</v>
+        <v>552.9099624708306</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>559.4129504059144</v>
+        <v>560.214604625903</v>
       </c>
       <c r="D6" t="n">
-        <v>472.8347657814452</v>
+        <v>476.9453927891312</v>
       </c>
       <c r="E6" t="n">
-        <v>624.1424870144613</v>
+        <v>625.0526917769492</v>
       </c>
       <c r="F6" t="n">
-        <v>559.4129504059144</v>
+        <v>560.214604625903</v>
       </c>
       <c r="G6" t="n">
-        <v>559.4129504059144</v>
+        <v>560.214604625903</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.120694495072549</v>
+        <v>-7.864007513799783</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.120694495072549</v>
+        <v>-7.864007513799783</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.120694495072549</v>
+        <v>-7.864007513799783</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.120694495072549</v>
+        <v>-7.864007513799783</v>
       </c>
       <c r="L6" t="n">
-        <v>-7.120694495072549</v>
+        <v>-7.864007513799783</v>
       </c>
       <c r="M6" t="n">
-        <v>-7.120694495072549</v>
+        <v>-7.864007513799783</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>552.2922559108418</v>
+        <v>552.3505971121032</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>565.0872817260469</v>
+        <v>565.8585677961211</v>
       </c>
       <c r="D7" t="n">
-        <v>477.8569593721162</v>
+        <v>477.9397202752399</v>
       </c>
       <c r="E7" t="n">
-        <v>624.8415185711224</v>
+        <v>632.4096597060523</v>
       </c>
       <c r="F7" t="n">
-        <v>565.0872817260469</v>
+        <v>565.8585677961211</v>
       </c>
       <c r="G7" t="n">
-        <v>565.0872817260469</v>
+        <v>565.8585677961211</v>
       </c>
       <c r="H7" t="n">
-        <v>-13.50193424340513</v>
+        <v>-11.90597778538743</v>
       </c>
       <c r="I7" t="n">
-        <v>-13.50193424340513</v>
+        <v>-11.90597778538743</v>
       </c>
       <c r="J7" t="n">
-        <v>-13.50193424340513</v>
+        <v>-11.90597778538743</v>
       </c>
       <c r="K7" t="n">
-        <v>-13.50193424340513</v>
+        <v>-11.90597778538743</v>
       </c>
       <c r="L7" t="n">
-        <v>-13.50193424340513</v>
+        <v>-11.90597778538743</v>
       </c>
       <c r="M7" t="n">
-        <v>-13.50193424340513</v>
+        <v>-11.90597778538743</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>551.5853474826417</v>
+        <v>553.9525900107336</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>570.5785701003684</v>
+        <v>571.3204676382677</v>
       </c>
       <c r="D8" t="n">
-        <v>474.580242074011</v>
+        <v>473.1973632466872</v>
       </c>
       <c r="E8" t="n">
-        <v>616.0247273738659</v>
+        <v>629.0752606941617</v>
       </c>
       <c r="F8" t="n">
-        <v>570.5785701003684</v>
+        <v>571.3204676382677</v>
       </c>
       <c r="G8" t="n">
-        <v>570.5785701003684</v>
+        <v>571.3204676382677</v>
       </c>
       <c r="H8" t="n">
-        <v>-24.3128855365579</v>
+        <v>-24.60257331657908</v>
       </c>
       <c r="I8" t="n">
-        <v>-24.3128855365579</v>
+        <v>-24.60257331657908</v>
       </c>
       <c r="J8" t="n">
-        <v>-24.3128855365579</v>
+        <v>-24.60257331657908</v>
       </c>
       <c r="K8" t="n">
-        <v>-24.3128855365579</v>
+        <v>-24.60257331657908</v>
       </c>
       <c r="L8" t="n">
-        <v>-24.3128855365579</v>
+        <v>-24.60257331657908</v>
       </c>
       <c r="M8" t="n">
-        <v>-24.3128855365579</v>
+        <v>-24.60257331657908</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>546.2656845638105</v>
+        <v>546.7178943216886</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>576.2529014223687</v>
+        <v>576.9644308018259</v>
       </c>
       <c r="D9" t="n">
-        <v>479.9779016442675</v>
+        <v>486.2414027912101</v>
       </c>
       <c r="E9" t="n">
-        <v>639.0275888983696</v>
+        <v>631.8266472376725</v>
       </c>
       <c r="F9" t="n">
-        <v>576.2529014223687</v>
+        <v>576.9644308018259</v>
       </c>
       <c r="G9" t="n">
-        <v>576.2529014223687</v>
+        <v>576.9644308018259</v>
       </c>
       <c r="H9" t="n">
-        <v>-17.63984420861726</v>
+        <v>-17.98205874390024</v>
       </c>
       <c r="I9" t="n">
-        <v>-17.63984420861726</v>
+        <v>-17.98205874390024</v>
       </c>
       <c r="J9" t="n">
-        <v>-17.63984420861726</v>
+        <v>-17.98205874390024</v>
       </c>
       <c r="K9" t="n">
-        <v>-17.63984420861726</v>
+        <v>-17.98205874390024</v>
       </c>
       <c r="L9" t="n">
-        <v>-17.63984420861726</v>
+        <v>-17.98205874390024</v>
       </c>
       <c r="M9" t="n">
-        <v>-17.63984420861726</v>
+        <v>-17.98205874390024</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>558.6130572137515</v>
+        <v>558.9823720579257</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>581.927232744369</v>
+        <v>582.6083939653839</v>
       </c>
       <c r="D10" t="n">
-        <v>474.8625991530342</v>
+        <v>474.8172459855264</v>
       </c>
       <c r="E10" t="n">
-        <v>619.812689920543</v>
+        <v>631.9703615147849</v>
       </c>
       <c r="F10" t="n">
-        <v>581.927232744369</v>
+        <v>582.6083939653839</v>
       </c>
       <c r="G10" t="n">
-        <v>581.927232744369</v>
+        <v>582.6083939653839</v>
       </c>
       <c r="H10" t="n">
-        <v>-30.99184817177049</v>
+        <v>-31.36647114634377</v>
       </c>
       <c r="I10" t="n">
-        <v>-30.99184817177049</v>
+        <v>-31.36647114634377</v>
       </c>
       <c r="J10" t="n">
-        <v>-30.99184817177049</v>
+        <v>-31.36647114634377</v>
       </c>
       <c r="K10" t="n">
-        <v>-30.99184817177049</v>
+        <v>-31.36647114634377</v>
       </c>
       <c r="L10" t="n">
-        <v>-30.99184817177049</v>
+        <v>-31.36647114634377</v>
       </c>
       <c r="M10" t="n">
-        <v>-30.99184817177049</v>
+        <v>-31.36647114634377</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>550.9353845725985</v>
+        <v>551.2419228190402</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>587.418521118651</v>
+        <v>588.0702937923406</v>
       </c>
       <c r="D11" t="n">
-        <v>464.9269496369364</v>
+        <v>465.717247172801</v>
       </c>
       <c r="E11" t="n">
-        <v>620.2437988864712</v>
+        <v>620.1075746694685</v>
       </c>
       <c r="F11" t="n">
-        <v>587.418521118651</v>
+        <v>588.0702937923406</v>
       </c>
       <c r="G11" t="n">
-        <v>587.418521118651</v>
+        <v>588.0702937923406</v>
       </c>
       <c r="H11" t="n">
-        <v>-45.61336251204758</v>
+        <v>-46.03972801211431</v>
       </c>
       <c r="I11" t="n">
-        <v>-45.61336251204758</v>
+        <v>-46.03972801211431</v>
       </c>
       <c r="J11" t="n">
-        <v>-45.61336251204758</v>
+        <v>-46.03972801211431</v>
       </c>
       <c r="K11" t="n">
-        <v>-45.61336251204758</v>
+        <v>-46.03972801211431</v>
       </c>
       <c r="L11" t="n">
-        <v>-45.61336251204758</v>
+        <v>-46.03972801211431</v>
       </c>
       <c r="M11" t="n">
-        <v>-45.61336251204758</v>
+        <v>-46.03972801211431</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>541.8051586066034</v>
+        <v>542.0305657802263</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>593.0928524387424</v>
+        <v>593.7142569468626</v>
       </c>
       <c r="D12" t="n">
-        <v>479.1986932317074</v>
+        <v>479.2757259761641</v>
       </c>
       <c r="E12" t="n">
-        <v>627.3011530988043</v>
+        <v>628.6611462682654</v>
       </c>
       <c r="F12" t="n">
-        <v>593.0928524387424</v>
+        <v>593.7142569468626</v>
       </c>
       <c r="G12" t="n">
-        <v>593.0928524387424</v>
+        <v>593.7142569468626</v>
       </c>
       <c r="H12" t="n">
-        <v>-37.98062607576319</v>
+        <v>-38.47914896771813</v>
       </c>
       <c r="I12" t="n">
-        <v>-37.98062607576319</v>
+        <v>-38.47914896771813</v>
       </c>
       <c r="J12" t="n">
-        <v>-37.98062607576319</v>
+        <v>-38.47914896771813</v>
       </c>
       <c r="K12" t="n">
-        <v>-37.98062607576319</v>
+        <v>-38.47914896771813</v>
       </c>
       <c r="L12" t="n">
-        <v>-37.98062607576319</v>
+        <v>-38.47914896771813</v>
       </c>
       <c r="M12" t="n">
-        <v>-37.98062607576319</v>
+        <v>-38.47914896771813</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>555.1122263629792</v>
+        <v>555.2351079791445</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>598.5841408164223</v>
+        <v>599.176156766399</v>
       </c>
       <c r="D13" t="n">
-        <v>519.5270366840176</v>
+        <v>521.367823707369</v>
       </c>
       <c r="E13" t="n">
-        <v>675.305654015764</v>
+        <v>672.791021007337</v>
       </c>
       <c r="F13" t="n">
-        <v>598.5841408164223</v>
+        <v>599.176156766399</v>
       </c>
       <c r="G13" t="n">
-        <v>598.5841408164223</v>
+        <v>599.176156766399</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.40322283178666</v>
+        <v>-1.979344726077212</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.40322283178666</v>
+        <v>-1.979344726077212</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.40322283178666</v>
+        <v>-1.979344726077212</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.40322283178666</v>
+        <v>-1.979344726077212</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.40322283178666</v>
+        <v>-1.979344726077212</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.40322283178666</v>
+        <v>-1.979344726077212</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>597.1809179846356</v>
+        <v>597.1968120403218</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>604.2584721400249</v>
+        <v>604.8201199132533</v>
       </c>
       <c r="D14" t="n">
-        <v>581.6649619767965</v>
+        <v>577.8838489843391</v>
       </c>
       <c r="E14" t="n">
-        <v>725.2489133461307</v>
+        <v>722.9464181712326</v>
       </c>
       <c r="F14" t="n">
-        <v>604.2584721400249</v>
+        <v>604.8201199132533</v>
       </c>
       <c r="G14" t="n">
-        <v>604.2584721400249</v>
+        <v>604.8201199132533</v>
       </c>
       <c r="H14" t="n">
-        <v>50.16409651307542</v>
+        <v>49.45483470684638</v>
       </c>
       <c r="I14" t="n">
-        <v>50.16409651307542</v>
+        <v>49.45483470684638</v>
       </c>
       <c r="J14" t="n">
-        <v>50.16409651307542</v>
+        <v>49.45483470684638</v>
       </c>
       <c r="K14" t="n">
-        <v>50.16409651307542</v>
+        <v>49.45483470684638</v>
       </c>
       <c r="L14" t="n">
-        <v>50.16409651307542</v>
+        <v>49.45483470684638</v>
       </c>
       <c r="M14" t="n">
-        <v>50.16409651307542</v>
+        <v>49.45483470684638</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>654.4225686531003</v>
+        <v>654.2749546200996</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>609.9328034643514</v>
+        <v>610.4640830663373</v>
       </c>
       <c r="D15" t="n">
-        <v>572.5734235332211</v>
+        <v>563.1305236587482</v>
       </c>
       <c r="E15" t="n">
-        <v>712.6867913113542</v>
+        <v>714.1502466346744</v>
       </c>
       <c r="F15" t="n">
-        <v>609.9328034643514</v>
+        <v>610.4640830663373</v>
       </c>
       <c r="G15" t="n">
-        <v>609.9328034643514</v>
+        <v>610.4640830663373</v>
       </c>
       <c r="H15" t="n">
-        <v>32.81239525737328</v>
+        <v>32.03551897725455</v>
       </c>
       <c r="I15" t="n">
-        <v>32.81239525737328</v>
+        <v>32.03551897725455</v>
       </c>
       <c r="J15" t="n">
-        <v>32.81239525737328</v>
+        <v>32.03551897725455</v>
       </c>
       <c r="K15" t="n">
-        <v>32.81239525737328</v>
+        <v>32.03551897725455</v>
       </c>
       <c r="L15" t="n">
-        <v>32.81239525737328</v>
+        <v>32.03551897725455</v>
       </c>
       <c r="M15" t="n">
-        <v>32.81239525737328</v>
+        <v>32.03551897725455</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>642.7451987217247</v>
+        <v>642.4996020435918</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>615.0580059508401</v>
+        <v>615.5618562368646</v>
       </c>
       <c r="D16" t="n">
-        <v>563.1104949077481</v>
+        <v>566.7358148778366</v>
       </c>
       <c r="E16" t="n">
-        <v>711.7715095500284</v>
+        <v>714.0517870423423</v>
       </c>
       <c r="F16" t="n">
-        <v>615.0580059508401</v>
+        <v>615.5618562368646</v>
       </c>
       <c r="G16" t="n">
-        <v>615.0580059508401</v>
+        <v>615.5618562368646</v>
       </c>
       <c r="H16" t="n">
-        <v>22.08388588663487</v>
+        <v>21.10769351161604</v>
       </c>
       <c r="I16" t="n">
-        <v>22.08388588663487</v>
+        <v>21.10769351161604</v>
       </c>
       <c r="J16" t="n">
-        <v>22.08388588663487</v>
+        <v>21.10769351161604</v>
       </c>
       <c r="K16" t="n">
-        <v>22.08388588663487</v>
+        <v>21.10769351161604</v>
       </c>
       <c r="L16" t="n">
-        <v>22.08388588663487</v>
+        <v>21.10769351161604</v>
       </c>
       <c r="M16" t="n">
-        <v>22.08388588663487</v>
+        <v>21.10769351161604</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>637.141891837475</v>
+        <v>636.6695497484807</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>620.7323372776641</v>
+        <v>621.2058194017926</v>
       </c>
       <c r="D17" t="n">
-        <v>538.5517972082054</v>
+        <v>540.0250431461828</v>
       </c>
       <c r="E17" t="n">
-        <v>691.237298083924</v>
+        <v>695.3883932717576</v>
       </c>
       <c r="F17" t="n">
-        <v>620.7323372776641</v>
+        <v>621.2058194017926</v>
       </c>
       <c r="G17" t="n">
-        <v>620.7323372776641</v>
+        <v>621.2058194017926</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.611752044963746</v>
+        <v>-3.680057978213364</v>
       </c>
       <c r="I17" t="n">
-        <v>-2.611752044963746</v>
+        <v>-3.680057978213364</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.611752044963746</v>
+        <v>-3.680057978213364</v>
       </c>
       <c r="K17" t="n">
-        <v>-2.611752044963746</v>
+        <v>-3.680057978213364</v>
       </c>
       <c r="L17" t="n">
-        <v>-2.611752044963746</v>
+        <v>-3.680057978213364</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.611752044963746</v>
+        <v>-3.680057978213364</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>618.1205852327004</v>
+        <v>617.5257614235793</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>626.2236256584616</v>
+        <v>626.6677192388196</v>
       </c>
       <c r="D18" t="n">
-        <v>537.3596901842951</v>
+        <v>533.9206263973575</v>
       </c>
       <c r="E18" t="n">
-        <v>691.861121648453</v>
+        <v>688.7305528792108</v>
       </c>
       <c r="F18" t="n">
-        <v>626.2236256584616</v>
+        <v>626.6677192388196</v>
       </c>
       <c r="G18" t="n">
-        <v>626.2236256584616</v>
+        <v>626.6677192388196</v>
       </c>
       <c r="H18" t="n">
-        <v>-13.57661808704303</v>
+        <v>-14.73609959524077</v>
       </c>
       <c r="I18" t="n">
-        <v>-13.57661808704303</v>
+        <v>-14.73609959524077</v>
       </c>
       <c r="J18" t="n">
-        <v>-13.57661808704303</v>
+        <v>-14.73609959524077</v>
       </c>
       <c r="K18" t="n">
-        <v>-13.57661808704303</v>
+        <v>-14.73609959524077</v>
       </c>
       <c r="L18" t="n">
-        <v>-13.57661808704303</v>
+        <v>-14.73609959524077</v>
       </c>
       <c r="M18" t="n">
-        <v>-13.57661808704303</v>
+        <v>-14.73609959524077</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>612.6470075714186</v>
+        <v>611.9316196435789</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>631.8979569859634</v>
+        <v>632.3116824128555</v>
       </c>
       <c r="D19" t="n">
-        <v>530.4476163481615</v>
+        <v>534.0871628404378</v>
       </c>
       <c r="E19" t="n">
-        <v>675.4260695441485</v>
+        <v>691.2508843385999</v>
       </c>
       <c r="F19" t="n">
-        <v>631.8979569859634</v>
+        <v>632.3116824128555</v>
       </c>
       <c r="G19" t="n">
-        <v>631.8979569859634</v>
+        <v>632.3116824128555</v>
       </c>
       <c r="H19" t="n">
-        <v>-23.58751434480291</v>
+        <v>-20.69553420697285</v>
       </c>
       <c r="I19" t="n">
-        <v>-23.58751434480291</v>
+        <v>-20.69553420697285</v>
       </c>
       <c r="J19" t="n">
-        <v>-23.58751434480291</v>
+        <v>-20.69553420697285</v>
       </c>
       <c r="K19" t="n">
-        <v>-23.58751434480291</v>
+        <v>-20.69553420697285</v>
       </c>
       <c r="L19" t="n">
-        <v>-23.58751434480291</v>
+        <v>-20.69553420697285</v>
       </c>
       <c r="M19" t="n">
-        <v>-23.58751434480291</v>
+        <v>-20.69553420697285</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>608.3104426411605</v>
+        <v>611.6161482058826</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>637.3892453674168</v>
+        <v>637.7735822586967</v>
       </c>
       <c r="D20" t="n">
-        <v>544.6950356064243</v>
+        <v>541.9314612517786</v>
       </c>
       <c r="E20" t="n">
-        <v>695.392291662678</v>
+        <v>695.5634588832514</v>
       </c>
       <c r="F20" t="n">
-        <v>637.3892453674168</v>
+        <v>637.7735822586967</v>
       </c>
       <c r="G20" t="n">
-        <v>637.3892453674168</v>
+        <v>637.7735822586967</v>
       </c>
       <c r="H20" t="n">
-        <v>-14.65236996320321</v>
+        <v>-15.184547641614</v>
       </c>
       <c r="I20" t="n">
-        <v>-14.65236996320321</v>
+        <v>-15.184547641614</v>
       </c>
       <c r="J20" t="n">
-        <v>-14.65236996320321</v>
+        <v>-15.184547641614</v>
       </c>
       <c r="K20" t="n">
-        <v>-14.65236996320321</v>
+        <v>-15.184547641614</v>
       </c>
       <c r="L20" t="n">
-        <v>-14.65236996320321</v>
+        <v>-15.184547641614</v>
       </c>
       <c r="M20" t="n">
-        <v>-14.65236996320321</v>
+        <v>-15.184547641614</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>622.7368754042136</v>
+        <v>622.5890346170827</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>643.0635766933493</v>
+        <v>643.4175469808155</v>
       </c>
       <c r="D21" t="n">
-        <v>544.9565324811011</v>
+        <v>547.1041997213489</v>
       </c>
       <c r="E21" t="n">
-        <v>698.8853571048963</v>
+        <v>695.4331463083597</v>
       </c>
       <c r="F21" t="n">
-        <v>643.0635766933493</v>
+        <v>643.4175469808155</v>
       </c>
       <c r="G21" t="n">
-        <v>643.0635766933493</v>
+        <v>643.4175469808155</v>
       </c>
       <c r="H21" t="n">
-        <v>-21.43881737013604</v>
+        <v>-21.97215068488489</v>
       </c>
       <c r="I21" t="n">
-        <v>-21.43881737013604</v>
+        <v>-21.97215068488489</v>
       </c>
       <c r="J21" t="n">
-        <v>-21.43881737013604</v>
+        <v>-21.97215068488489</v>
       </c>
       <c r="K21" t="n">
-        <v>-21.43881737013604</v>
+        <v>-21.97215068488489</v>
       </c>
       <c r="L21" t="n">
-        <v>-21.43881737013604</v>
+        <v>-21.97215068488489</v>
       </c>
       <c r="M21" t="n">
-        <v>-21.43881737013604</v>
+        <v>-21.97215068488489</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>621.6247593232133</v>
+        <v>621.4453962959305</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>648.7379080192818</v>
+        <v>649.0615117029344</v>
       </c>
       <c r="D22" t="n">
-        <v>542.3246234736501</v>
+        <v>540.7203286351544</v>
       </c>
       <c r="E22" t="n">
-        <v>691.8401639606785</v>
+        <v>703.6109279630055</v>
       </c>
       <c r="F22" t="n">
-        <v>648.7379080192818</v>
+        <v>649.0615117029344</v>
       </c>
       <c r="G22" t="n">
-        <v>648.7379080192818</v>
+        <v>649.0615117029344</v>
       </c>
       <c r="H22" t="n">
-        <v>-25.75476123840967</v>
+        <v>-26.31699368896689</v>
       </c>
       <c r="I22" t="n">
-        <v>-25.75476123840967</v>
+        <v>-26.31699368896689</v>
       </c>
       <c r="J22" t="n">
-        <v>-25.75476123840967</v>
+        <v>-26.31699368896689</v>
       </c>
       <c r="K22" t="n">
-        <v>-25.75476123840967</v>
+        <v>-26.31699368896689</v>
       </c>
       <c r="L22" t="n">
-        <v>-25.75476123840967</v>
+        <v>-26.31699368896689</v>
       </c>
       <c r="M22" t="n">
-        <v>-25.75476123840967</v>
+        <v>-26.31699368896689</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>622.9831467808722</v>
+        <v>622.7445180139674</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>654.2323060942418</v>
+        <v>654.5234130500778</v>
       </c>
       <c r="D23" t="n">
-        <v>542.6645361666907</v>
+        <v>538.0405666062732</v>
       </c>
       <c r="E23" t="n">
-        <v>687.1065174429099</v>
+        <v>696.37336307253</v>
       </c>
       <c r="F23" t="n">
-        <v>654.2323060942418</v>
+        <v>654.5234130500778</v>
       </c>
       <c r="G23" t="n">
-        <v>654.2323060942418</v>
+        <v>654.5234130500778</v>
       </c>
       <c r="H23" t="n">
-        <v>-36.23435607461751</v>
+        <v>-36.79702449343127</v>
       </c>
       <c r="I23" t="n">
-        <v>-36.23435607461751</v>
+        <v>-36.79702449343127</v>
       </c>
       <c r="J23" t="n">
-        <v>-36.23435607461751</v>
+        <v>-36.79702449343127</v>
       </c>
       <c r="K23" t="n">
-        <v>-36.23435607461751</v>
+        <v>-36.79702449343127</v>
       </c>
       <c r="L23" t="n">
-        <v>-36.23435607461751</v>
+        <v>-36.79702449343127</v>
       </c>
       <c r="M23" t="n">
-        <v>-36.23435607461751</v>
+        <v>-36.79702449343127</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>617.9979500196243</v>
+        <v>617.7263885566465</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>659.9098507717005</v>
+        <v>660.1673777754595</v>
       </c>
       <c r="D24" t="n">
-        <v>543.4414818418446</v>
+        <v>545.0609716274139</v>
       </c>
       <c r="E24" t="n">
-        <v>700.2796161944985</v>
+        <v>694.5889676087722</v>
       </c>
       <c r="F24" t="n">
-        <v>659.9098507717005</v>
+        <v>660.1673777754595</v>
       </c>
       <c r="G24" t="n">
-        <v>659.9098507717005</v>
+        <v>660.1673777754595</v>
       </c>
       <c r="H24" t="n">
-        <v>-38.59526129024929</v>
+        <v>-39.11547484376965</v>
       </c>
       <c r="I24" t="n">
-        <v>-38.59526129024929</v>
+        <v>-39.11547484376965</v>
       </c>
       <c r="J24" t="n">
-        <v>-38.59526129024929</v>
+        <v>-39.11547484376965</v>
       </c>
       <c r="K24" t="n">
-        <v>-38.59526129024929</v>
+        <v>-39.11547484376965</v>
       </c>
       <c r="L24" t="n">
-        <v>-38.59526129024929</v>
+        <v>-39.11547484376965</v>
       </c>
       <c r="M24" t="n">
-        <v>-38.59526129024929</v>
+        <v>-39.11547484376965</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>621.3145894814512</v>
+        <v>621.0519029316898</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>665.4068226546708</v>
+        <v>665.6317087118709</v>
       </c>
       <c r="D25" t="n">
-        <v>572.0172854039524</v>
+        <v>565.3188923329772</v>
       </c>
       <c r="E25" t="n">
-        <v>726.6387360477073</v>
+        <v>718.7497270958386</v>
       </c>
       <c r="F25" t="n">
-        <v>665.4068226546708</v>
+        <v>665.6317087118709</v>
       </c>
       <c r="G25" t="n">
-        <v>665.4068226546708</v>
+        <v>665.6317087118709</v>
       </c>
       <c r="H25" t="n">
-        <v>-19.5038972393401</v>
+        <v>-19.96027130451108</v>
       </c>
       <c r="I25" t="n">
-        <v>-19.5038972393401</v>
+        <v>-19.96027130451108</v>
       </c>
       <c r="J25" t="n">
-        <v>-19.5038972393401</v>
+        <v>-19.96027130451108</v>
       </c>
       <c r="K25" t="n">
-        <v>-19.5038972393401</v>
+        <v>-19.96027130451108</v>
       </c>
       <c r="L25" t="n">
-        <v>-19.5038972393401</v>
+        <v>-19.96027130451108</v>
       </c>
       <c r="M25" t="n">
-        <v>-19.5038972393401</v>
+        <v>-19.96027130451108</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>645.9029254153307</v>
+        <v>645.6714374073599</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>671.08702693374</v>
+        <v>671.2781840128293</v>
       </c>
       <c r="D26" t="n">
-        <v>635.7183085696068</v>
+        <v>637.8049852013353</v>
       </c>
       <c r="E26" t="n">
-        <v>782.7465560172334</v>
+        <v>787.4562535347202</v>
       </c>
       <c r="F26" t="n">
-        <v>671.08702693374</v>
+        <v>671.2781840128293</v>
       </c>
       <c r="G26" t="n">
-        <v>671.08702693374</v>
+        <v>671.2781840128293</v>
       </c>
       <c r="H26" t="n">
-        <v>39.83405151154942</v>
+        <v>39.39989515199725</v>
       </c>
       <c r="I26" t="n">
-        <v>39.83405151154942</v>
+        <v>39.39989515199725</v>
       </c>
       <c r="J26" t="n">
-        <v>39.83405151154942</v>
+        <v>39.39989515199725</v>
       </c>
       <c r="K26" t="n">
-        <v>39.83405151154942</v>
+        <v>39.39989515199725</v>
       </c>
       <c r="L26" t="n">
-        <v>39.83405151154942</v>
+        <v>39.39989515199725</v>
       </c>
       <c r="M26" t="n">
-        <v>39.83405151154942</v>
+        <v>39.39989515199725</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>710.9210784452895</v>
+        <v>710.6780791648266</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>676.7680940240122</v>
+        <v>676.9285868086912</v>
       </c>
       <c r="D27" t="n">
-        <v>656.8455916413271</v>
+        <v>654.789704297984</v>
       </c>
       <c r="E27" t="n">
-        <v>805.6183310523489</v>
+        <v>808.4004337464904</v>
       </c>
       <c r="F27" t="n">
-        <v>676.7680940240122</v>
+        <v>676.9285868086912</v>
       </c>
       <c r="G27" t="n">
-        <v>676.7680940240122</v>
+        <v>676.9285868086912</v>
       </c>
       <c r="H27" t="n">
-        <v>53.85370295245963</v>
+        <v>53.35450349564584</v>
       </c>
       <c r="I27" t="n">
-        <v>53.85370295245963</v>
+        <v>53.35450349564584</v>
       </c>
       <c r="J27" t="n">
-        <v>53.85370295245963</v>
+        <v>53.35450349564584</v>
       </c>
       <c r="K27" t="n">
-        <v>53.85370295245963</v>
+        <v>53.35450349564584</v>
       </c>
       <c r="L27" t="n">
-        <v>53.85370295245963</v>
+        <v>53.35450349564584</v>
       </c>
       <c r="M27" t="n">
-        <v>53.85370295245963</v>
+        <v>53.35450349564584</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>730.6217969764718</v>
+        <v>730.2830903043371</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>681.899380428129</v>
+        <v>682.0321764307599</v>
       </c>
       <c r="D28" t="n">
-        <v>633.1522742170727</v>
+        <v>629.6734639398148</v>
       </c>
       <c r="E28" t="n">
-        <v>781.8019481460461</v>
+        <v>774.9235461009331</v>
       </c>
       <c r="F28" t="n">
-        <v>681.899380428129</v>
+        <v>682.0321764307599</v>
       </c>
       <c r="G28" t="n">
-        <v>681.899380428129</v>
+        <v>682.0321764307599</v>
       </c>
       <c r="H28" t="n">
-        <v>23.86933567055446</v>
+        <v>22.52796312622899</v>
       </c>
       <c r="I28" t="n">
-        <v>23.86933567055446</v>
+        <v>22.52796312622899</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86933567055446</v>
+        <v>22.52796312622899</v>
       </c>
       <c r="K28" t="n">
-        <v>23.86933567055446</v>
+        <v>22.52796312622899</v>
       </c>
       <c r="L28" t="n">
-        <v>23.86933567055446</v>
+        <v>22.52796312622899</v>
       </c>
       <c r="M28" t="n">
-        <v>23.86933567055446</v>
+        <v>22.52796312622899</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>705.7687160986835</v>
+        <v>704.5601395569889</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>687.5804475184012</v>
+        <v>687.6825792266219</v>
       </c>
       <c r="D29" t="n">
-        <v>600.8906928719977</v>
+        <v>610.3664349191807</v>
       </c>
       <c r="E29" t="n">
-        <v>755.0282016057326</v>
+        <v>748.130195039673</v>
       </c>
       <c r="F29" t="n">
-        <v>687.5804475184012</v>
+        <v>687.6825792266219</v>
       </c>
       <c r="G29" t="n">
-        <v>687.5804475184012</v>
+        <v>687.6825792266219</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.326508417150789</v>
+        <v>-5.774295809714337</v>
       </c>
       <c r="I29" t="n">
-        <v>-4.326508417150789</v>
+        <v>-5.774295809714337</v>
       </c>
       <c r="J29" t="n">
-        <v>-4.326508417150789</v>
+        <v>-5.774295809714337</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.326508417150789</v>
+        <v>-5.774295809714337</v>
       </c>
       <c r="L29" t="n">
-        <v>-4.326508417150789</v>
+        <v>-5.774295809714337</v>
       </c>
       <c r="M29" t="n">
-        <v>-4.326508417150789</v>
+        <v>-5.774295809714337</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>683.2539391012505</v>
+        <v>681.9082834169076</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>693.0798430763625</v>
+        <v>693.154418182037</v>
       </c>
       <c r="D30" t="n">
-        <v>592.8419784724066</v>
+        <v>606.9266747567334</v>
       </c>
       <c r="E30" t="n">
-        <v>748.8068395004439</v>
+        <v>749.1147896803324</v>
       </c>
       <c r="F30" t="n">
-        <v>693.0798430763625</v>
+        <v>693.154418182037</v>
       </c>
       <c r="G30" t="n">
-        <v>693.0798430763625</v>
+        <v>693.154418182037</v>
       </c>
       <c r="H30" t="n">
-        <v>-20.145178054381</v>
+        <v>-21.69529993788751</v>
       </c>
       <c r="I30" t="n">
-        <v>-20.145178054381</v>
+        <v>-21.69529993788751</v>
       </c>
       <c r="J30" t="n">
-        <v>-20.145178054381</v>
+        <v>-21.69529993788751</v>
       </c>
       <c r="K30" t="n">
-        <v>-20.145178054381</v>
+        <v>-21.69529993788751</v>
       </c>
       <c r="L30" t="n">
-        <v>-20.145178054381</v>
+        <v>-21.69529993788751</v>
       </c>
       <c r="M30" t="n">
-        <v>-20.145178054381</v>
+        <v>-21.69529993788751</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>672.9346650219816</v>
+        <v>671.4591182441495</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>698.7625518195891</v>
+        <v>698.8086517692992</v>
       </c>
       <c r="D31" t="n">
-        <v>589.1443456759879</v>
+        <v>594.8529242018478</v>
       </c>
       <c r="E31" t="n">
-        <v>736.9810339529284</v>
+        <v>739.0936978282035</v>
       </c>
       <c r="F31" t="n">
-        <v>698.7625518195891</v>
+        <v>698.8086517692992</v>
       </c>
       <c r="G31" t="n">
-        <v>698.7625518195891</v>
+        <v>698.8086517692992</v>
       </c>
       <c r="H31" t="n">
-        <v>-33.44734392177151</v>
+        <v>-29.25595331965292</v>
       </c>
       <c r="I31" t="n">
-        <v>-33.44734392177151</v>
+        <v>-29.25595331965292</v>
       </c>
       <c r="J31" t="n">
-        <v>-33.44734392177151</v>
+        <v>-29.25595331965292</v>
       </c>
       <c r="K31" t="n">
-        <v>-33.44734392177151</v>
+        <v>-29.25595331965292</v>
       </c>
       <c r="L31" t="n">
-        <v>-33.44734392177151</v>
+        <v>-29.25595331965292</v>
       </c>
       <c r="M31" t="n">
-        <v>-33.44734392177151</v>
+        <v>-29.25595331965292</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>665.3152078978176</v>
+        <v>669.5526984496463</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>704.2698778531438</v>
+        <v>704.2847987752394</v>
       </c>
       <c r="D32" t="n">
-        <v>626.8712232139907</v>
+        <v>625.947699089084</v>
       </c>
       <c r="E32" t="n">
-        <v>775.2364452240726</v>
+        <v>773.4731950016692</v>
       </c>
       <c r="F32" t="n">
-        <v>704.2698778531438</v>
+        <v>704.2847987752394</v>
       </c>
       <c r="G32" t="n">
-        <v>704.2698778531438</v>
+        <v>704.2847987752394</v>
       </c>
       <c r="H32" t="n">
-        <v>-4.823530186339306</v>
+        <v>-5.618037866815227</v>
       </c>
       <c r="I32" t="n">
-        <v>-4.823530186339306</v>
+        <v>-5.618037866815227</v>
       </c>
       <c r="J32" t="n">
-        <v>-4.823530186339306</v>
+        <v>-5.618037866815227</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.823530186339306</v>
+        <v>-5.618037866815227</v>
       </c>
       <c r="L32" t="n">
-        <v>-4.823530186339306</v>
+        <v>-5.618037866815227</v>
       </c>
       <c r="M32" t="n">
-        <v>-4.823530186339306</v>
+        <v>-5.618037866815227</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>699.4463476668045</v>
+        <v>698.6667609084242</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>709.9607814211505</v>
+        <v>709.9434840147111</v>
       </c>
       <c r="D33" t="n">
-        <v>607.2514539745907</v>
+        <v>607.1744445488933</v>
       </c>
       <c r="E33" t="n">
-        <v>755.683909583693</v>
+        <v>758.3685359147071</v>
       </c>
       <c r="F33" t="n">
-        <v>709.9607814211505</v>
+        <v>709.9434840147111</v>
       </c>
       <c r="G33" t="n">
-        <v>709.9607814211505</v>
+        <v>709.9434840147111</v>
       </c>
       <c r="H33" t="n">
-        <v>-25.19019483193525</v>
+        <v>-25.9208016438314</v>
       </c>
       <c r="I33" t="n">
-        <v>-25.19019483193525</v>
+        <v>-25.9208016438314</v>
       </c>
       <c r="J33" t="n">
-        <v>-25.19019483193525</v>
+        <v>-25.9208016438314</v>
       </c>
       <c r="K33" t="n">
-        <v>-25.19019483193525</v>
+        <v>-25.9208016438314</v>
       </c>
       <c r="L33" t="n">
-        <v>-25.19019483193525</v>
+        <v>-25.9208016438314</v>
       </c>
       <c r="M33" t="n">
-        <v>-25.19019483193525</v>
+        <v>-25.9208016438314</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>684.7705865892152</v>
+        <v>684.0226823708797</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>715.653057887613</v>
+        <v>715.6027299307732</v>
       </c>
       <c r="D34" t="n">
-        <v>619.9577338465905</v>
+        <v>620.7813141346538</v>
       </c>
       <c r="E34" t="n">
-        <v>773.2282080837837</v>
+        <v>769.4108782214454</v>
       </c>
       <c r="F34" t="n">
-        <v>715.653057887613</v>
+        <v>715.6027299307732</v>
       </c>
       <c r="G34" t="n">
-        <v>715.653057887613</v>
+        <v>715.6027299307732</v>
       </c>
       <c r="H34" t="n">
-        <v>-20.38960283763072</v>
+        <v>-21.13985761390891</v>
       </c>
       <c r="I34" t="n">
-        <v>-20.38960283763072</v>
+        <v>-21.13985761390891</v>
       </c>
       <c r="J34" t="n">
-        <v>-20.38960283763072</v>
+        <v>-21.13985761390891</v>
       </c>
       <c r="K34" t="n">
-        <v>-20.38960283763072</v>
+        <v>-21.13985761390891</v>
       </c>
       <c r="L34" t="n">
-        <v>-20.38960283763072</v>
+        <v>-21.13985761390891</v>
       </c>
       <c r="M34" t="n">
-        <v>-20.38960283763072</v>
+        <v>-21.13985761390891</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>695.2634550499823</v>
+        <v>694.4628723168643</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>721.1617125325769</v>
+        <v>721.0794195269625</v>
       </c>
       <c r="D35" t="n">
-        <v>619.424387582332</v>
+        <v>618.7625741802204</v>
       </c>
       <c r="E35" t="n">
-        <v>767.5039129063032</v>
+        <v>768.917510029115</v>
       </c>
       <c r="F35" t="n">
-        <v>721.1617125325769</v>
+        <v>721.0794195269625</v>
       </c>
       <c r="G35" t="n">
-        <v>721.1617125325769</v>
+        <v>721.0794195269625</v>
       </c>
       <c r="H35" t="n">
-        <v>-27.05595273161765</v>
+        <v>-27.74998557864407</v>
       </c>
       <c r="I35" t="n">
-        <v>-27.05595273161765</v>
+        <v>-27.74998557864407</v>
       </c>
       <c r="J35" t="n">
-        <v>-27.05595273161765</v>
+        <v>-27.74998557864407</v>
       </c>
       <c r="K35" t="n">
-        <v>-27.05595273161765</v>
+        <v>-27.74998557864407</v>
       </c>
       <c r="L35" t="n">
-        <v>-27.05595273161765</v>
+        <v>-27.74998557864407</v>
       </c>
       <c r="M35" t="n">
-        <v>-27.05595273161765</v>
+        <v>-27.74998557864407</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>694.1057598009593</v>
+        <v>693.3294339483184</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>726.8539890451564</v>
+        <v>726.7386654403251</v>
       </c>
       <c r="D36" t="n">
-        <v>612.08673387658</v>
+        <v>615.7397340615247</v>
       </c>
       <c r="E36" t="n">
-        <v>761.6790421459626</v>
+        <v>768.3597048581914</v>
       </c>
       <c r="F36" t="n">
-        <v>726.8539890451564</v>
+        <v>726.7386654403251</v>
       </c>
       <c r="G36" t="n">
-        <v>726.8539890451564</v>
+        <v>726.7386654403251</v>
       </c>
       <c r="H36" t="n">
-        <v>-39.64382978934975</v>
+        <v>-40.17855749966498</v>
       </c>
       <c r="I36" t="n">
-        <v>-39.64382978934975</v>
+        <v>-40.17855749966498</v>
       </c>
       <c r="J36" t="n">
-        <v>-39.64382978934975</v>
+        <v>-40.17855749966498</v>
       </c>
       <c r="K36" t="n">
-        <v>-39.64382978934975</v>
+        <v>-40.17855749966498</v>
       </c>
       <c r="L36" t="n">
-        <v>-39.64382978934975</v>
+        <v>-40.17855749966498</v>
       </c>
       <c r="M36" t="n">
-        <v>-39.64382978934975</v>
+        <v>-40.17855749966498</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>687.2101592558066</v>
+        <v>686.5601079406601</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>732.3626437347494</v>
+        <v>732.2153550339019</v>
       </c>
       <c r="D37" t="n">
-        <v>618.7249520831421</v>
+        <v>623.9625199373249</v>
       </c>
       <c r="E37" t="n">
-        <v>767.4688017824637</v>
+        <v>768.2382267397707</v>
       </c>
       <c r="F37" t="n">
-        <v>732.3626437347494</v>
+        <v>732.2153550339019</v>
       </c>
       <c r="G37" t="n">
-        <v>732.3626437347494</v>
+        <v>732.2153550339019</v>
       </c>
       <c r="H37" t="n">
-        <v>-37.63332755104776</v>
+        <v>-37.96405774634373</v>
       </c>
       <c r="I37" t="n">
-        <v>-37.63332755104776</v>
+        <v>-37.96405774634373</v>
       </c>
       <c r="J37" t="n">
-        <v>-37.63332755104776</v>
+        <v>-37.96405774634373</v>
       </c>
       <c r="K37" t="n">
-        <v>-37.63332755104776</v>
+        <v>-37.96405774634373</v>
       </c>
       <c r="L37" t="n">
-        <v>-37.63332755104776</v>
+        <v>-37.96405774634373</v>
       </c>
       <c r="M37" t="n">
-        <v>-37.63332755104776</v>
+        <v>-37.96405774634373</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>694.7293161837017</v>
+        <v>694.2512972875581</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>738.0549202482695</v>
+        <v>737.8746009500422</v>
       </c>
       <c r="D38" t="n">
-        <v>692.6317265878564</v>
+        <v>690.8729079080301</v>
       </c>
       <c r="E38" t="n">
-        <v>840.6800618268965</v>
+        <v>840.2520930820745</v>
       </c>
       <c r="F38" t="n">
-        <v>738.0549202482695</v>
+        <v>737.8746009500422</v>
       </c>
       <c r="G38" t="n">
-        <v>738.0549202482695</v>
+        <v>737.8746009500422</v>
       </c>
       <c r="H38" t="n">
-        <v>30.09422985419593</v>
+        <v>29.93524038591047</v>
       </c>
       <c r="I38" t="n">
-        <v>30.09422985419593</v>
+        <v>29.93524038591047</v>
       </c>
       <c r="J38" t="n">
-        <v>30.09422985419593</v>
+        <v>29.93524038591047</v>
       </c>
       <c r="K38" t="n">
-        <v>30.09422985419593</v>
+        <v>29.93524038591047</v>
       </c>
       <c r="L38" t="n">
-        <v>30.09422985419593</v>
+        <v>29.93524038591047</v>
       </c>
       <c r="M38" t="n">
-        <v>30.09422985419593</v>
+        <v>29.93524038591047</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>768.1491501024655</v>
+        <v>767.8098413359527</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>743.7471967617894</v>
+        <v>743.5338468661828</v>
       </c>
       <c r="D39" t="n">
-        <v>745.4075948121335</v>
+        <v>738.7035289397928</v>
       </c>
       <c r="E39" t="n">
-        <v>894.9569148516703</v>
+        <v>891.2266775290443</v>
       </c>
       <c r="F39" t="n">
-        <v>743.7471967617894</v>
+        <v>743.5338468661828</v>
       </c>
       <c r="G39" t="n">
-        <v>743.7471967617894</v>
+        <v>743.5338468661828</v>
       </c>
       <c r="H39" t="n">
-        <v>75.19437619823016</v>
+        <v>74.96211945379427</v>
       </c>
       <c r="I39" t="n">
-        <v>75.19437619823016</v>
+        <v>74.96211945379427</v>
       </c>
       <c r="J39" t="n">
-        <v>75.19437619823016</v>
+        <v>74.96211945379427</v>
       </c>
       <c r="K39" t="n">
-        <v>75.19437619823016</v>
+        <v>74.96211945379427</v>
       </c>
       <c r="L39" t="n">
-        <v>75.19437619823016</v>
+        <v>74.96211945379427</v>
       </c>
       <c r="M39" t="n">
-        <v>75.19437619823016</v>
+        <v>74.96211945379427</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>818.9415729600196</v>
+        <v>818.495966319977</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>749.0722296319329</v>
+        <v>748.8279801441512</v>
       </c>
       <c r="D40" t="n">
-        <v>694.9324493714859</v>
+        <v>692.5760259788757</v>
       </c>
       <c r="E40" t="n">
-        <v>844.4671390745857</v>
+        <v>842.6283248998953</v>
       </c>
       <c r="F40" t="n">
-        <v>749.0722296319329</v>
+        <v>748.8279801441512</v>
       </c>
       <c r="G40" t="n">
-        <v>749.0722296319329</v>
+        <v>748.8279801441512</v>
       </c>
       <c r="H40" t="n">
-        <v>17.52858654070685</v>
+        <v>17.25526993437477</v>
       </c>
       <c r="I40" t="n">
-        <v>17.52858654070685</v>
+        <v>17.25526993437477</v>
       </c>
       <c r="J40" t="n">
-        <v>17.52858654070685</v>
+        <v>17.25526993437477</v>
       </c>
       <c r="K40" t="n">
-        <v>17.52858654070685</v>
+        <v>17.25526993437477</v>
       </c>
       <c r="L40" t="n">
-        <v>17.52858654070685</v>
+        <v>17.25526993437477</v>
       </c>
       <c r="M40" t="n">
-        <v>17.52858654070685</v>
+        <v>17.25526993437477</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>766.6008161726398</v>
+        <v>766.0832500785259</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>754.7645061482932</v>
+        <v>754.4872260619795</v>
       </c>
       <c r="D41" t="n">
-        <v>673.4843383411772</v>
+        <v>678.4309855900347</v>
       </c>
       <c r="E41" t="n">
-        <v>831.1123720066663</v>
+        <v>825.6027526514796</v>
       </c>
       <c r="F41" t="n">
-        <v>754.7645061482932</v>
+        <v>754.4872260619795</v>
       </c>
       <c r="G41" t="n">
-        <v>754.7645061482932</v>
+        <v>754.4872260619795</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03298431207974135</v>
+        <v>-0.2656339694492628</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03298431207974135</v>
+        <v>-0.2656339694492628</v>
       </c>
       <c r="J41" t="n">
-        <v>0.03298431207974135</v>
+        <v>-0.2656339694492628</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03298431207974135</v>
+        <v>-0.2656339694492628</v>
       </c>
       <c r="L41" t="n">
-        <v>0.03298431207974135</v>
+        <v>-0.2656339694492628</v>
       </c>
       <c r="M41" t="n">
-        <v>0.03298431207974135</v>
+        <v>-0.2656339694492628</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>754.797490460373</v>
+        <v>754.2215920925303</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>760.2731608423534</v>
+        <v>759.9639156492531</v>
       </c>
       <c r="D42" t="n">
-        <v>684.923483211288</v>
+        <v>685.7236699418683</v>
       </c>
       <c r="E42" t="n">
-        <v>837.8573849510561</v>
+        <v>833.3209632352683</v>
       </c>
       <c r="F42" t="n">
-        <v>760.2731608423534</v>
+        <v>759.9639156492531</v>
       </c>
       <c r="G42" t="n">
-        <v>760.2731608423534</v>
+        <v>759.9639156492531</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.7891358006899726</v>
+        <v>-1.090947415907419</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.7891358006899726</v>
+        <v>-1.090947415907419</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.7891358006899726</v>
+        <v>-1.090947415907419</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.7891358006899726</v>
+        <v>-1.090947415907419</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.7891358006899726</v>
+        <v>-1.090947415907419</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.7891358006899726</v>
+        <v>-1.090947415907419</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>759.4840250416634</v>
+        <v>758.8729682333457</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>765.9654373595487</v>
+        <v>765.6231615561024</v>
       </c>
       <c r="D43" t="n">
-        <v>691.0805044513207</v>
+        <v>693.1799294382822</v>
       </c>
       <c r="E43" t="n">
-        <v>841.9605860876881</v>
+        <v>843.6823122007439</v>
       </c>
       <c r="F43" t="n">
-        <v>765.9654373595487</v>
+        <v>765.6231615561024</v>
       </c>
       <c r="G43" t="n">
-        <v>765.9654373595487</v>
+        <v>765.6231615561024</v>
       </c>
       <c r="H43" t="n">
-        <v>-3.202838485376798</v>
+        <v>-2.898142193435335</v>
       </c>
       <c r="I43" t="n">
-        <v>-3.202838485376798</v>
+        <v>-2.898142193435335</v>
       </c>
       <c r="J43" t="n">
-        <v>-3.202838485376798</v>
+        <v>-2.898142193435335</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.202838485376798</v>
+        <v>-2.898142193435335</v>
       </c>
       <c r="L43" t="n">
-        <v>-3.202838485376798</v>
+        <v>-2.898142193435335</v>
       </c>
       <c r="M43" t="n">
-        <v>-3.202838485376798</v>
+        <v>-2.898142193435335</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>762.7625988741719</v>
+        <v>762.7250193626671</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>771.4739290123513</v>
+        <v>771.0998511463757</v>
       </c>
       <c r="D44" t="n">
-        <v>656.5144424093772</v>
+        <v>661.6857617030734</v>
       </c>
       <c r="E44" t="n">
-        <v>809.7796344867439</v>
+        <v>812.1935725310897</v>
       </c>
       <c r="F44" t="n">
-        <v>771.4739290123513</v>
+        <v>771.0998511463757</v>
       </c>
       <c r="G44" t="n">
-        <v>771.4739290123513</v>
+        <v>771.0998511463757</v>
       </c>
       <c r="H44" t="n">
-        <v>-33.79737628301555</v>
+        <v>-33.86441284925299</v>
       </c>
       <c r="I44" t="n">
-        <v>-33.79737628301555</v>
+        <v>-33.86441284925299</v>
       </c>
       <c r="J44" t="n">
-        <v>-33.79737628301555</v>
+        <v>-33.86441284925299</v>
       </c>
       <c r="K44" t="n">
-        <v>-33.79737628301555</v>
+        <v>-33.86441284925299</v>
       </c>
       <c r="L44" t="n">
-        <v>-33.79737628301555</v>
+        <v>-33.86441284925299</v>
       </c>
       <c r="M44" t="n">
-        <v>-33.79737628301555</v>
+        <v>-33.86441284925299</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>737.6765527293358</v>
+        <v>737.2354382971228</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>777.1660370535805</v>
+        <v>776.7590970563247</v>
       </c>
       <c r="D45" t="n">
-        <v>680.7430731929601</v>
+        <v>685.881591483636</v>
       </c>
       <c r="E45" t="n">
-        <v>836.7293289096255</v>
+        <v>839.7752852438863</v>
       </c>
       <c r="F45" t="n">
-        <v>777.1660370535805</v>
+        <v>776.7590970563247</v>
       </c>
       <c r="G45" t="n">
-        <v>777.1660370535805</v>
+        <v>776.7590970563247</v>
       </c>
       <c r="H45" t="n">
-        <v>-13.79291236822188</v>
+        <v>-13.95049085067757</v>
       </c>
       <c r="I45" t="n">
-        <v>-13.79291236822188</v>
+        <v>-13.95049085067757</v>
       </c>
       <c r="J45" t="n">
-        <v>-13.79291236822188</v>
+        <v>-13.95049085067757</v>
       </c>
       <c r="K45" t="n">
-        <v>-13.79291236822188</v>
+        <v>-13.95049085067757</v>
       </c>
       <c r="L45" t="n">
-        <v>-13.79291236822188</v>
+        <v>-13.95049085067757</v>
       </c>
       <c r="M45" t="n">
-        <v>-13.79291236822188</v>
+        <v>-13.95049085067757</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>763.3731246853586</v>
+        <v>762.808606205647</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8553603374124</v>
+        <v>782.4180325438558</v>
       </c>
       <c r="D46" t="n">
-        <v>672.2995074136948</v>
+        <v>670.7737521668051</v>
       </c>
       <c r="E46" t="n">
-        <v>820.2079346070711</v>
+        <v>824.9812807484727</v>
       </c>
       <c r="F46" t="n">
-        <v>782.8553603374124</v>
+        <v>782.4180325438558</v>
       </c>
       <c r="G46" t="n">
-        <v>782.8553603374124</v>
+        <v>782.4180325438558</v>
       </c>
       <c r="H46" t="n">
-        <v>-36.09226719903664</v>
+        <v>-36.280044451338</v>
       </c>
       <c r="I46" t="n">
-        <v>-36.09226719903664</v>
+        <v>-36.280044451338</v>
       </c>
       <c r="J46" t="n">
-        <v>-36.09226719903664</v>
+        <v>-36.280044451338</v>
       </c>
       <c r="K46" t="n">
-        <v>-36.09226719903664</v>
+        <v>-36.280044451338</v>
       </c>
       <c r="L46" t="n">
-        <v>-36.09226719903664</v>
+        <v>-36.280044451338</v>
       </c>
       <c r="M46" t="n">
-        <v>-36.09226719903664</v>
+        <v>-36.280044451338</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>746.7630931383758</v>
+        <v>746.1379880925178</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>788.3611570637014</v>
+        <v>787.8944217253376</v>
       </c>
       <c r="D47" t="n">
-        <v>661.1981520523379</v>
+        <v>654.4656140416936</v>
       </c>
       <c r="E47" t="n">
-        <v>813.8204073225179</v>
+        <v>803.1882417750302</v>
       </c>
       <c r="F47" t="n">
-        <v>788.3611570637014</v>
+        <v>787.8944217253376</v>
       </c>
       <c r="G47" t="n">
-        <v>788.3611570637014</v>
+        <v>787.8944217253376</v>
       </c>
       <c r="H47" t="n">
-        <v>-55.18098518978017</v>
+        <v>-55.46635213731712</v>
       </c>
       <c r="I47" t="n">
-        <v>-55.18098518978017</v>
+        <v>-55.46635213731712</v>
       </c>
       <c r="J47" t="n">
-        <v>-55.18098518978017</v>
+        <v>-55.46635213731712</v>
       </c>
       <c r="K47" t="n">
-        <v>-55.18098518978017</v>
+        <v>-55.46635213731712</v>
       </c>
       <c r="L47" t="n">
-        <v>-55.18098518978017</v>
+        <v>-55.46635213731712</v>
       </c>
       <c r="M47" t="n">
-        <v>-55.18098518978017</v>
+        <v>-55.46635213731712</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>733.1801718739213</v>
+        <v>732.4280695880204</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>794.0493710140055</v>
+        <v>793.5432837635874</v>
       </c>
       <c r="D48" t="n">
-        <v>678.6452154675643</v>
+        <v>682.6216282486178</v>
       </c>
       <c r="E48" t="n">
-        <v>836.4098422880877</v>
+        <v>828.0228371788994</v>
       </c>
       <c r="F48" t="n">
-        <v>794.0493710140055</v>
+        <v>793.5432837635874</v>
       </c>
       <c r="G48" t="n">
-        <v>794.0493710140055</v>
+        <v>793.5432837635874</v>
       </c>
       <c r="H48" t="n">
-        <v>-37.80306913213801</v>
+        <v>-38.27276426389214</v>
       </c>
       <c r="I48" t="n">
-        <v>-37.80306913213801</v>
+        <v>-38.27276426389214</v>
       </c>
       <c r="J48" t="n">
-        <v>-37.80306913213801</v>
+        <v>-38.27276426389214</v>
       </c>
       <c r="K48" t="n">
-        <v>-37.80306913213801</v>
+        <v>-38.27276426389214</v>
       </c>
       <c r="L48" t="n">
-        <v>-37.80306913213801</v>
+        <v>-38.27276426389214</v>
       </c>
       <c r="M48" t="n">
-        <v>-37.80306913213801</v>
+        <v>-38.27276426389214</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>756.2463018818675</v>
+        <v>755.2705194996953</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>799.5540941917189</v>
+        <v>799.0099244457648</v>
       </c>
       <c r="D49" t="n">
-        <v>740.3723429794063</v>
+        <v>734.4963491995928</v>
       </c>
       <c r="E49" t="n">
-        <v>890.0544634583282</v>
+        <v>888.130167181706</v>
       </c>
       <c r="F49" t="n">
-        <v>799.5540941917189</v>
+        <v>799.0099244457648</v>
       </c>
       <c r="G49" t="n">
-        <v>799.5540941917189</v>
+        <v>799.0099244457648</v>
       </c>
       <c r="H49" t="n">
-        <v>16.64435549575935</v>
+        <v>15.95463338182692</v>
       </c>
       <c r="I49" t="n">
-        <v>16.64435549575935</v>
+        <v>15.95463338182692</v>
       </c>
       <c r="J49" t="n">
-        <v>16.64435549575935</v>
+        <v>15.95463338182692</v>
       </c>
       <c r="K49" t="n">
-        <v>16.64435549575935</v>
+        <v>15.95463338182692</v>
       </c>
       <c r="L49" t="n">
-        <v>16.64435549575935</v>
+        <v>15.95463338182692</v>
       </c>
       <c r="M49" t="n">
-        <v>16.64435549575935</v>
+        <v>15.95463338182692</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>816.1984496874783</v>
+        <v>814.9645578275918</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>800.4326800654383</v>
+        <v>800.1666353538253</v>
       </c>
       <c r="D50" t="n">
-        <v>786.090455445436</v>
+        <v>785.1342281419666</v>
       </c>
       <c r="E50" t="n">
-        <v>933.7779530783325</v>
+        <v>935.2091457805215</v>
       </c>
       <c r="F50" t="n">
-        <v>800.4326800654383</v>
+        <v>800.1666353538253</v>
       </c>
       <c r="G50" t="n">
-        <v>800.4326800654383</v>
+        <v>800.1666353538253</v>
       </c>
       <c r="H50" t="n">
-        <v>61.07324261396252</v>
+        <v>60.08939763597016</v>
       </c>
       <c r="I50" t="n">
-        <v>61.07324261396252</v>
+        <v>60.08939763597016</v>
       </c>
       <c r="J50" t="n">
-        <v>61.07324261396252</v>
+        <v>60.08939763597016</v>
       </c>
       <c r="K50" t="n">
-        <v>61.07324261396252</v>
+        <v>60.08939763597016</v>
       </c>
       <c r="L50" t="n">
-        <v>61.07324261396252</v>
+        <v>60.08939763597016</v>
       </c>
       <c r="M50" t="n">
-        <v>61.07324261396252</v>
+        <v>60.08939763597016</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>861.5059226794008</v>
+        <v>860.2560329897955</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>801.3112659391575</v>
+        <v>801.3233462618859</v>
       </c>
       <c r="D51" t="n">
-        <v>734.1331080821625</v>
+        <v>734.9624822358278</v>
       </c>
       <c r="E51" t="n">
-        <v>890.5754271932384</v>
+        <v>886.0738194567224</v>
       </c>
       <c r="F51" t="n">
-        <v>801.3112659391575</v>
+        <v>801.3233462618859</v>
       </c>
       <c r="G51" t="n">
-        <v>801.3112659391575</v>
+        <v>801.3233462618859</v>
       </c>
       <c r="H51" t="n">
-        <v>12.0932752752841</v>
+        <v>11.02834853094497</v>
       </c>
       <c r="I51" t="n">
-        <v>12.0932752752841</v>
+        <v>11.02834853094497</v>
       </c>
       <c r="J51" t="n">
-        <v>12.0932752752841</v>
+        <v>11.02834853094497</v>
       </c>
       <c r="K51" t="n">
-        <v>12.0932752752841</v>
+        <v>11.02834853094497</v>
       </c>
       <c r="L51" t="n">
-        <v>12.0932752752841</v>
+        <v>11.02834853094497</v>
       </c>
       <c r="M51" t="n">
-        <v>12.0932752752841</v>
+        <v>11.02834853094497</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>813.4045412144416</v>
+        <v>812.3516947928309</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>802.0824446831436</v>
+        <v>802.3444950703396</v>
       </c>
       <c r="D52" t="n">
-        <v>743.7448222764571</v>
+        <v>743.2855162611369</v>
       </c>
       <c r="E52" t="n">
-        <v>896.9976457028653</v>
+        <v>895.6404503787367</v>
       </c>
       <c r="F52" t="n">
-        <v>802.0824446831436</v>
+        <v>802.3444950703396</v>
       </c>
       <c r="G52" t="n">
-        <v>802.0824446831436</v>
+        <v>802.3444950703396</v>
       </c>
       <c r="H52" t="n">
-        <v>19.96781994680621</v>
+        <v>19.34782624239564</v>
       </c>
       <c r="I52" t="n">
-        <v>19.96781994680621</v>
+        <v>19.34782624239564</v>
       </c>
       <c r="J52" t="n">
-        <v>19.96781994680621</v>
+        <v>19.34782624239564</v>
       </c>
       <c r="K52" t="n">
-        <v>19.96781994680621</v>
+        <v>19.34782624239564</v>
       </c>
       <c r="L52" t="n">
-        <v>19.96781994680621</v>
+        <v>19.34782624239564</v>
       </c>
       <c r="M52" t="n">
-        <v>19.96781994680621</v>
+        <v>19.34782624239564</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>822.0502646299499</v>
+        <v>821.6923213127352</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>802.9362497211285</v>
+        <v>803.4750526796988</v>
       </c>
       <c r="D53" t="n">
-        <v>724.982176301649</v>
+        <v>723.9966784330184</v>
       </c>
       <c r="E53" t="n">
-        <v>876.1026412914035</v>
+        <v>875.3518277159637</v>
       </c>
       <c r="F53" t="n">
-        <v>802.9362497211285</v>
+        <v>803.4750526796988</v>
       </c>
       <c r="G53" t="n">
-        <v>802.9362497211285</v>
+        <v>803.4750526796988</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.157720913974238</v>
+        <v>-1.842742323228234</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.157720913974238</v>
+        <v>-1.842742323228234</v>
       </c>
       <c r="J53" t="n">
-        <v>-1.157720913974238</v>
+        <v>-1.842742323228234</v>
       </c>
       <c r="K53" t="n">
-        <v>-1.157720913974238</v>
+        <v>-1.842742323228234</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.157720913974238</v>
+        <v>-1.842742323228234</v>
       </c>
       <c r="M53" t="n">
-        <v>-1.157720913974238</v>
+        <v>-1.842742323228234</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>801.7785288071543</v>
+        <v>801.6323103564706</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>803.7599630911753</v>
+        <v>804.5570954657535</v>
       </c>
       <c r="D54" t="n">
-        <v>723.0081685830443</v>
+        <v>722.9237128896716</v>
       </c>
       <c r="E54" t="n">
-        <v>875.354878522786</v>
+        <v>872.4767380851563</v>
       </c>
       <c r="F54" t="n">
-        <v>803.7599630911753</v>
+        <v>804.5570954657535</v>
       </c>
       <c r="G54" t="n">
-        <v>803.7599630911753</v>
+        <v>804.5570954657535</v>
       </c>
       <c r="H54" t="n">
-        <v>-7.120694495150369</v>
+        <v>-7.864007513878279</v>
       </c>
       <c r="I54" t="n">
-        <v>-7.120694495150369</v>
+        <v>-7.864007513878279</v>
       </c>
       <c r="J54" t="n">
-        <v>-7.120694495150369</v>
+        <v>-7.864007513878279</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.120694495150369</v>
+        <v>-7.864007513878279</v>
       </c>
       <c r="L54" t="n">
-        <v>-7.120694495150369</v>
+        <v>-7.864007513878279</v>
       </c>
       <c r="M54" t="n">
-        <v>-7.120694495150369</v>
+        <v>-7.864007513878279</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>796.639268596025</v>
+        <v>796.6930879518752</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>804.6111335735569</v>
+        <v>805.6752063446767</v>
       </c>
       <c r="D55" t="n">
-        <v>716.7749851728839</v>
+        <v>716.4349487780337</v>
       </c>
       <c r="E55" t="n">
-        <v>868.2596969052975</v>
+        <v>871.5001448690632</v>
       </c>
       <c r="F55" t="n">
-        <v>804.6111335735569</v>
+        <v>805.6752063446767</v>
       </c>
       <c r="G55" t="n">
-        <v>804.6111335735569</v>
+        <v>805.6752063446767</v>
       </c>
       <c r="H55" t="n">
-        <v>-13.50193424336775</v>
+        <v>-11.90597778535215</v>
       </c>
       <c r="I55" t="n">
-        <v>-13.50193424336775</v>
+        <v>-11.90597778535215</v>
       </c>
       <c r="J55" t="n">
-        <v>-13.50193424336775</v>
+        <v>-11.90597778535215</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.50193424336775</v>
+        <v>-11.90597778535215</v>
       </c>
       <c r="L55" t="n">
-        <v>-13.50193424336775</v>
+        <v>-11.90597778535215</v>
       </c>
       <c r="M55" t="n">
-        <v>-13.50193424336775</v>
+        <v>-11.90597778535215</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>791.1091993301892</v>
+        <v>793.7692285593246</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>805.4348469436037</v>
+        <v>806.7572491307313</v>
       </c>
       <c r="D56" t="n">
-        <v>707.4161371123031</v>
+        <v>703.3675713693601</v>
       </c>
       <c r="E56" t="n">
-        <v>858.0136088767116</v>
+        <v>856.4582602562281</v>
       </c>
       <c r="F56" t="n">
-        <v>805.4348469436037</v>
+        <v>806.7572491307313</v>
       </c>
       <c r="G56" t="n">
-        <v>805.4348469436037</v>
+        <v>806.7572491307313</v>
       </c>
       <c r="H56" t="n">
-        <v>-24.31288553656571</v>
+        <v>-24.60257331658555</v>
       </c>
       <c r="I56" t="n">
-        <v>-24.31288553656571</v>
+        <v>-24.60257331658555</v>
       </c>
       <c r="J56" t="n">
-        <v>-24.31288553656571</v>
+        <v>-24.60257331658555</v>
       </c>
       <c r="K56" t="n">
-        <v>-24.31288553656571</v>
+        <v>-24.60257331658555</v>
       </c>
       <c r="L56" t="n">
-        <v>-24.31288553656571</v>
+        <v>-24.60257331658555</v>
       </c>
       <c r="M56" t="n">
-        <v>-24.31288553656571</v>
+        <v>-24.60257331658555</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>781.121961407038</v>
+        <v>782.1546758141458</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>806.2860174259853</v>
+        <v>807.8753600096545</v>
       </c>
       <c r="D57" t="n">
-        <v>714.4997539751793</v>
+        <v>715.2130351537392</v>
       </c>
       <c r="E57" t="n">
-        <v>859.0089599139002</v>
+        <v>868.3177047913804</v>
       </c>
       <c r="F57" t="n">
-        <v>806.2860174259853</v>
+        <v>807.8753600096545</v>
       </c>
       <c r="G57" t="n">
-        <v>806.2860174259853</v>
+        <v>807.8753600096545</v>
       </c>
       <c r="H57" t="n">
-        <v>-17.63984420866094</v>
+        <v>-17.98205874394617</v>
       </c>
       <c r="I57" t="n">
-        <v>-17.63984420866094</v>
+        <v>-17.98205874394617</v>
       </c>
       <c r="J57" t="n">
-        <v>-17.63984420866094</v>
+        <v>-17.98205874394617</v>
       </c>
       <c r="K57" t="n">
-        <v>-17.63984420866094</v>
+        <v>-17.98205874394617</v>
       </c>
       <c r="L57" t="n">
-        <v>-17.63984420866094</v>
+        <v>-17.98205874394617</v>
       </c>
       <c r="M57" t="n">
-        <v>-17.63984420866094</v>
+        <v>-17.98205874394617</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>788.6461732173243</v>
+        <v>789.8933012657084</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>807.137187908367</v>
+        <v>808.9934708885776</v>
       </c>
       <c r="D58" t="n">
-        <v>703.6104952766636</v>
+        <v>700.1802094048206</v>
       </c>
       <c r="E58" t="n">
-        <v>851.8040524011917</v>
+        <v>854.9972860703524</v>
       </c>
       <c r="F58" t="n">
-        <v>807.137187908367</v>
+        <v>808.9934708885776</v>
       </c>
       <c r="G58" t="n">
-        <v>807.137187908367</v>
+        <v>808.9934708885776</v>
       </c>
       <c r="H58" t="n">
-        <v>-30.99184817170922</v>
+        <v>-31.3664711462826</v>
       </c>
       <c r="I58" t="n">
-        <v>-30.99184817170922</v>
+        <v>-31.3664711462826</v>
       </c>
       <c r="J58" t="n">
-        <v>-30.99184817170922</v>
+        <v>-31.3664711462826</v>
       </c>
       <c r="K58" t="n">
-        <v>-30.99184817170922</v>
+        <v>-31.3664711462826</v>
       </c>
       <c r="L58" t="n">
-        <v>-30.99184817170922</v>
+        <v>-31.3664711462826</v>
       </c>
       <c r="M58" t="n">
-        <v>-30.99184817170922</v>
+        <v>-31.3664711462826</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>776.1453397366578</v>
+        <v>777.626999742295</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>807.9609012784138</v>
+        <v>810.0755136746322</v>
       </c>
       <c r="D59" t="n">
-        <v>684.1711698053163</v>
+        <v>684.9901619407573</v>
       </c>
       <c r="E59" t="n">
-        <v>835.26992278565</v>
+        <v>840.9459578584801</v>
       </c>
       <c r="F59" t="n">
-        <v>807.9609012784138</v>
+        <v>810.0755136746322</v>
       </c>
       <c r="G59" t="n">
-        <v>807.9609012784138</v>
+        <v>810.0755136746322</v>
       </c>
       <c r="H59" t="n">
-        <v>-45.61336251206612</v>
+        <v>-46.0397280121307</v>
       </c>
       <c r="I59" t="n">
-        <v>-45.61336251206612</v>
+        <v>-46.0397280121307</v>
       </c>
       <c r="J59" t="n">
-        <v>-45.61336251206612</v>
+        <v>-46.0397280121307</v>
       </c>
       <c r="K59" t="n">
-        <v>-45.61336251206612</v>
+        <v>-46.0397280121307</v>
       </c>
       <c r="L59" t="n">
-        <v>-45.61336251206612</v>
+        <v>-46.0397280121307</v>
       </c>
       <c r="M59" t="n">
-        <v>-45.61336251206612</v>
+        <v>-46.0397280121307</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>762.3475387663476</v>
+        <v>764.0357856625016</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>808.8120717607953</v>
+        <v>811.1936245535554</v>
       </c>
       <c r="D60" t="n">
-        <v>691.0486150987216</v>
+        <v>695.0759355879152</v>
       </c>
       <c r="E60" t="n">
-        <v>846.8394274339629</v>
+        <v>843.6160530199327</v>
       </c>
       <c r="F60" t="n">
-        <v>808.8120717607953</v>
+        <v>811.1936245535554</v>
       </c>
       <c r="G60" t="n">
-        <v>808.8120717607953</v>
+        <v>811.1936245535554</v>
       </c>
       <c r="H60" t="n">
-        <v>-37.98062607577132</v>
+        <v>-38.47914896772811</v>
       </c>
       <c r="I60" t="n">
-        <v>-37.98062607577132</v>
+        <v>-38.47914896772811</v>
       </c>
       <c r="J60" t="n">
-        <v>-37.98062607577132</v>
+        <v>-38.47914896772811</v>
       </c>
       <c r="K60" t="n">
-        <v>-37.98062607577132</v>
+        <v>-38.47914896772811</v>
       </c>
       <c r="L60" t="n">
-        <v>-37.98062607577132</v>
+        <v>-38.47914896772811</v>
       </c>
       <c r="M60" t="n">
-        <v>-37.98062607577132</v>
+        <v>-38.47914896772811</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>770.8314456850241</v>
+        <v>772.7144755858274</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>809.6357851308421</v>
+        <v>812.2756673396101</v>
       </c>
       <c r="D61" t="n">
-        <v>732.2069501701512</v>
+        <v>731.2177136079556</v>
       </c>
       <c r="E61" t="n">
-        <v>888.4723053047882</v>
+        <v>891.7454363061618</v>
       </c>
       <c r="F61" t="n">
-        <v>809.6357851308421</v>
+        <v>812.2756673396101</v>
       </c>
       <c r="G61" t="n">
-        <v>809.6357851308421</v>
+        <v>812.2756673396101</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.40322283181731</v>
+        <v>-1.979344726111396</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.40322283181731</v>
+        <v>-1.979344726111396</v>
       </c>
       <c r="J61" t="n">
-        <v>-1.40322283181731</v>
+        <v>-1.979344726111396</v>
       </c>
       <c r="K61" t="n">
-        <v>-1.40322283181731</v>
+        <v>-1.979344726111396</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.40322283181731</v>
+        <v>-1.979344726111396</v>
       </c>
       <c r="M61" t="n">
-        <v>-1.40322283181731</v>
+        <v>-1.979344726111396</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>808.2325622990248</v>
+        <v>810.2963226134987</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>810.4869556132237</v>
+        <v>813.3937782185333</v>
       </c>
       <c r="D62" t="n">
-        <v>782.2550638031627</v>
+        <v>789.6188533723563</v>
       </c>
       <c r="E62" t="n">
-        <v>937.8173113324069</v>
+        <v>945.2120691682447</v>
       </c>
       <c r="F62" t="n">
-        <v>810.4869556132237</v>
+        <v>813.3937782185333</v>
       </c>
       <c r="G62" t="n">
-        <v>810.4869556132237</v>
+        <v>813.3937782185333</v>
       </c>
       <c r="H62" t="n">
-        <v>50.16409651307007</v>
+        <v>49.45483470684584</v>
       </c>
       <c r="I62" t="n">
-        <v>50.16409651307007</v>
+        <v>49.45483470684584</v>
       </c>
       <c r="J62" t="n">
-        <v>50.16409651307007</v>
+        <v>49.45483470684584</v>
       </c>
       <c r="K62" t="n">
-        <v>50.16409651307007</v>
+        <v>49.45483470684584</v>
       </c>
       <c r="L62" t="n">
-        <v>50.16409651307007</v>
+        <v>49.45483470684584</v>
       </c>
       <c r="M62" t="n">
-        <v>50.16409651307007</v>
+        <v>49.45483470684584</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>860.6510521262937</v>
+        <v>862.8486129253791</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>811.3381260956054</v>
+        <v>814.5118890974563</v>
       </c>
       <c r="D63" t="n">
-        <v>766.0981068115318</v>
+        <v>772.6305165684394</v>
       </c>
       <c r="E63" t="n">
-        <v>921.203089703173</v>
+        <v>924.1052476956047</v>
       </c>
       <c r="F63" t="n">
-        <v>811.3381260956054</v>
+        <v>814.5118890974563</v>
       </c>
       <c r="G63" t="n">
-        <v>811.3381260956054</v>
+        <v>814.5118890974563</v>
       </c>
       <c r="H63" t="n">
-        <v>32.81239525738409</v>
+        <v>32.03551897726666</v>
       </c>
       <c r="I63" t="n">
-        <v>32.81239525738409</v>
+        <v>32.03551897726666</v>
       </c>
       <c r="J63" t="n">
-        <v>32.81239525738409</v>
+        <v>32.03551897726666</v>
       </c>
       <c r="K63" t="n">
-        <v>32.81239525738409</v>
+        <v>32.03551897726666</v>
       </c>
       <c r="L63" t="n">
-        <v>32.81239525738409</v>
+        <v>32.03551897726666</v>
       </c>
       <c r="M63" t="n">
-        <v>32.81239525738409</v>
+        <v>32.03551897726666</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>844.1505213529895</v>
+        <v>846.547408074723</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>812.1069252409824</v>
+        <v>815.5217956977741</v>
       </c>
       <c r="D64" t="n">
-        <v>759.4123036088652</v>
+        <v>766.3110604202678</v>
       </c>
       <c r="E64" t="n">
-        <v>913.5872643912699</v>
+        <v>905.4250358058816</v>
       </c>
       <c r="F64" t="n">
-        <v>812.1069252409824</v>
+        <v>815.5217956977741</v>
       </c>
       <c r="G64" t="n">
-        <v>812.1069252409824</v>
+        <v>815.5217956977741</v>
       </c>
       <c r="H64" t="n">
-        <v>22.0838858866753</v>
+        <v>21.10769351165344</v>
       </c>
       <c r="I64" t="n">
-        <v>22.0838858866753</v>
+        <v>21.10769351165344</v>
       </c>
       <c r="J64" t="n">
-        <v>22.0838858866753</v>
+        <v>21.10769351165344</v>
       </c>
       <c r="K64" t="n">
-        <v>22.0838858866753</v>
+        <v>21.10769351165344</v>
       </c>
       <c r="L64" t="n">
-        <v>22.0838858866753</v>
+        <v>21.10769351165344</v>
       </c>
       <c r="M64" t="n">
-        <v>22.0838858866753</v>
+        <v>21.10769351165344</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>834.1908111276576</v>
+        <v>836.6294892094276</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>812.9580957233641</v>
+        <v>816.6399065766972</v>
       </c>
       <c r="D65" t="n">
-        <v>734.5040726669221</v>
+        <v>741.9705763422245</v>
       </c>
       <c r="E65" t="n">
-        <v>881.480063886694</v>
+        <v>893.9491631416371</v>
       </c>
       <c r="F65" t="n">
-        <v>812.9580957233641</v>
+        <v>816.6399065766972</v>
       </c>
       <c r="G65" t="n">
-        <v>812.9580957233641</v>
+        <v>816.6399065766972</v>
       </c>
       <c r="H65" t="n">
-        <v>-2.611752045046081</v>
+        <v>-3.680057978293953</v>
       </c>
       <c r="I65" t="n">
-        <v>-2.611752045046081</v>
+        <v>-3.680057978293953</v>
       </c>
       <c r="J65" t="n">
-        <v>-2.611752045046081</v>
+        <v>-3.680057978293953</v>
       </c>
       <c r="K65" t="n">
-        <v>-2.611752045046081</v>
+        <v>-3.680057978293953</v>
       </c>
       <c r="L65" t="n">
-        <v>-2.611752045046081</v>
+        <v>-3.680057978293953</v>
       </c>
       <c r="M65" t="n">
-        <v>-2.611752045046081</v>
+        <v>-3.680057978293953</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>810.346343678318</v>
+        <v>812.9598485984033</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>813.7818090934109</v>
+        <v>817.7219493627518</v>
       </c>
       <c r="D66" t="n">
-        <v>724.8270911237838</v>
+        <v>729.3949923930819</v>
       </c>
       <c r="E66" t="n">
-        <v>871.2177867508993</v>
+        <v>879.6468882953708</v>
       </c>
       <c r="F66" t="n">
-        <v>813.7818090934109</v>
+        <v>817.7219493627518</v>
       </c>
       <c r="G66" t="n">
-        <v>813.7818090934109</v>
+        <v>817.7219493627518</v>
       </c>
       <c r="H66" t="n">
-        <v>-13.57661808700201</v>
+        <v>-14.73609959520146</v>
       </c>
       <c r="I66" t="n">
-        <v>-13.57661808700201</v>
+        <v>-14.73609959520146</v>
       </c>
       <c r="J66" t="n">
-        <v>-13.57661808700201</v>
+        <v>-14.73609959520146</v>
       </c>
       <c r="K66" t="n">
-        <v>-13.57661808700201</v>
+        <v>-14.73609959520146</v>
       </c>
       <c r="L66" t="n">
-        <v>-13.57661808700201</v>
+        <v>-14.73609959520146</v>
       </c>
       <c r="M66" t="n">
-        <v>-13.57661808700201</v>
+        <v>-14.73609959520146</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>800.2051910064089</v>
+        <v>802.9858497675503</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>814.6329795757924</v>
+        <v>818.840060241675</v>
       </c>
       <c r="D67" t="n">
-        <v>713.8875232403432</v>
+        <v>721.0664418884259</v>
       </c>
       <c r="E67" t="n">
-        <v>867.9644570334382</v>
+        <v>873.9868168024968</v>
       </c>
       <c r="F67" t="n">
-        <v>814.6005028119187</v>
+        <v>818.840060241675</v>
       </c>
       <c r="G67" t="n">
-        <v>814.69948713843</v>
+        <v>818.840060241675</v>
       </c>
       <c r="H67" t="n">
-        <v>-23.58751434471329</v>
+        <v>-20.69553420688867</v>
       </c>
       <c r="I67" t="n">
-        <v>-23.58751434471329</v>
+        <v>-20.69553420688867</v>
       </c>
       <c r="J67" t="n">
-        <v>-23.58751434471329</v>
+        <v>-20.69553420688867</v>
       </c>
       <c r="K67" t="n">
-        <v>-23.58751434471329</v>
+        <v>-20.69553420688867</v>
       </c>
       <c r="L67" t="n">
-        <v>-23.58751434471329</v>
+        <v>-20.69553420688867</v>
       </c>
       <c r="M67" t="n">
-        <v>-23.58751434471329</v>
+        <v>-20.69553420688867</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>791.0454652310791</v>
+        <v>798.1445260347864</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>815.4566929458391</v>
+        <v>819.9221030277297</v>
       </c>
       <c r="D68" t="n">
-        <v>725.7893931177624</v>
+        <v>730.2220572248286</v>
       </c>
       <c r="E68" t="n">
-        <v>873.0671541589778</v>
+        <v>876.9094585680181</v>
       </c>
       <c r="F68" t="n">
-        <v>815.2568401177439</v>
+        <v>819.8945235335268</v>
       </c>
       <c r="G68" t="n">
-        <v>815.7300332290981</v>
+        <v>819.9540611073409</v>
       </c>
       <c r="H68" t="n">
-        <v>-14.6523699632057</v>
+        <v>-15.18454764161706</v>
       </c>
       <c r="I68" t="n">
-        <v>-14.6523699632057</v>
+        <v>-15.18454764161706</v>
       </c>
       <c r="J68" t="n">
-        <v>-14.6523699632057</v>
+        <v>-15.18454764161706</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.6523699632057</v>
+        <v>-15.18454764161706</v>
       </c>
       <c r="L68" t="n">
-        <v>-14.6523699632057</v>
+        <v>-15.18454764161706</v>
       </c>
       <c r="M68" t="n">
-        <v>-14.6523699632057</v>
+        <v>-15.18454764161706</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>800.8043229826334</v>
+        <v>804.7375553861126</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>816.3078634282208</v>
+        <v>821.0402139066529</v>
       </c>
       <c r="D69" t="n">
-        <v>722.3804672536158</v>
+        <v>728.6171964974189</v>
       </c>
       <c r="E69" t="n">
-        <v>874.8792761192143</v>
+        <v>875.7004065202443</v>
       </c>
       <c r="F69" t="n">
-        <v>815.841551625892</v>
+        <v>820.8450739265785</v>
       </c>
       <c r="G69" t="n">
-        <v>816.8530178768668</v>
+        <v>821.2574053327523</v>
       </c>
       <c r="H69" t="n">
-        <v>-21.4388173700801</v>
+        <v>-21.97215068482773</v>
       </c>
       <c r="I69" t="n">
-        <v>-21.4388173700801</v>
+        <v>-21.97215068482773</v>
       </c>
       <c r="J69" t="n">
-        <v>-21.4388173700801</v>
+        <v>-21.97215068482773</v>
       </c>
       <c r="K69" t="n">
-        <v>-21.4388173700801</v>
+        <v>-21.97215068482773</v>
       </c>
       <c r="L69" t="n">
-        <v>-21.4388173700801</v>
+        <v>-21.97215068482773</v>
       </c>
       <c r="M69" t="n">
-        <v>-21.4388173700801</v>
+        <v>-21.97215068482773</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>794.8690460581407</v>
+        <v>799.0680632218251</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>817.1590339106025</v>
+        <v>822.158324785576</v>
       </c>
       <c r="D70" t="n">
-        <v>722.0202240498336</v>
+        <v>719.9370629621077</v>
       </c>
       <c r="E70" t="n">
-        <v>870.3938095565402</v>
+        <v>869.4915921498563</v>
       </c>
       <c r="F70" t="n">
-        <v>816.3950638346876</v>
+        <v>821.7207898654275</v>
       </c>
       <c r="G70" t="n">
-        <v>818.0498562256487</v>
+        <v>822.6439347781829</v>
       </c>
       <c r="H70" t="n">
-        <v>-25.75476123842236</v>
+        <v>-26.3169936889783</v>
       </c>
       <c r="I70" t="n">
-        <v>-25.75476123842236</v>
+        <v>-26.3169936889783</v>
       </c>
       <c r="J70" t="n">
-        <v>-25.75476123842236</v>
+        <v>-26.3169936889783</v>
       </c>
       <c r="K70" t="n">
-        <v>-25.75476123842236</v>
+        <v>-26.3169936889783</v>
       </c>
       <c r="L70" t="n">
-        <v>-25.75476123842236</v>
+        <v>-26.3169936889783</v>
       </c>
       <c r="M70" t="n">
-        <v>-25.75476123842236</v>
+        <v>-26.3169936889783</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>791.4042726721801</v>
+        <v>795.8413310965977</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>817.9827472806493</v>
+        <v>823.2403675716307</v>
       </c>
       <c r="D71" t="n">
-        <v>705.6236295402931</v>
+        <v>705.6647597822448</v>
       </c>
       <c r="E71" t="n">
-        <v>857.1965610661799</v>
+        <v>864.8522667289308</v>
       </c>
       <c r="F71" t="n">
-        <v>816.9028268684671</v>
+        <v>822.5250799999997</v>
       </c>
       <c r="G71" t="n">
-        <v>819.2254263849549</v>
+        <v>824.0249607435782</v>
       </c>
       <c r="H71" t="n">
-        <v>-36.23435607462684</v>
+        <v>-36.79702449344178</v>
       </c>
       <c r="I71" t="n">
-        <v>-36.23435607462684</v>
+        <v>-36.79702449344178</v>
       </c>
       <c r="J71" t="n">
-        <v>-36.23435607462684</v>
+        <v>-36.79702449344178</v>
       </c>
       <c r="K71" t="n">
-        <v>-36.23435607462684</v>
+        <v>-36.79702449344178</v>
       </c>
       <c r="L71" t="n">
-        <v>-36.23435607462684</v>
+        <v>-36.79702449344178</v>
       </c>
       <c r="M71" t="n">
-        <v>-36.23435607462684</v>
+        <v>-36.79702449344178</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>781.7483912060225</v>
+        <v>786.4433430781889</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>818.8339177630309</v>
+        <v>824.3584784505538</v>
       </c>
       <c r="D72" t="n">
-        <v>703.6912320826548</v>
+        <v>710.9287079210504</v>
       </c>
       <c r="E72" t="n">
-        <v>860.0039653801141</v>
+        <v>857.5804358089649</v>
       </c>
       <c r="F72" t="n">
-        <v>817.3199876744999</v>
+        <v>823.3286798426324</v>
       </c>
       <c r="G72" t="n">
-        <v>820.4743646731677</v>
+        <v>825.498321554253</v>
       </c>
       <c r="H72" t="n">
-        <v>-38.59526129021017</v>
+        <v>-39.1154748437309</v>
       </c>
       <c r="I72" t="n">
-        <v>-38.59526129021017</v>
+        <v>-39.1154748437309</v>
       </c>
       <c r="J72" t="n">
-        <v>-38.59526129021017</v>
+        <v>-39.1154748437309</v>
       </c>
       <c r="K72" t="n">
-        <v>-38.59526129021017</v>
+        <v>-39.1154748437309</v>
       </c>
       <c r="L72" t="n">
-        <v>-38.59526129021017</v>
+        <v>-39.1154748437309</v>
       </c>
       <c r="M72" t="n">
-        <v>-38.59526129021017</v>
+        <v>-39.1154748437309</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>780.2386564728207</v>
+        <v>785.2430036068229</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>819.6576311330776</v>
+        <v>825.4405212366084</v>
       </c>
       <c r="D73" t="n">
-        <v>724.2787418341268</v>
+        <v>729.7694648595318</v>
       </c>
       <c r="E73" t="n">
-        <v>874.4717052036492</v>
+        <v>880.8706569366487</v>
       </c>
       <c r="F73" t="n">
-        <v>817.6373317198669</v>
+        <v>824.0059991474196</v>
       </c>
       <c r="G73" t="n">
-        <v>821.8111297281633</v>
+        <v>827.0100267660729</v>
       </c>
       <c r="H73" t="n">
-        <v>-19.50389723926783</v>
+        <v>-19.96027130444056</v>
       </c>
       <c r="I73" t="n">
-        <v>-19.50389723926783</v>
+        <v>-19.96027130444056</v>
       </c>
       <c r="J73" t="n">
-        <v>-19.50389723926783</v>
+        <v>-19.96027130444056</v>
       </c>
       <c r="K73" t="n">
-        <v>-19.50389723926783</v>
+        <v>-19.96027130444056</v>
       </c>
       <c r="L73" t="n">
-        <v>-19.50389723926783</v>
+        <v>-19.96027130444056</v>
       </c>
       <c r="M73" t="n">
-        <v>-19.50389723926783</v>
+        <v>-19.96027130444056</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>800.1537338938098</v>
+        <v>805.4802499321679</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>820.5088016154592</v>
+        <v>826.5586321155316</v>
       </c>
       <c r="D74" t="n">
-        <v>784.1178458999791</v>
+        <v>793.0943297970811</v>
       </c>
       <c r="E74" t="n">
-        <v>940.6592814532617</v>
+        <v>938.6657209479763</v>
       </c>
       <c r="F74" t="n">
-        <v>818.0072041725593</v>
+        <v>824.7116290590212</v>
       </c>
       <c r="G74" t="n">
-        <v>823.1191870033691</v>
+        <v>828.5623966247038</v>
       </c>
       <c r="H74" t="n">
-        <v>39.83405151160594</v>
+        <v>39.39989515204941</v>
       </c>
       <c r="I74" t="n">
-        <v>39.83405151160594</v>
+        <v>39.39989515204941</v>
       </c>
       <c r="J74" t="n">
-        <v>39.83405151160594</v>
+        <v>39.39989515204941</v>
       </c>
       <c r="K74" t="n">
-        <v>39.83405151160594</v>
+        <v>39.39989515204941</v>
       </c>
       <c r="L74" t="n">
-        <v>39.83405151160594</v>
+        <v>39.39989515204941</v>
       </c>
       <c r="M74" t="n">
-        <v>39.83405151160594</v>
+        <v>39.39989515204941</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>860.3428531270652</v>
+        <v>865.9585272675811</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>821.3599720978409</v>
+        <v>827.6767429944548</v>
       </c>
       <c r="D75" t="n">
-        <v>798.3937716405854</v>
+        <v>802.9254034047959</v>
       </c>
       <c r="E75" t="n">
-        <v>949.386196717471</v>
+        <v>954.8779329601953</v>
       </c>
       <c r="F75" t="n">
-        <v>818.345606075021</v>
+        <v>825.4297506201216</v>
       </c>
       <c r="G75" t="n">
-        <v>824.3505325417849</v>
+        <v>830.1520069047259</v>
       </c>
       <c r="H75" t="n">
-        <v>53.85370295256973</v>
+        <v>53.35450349576225</v>
       </c>
       <c r="I75" t="n">
-        <v>53.85370295256973</v>
+        <v>53.35450349576225</v>
       </c>
       <c r="J75" t="n">
-        <v>53.85370295256973</v>
+        <v>53.35450349576225</v>
       </c>
       <c r="K75" t="n">
-        <v>53.85370295256973</v>
+        <v>53.35450349576225</v>
       </c>
       <c r="L75" t="n">
-        <v>53.85370295256973</v>
+        <v>53.35450349576225</v>
       </c>
       <c r="M75" t="n">
-        <v>53.85370295256973</v>
+        <v>53.35450349576225</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>875.2136750504106</v>
+        <v>881.0312464902171</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>822.1287712432179</v>
+        <v>828.6866495947725</v>
       </c>
       <c r="D76" t="n">
-        <v>773.0692340186059</v>
+        <v>772.1845043062795</v>
       </c>
       <c r="E76" t="n">
-        <v>921.7566180326362</v>
+        <v>927.4351928356908</v>
       </c>
       <c r="F76" t="n">
-        <v>818.6822175660357</v>
+        <v>826.050810230883</v>
       </c>
       <c r="G76" t="n">
-        <v>825.5931119812471</v>
+        <v>831.7126421758912</v>
       </c>
       <c r="H76" t="n">
-        <v>23.86933567045914</v>
+        <v>22.52796312613855</v>
       </c>
       <c r="I76" t="n">
-        <v>23.86933567045914</v>
+        <v>22.52796312613855</v>
       </c>
       <c r="J76" t="n">
-        <v>23.86933567045914</v>
+        <v>22.52796312613855</v>
       </c>
       <c r="K76" t="n">
-        <v>23.86933567045914</v>
+        <v>22.52796312613855</v>
       </c>
       <c r="L76" t="n">
-        <v>23.86933567045914</v>
+        <v>22.52796312613855</v>
       </c>
       <c r="M76" t="n">
-        <v>23.86933567045914</v>
+        <v>22.52796312613855</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>845.998106913677</v>
+        <v>851.214612720911</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>822.9799417255995</v>
+        <v>829.8047604736958</v>
       </c>
       <c r="D77" t="n">
-        <v>736.8007309434604</v>
+        <v>747.2742902692632</v>
       </c>
       <c r="E77" t="n">
-        <v>891.3380860472183</v>
+        <v>897.5492387960321</v>
       </c>
       <c r="F77" t="n">
-        <v>819.0385326497372</v>
+        <v>826.7811311690579</v>
       </c>
       <c r="G77" t="n">
-        <v>827.0006205220091</v>
+        <v>833.3391765895091</v>
       </c>
       <c r="H77" t="n">
-        <v>-4.326508417132974</v>
+        <v>-5.774295809697477</v>
       </c>
       <c r="I77" t="n">
-        <v>-4.326508417132974</v>
+        <v>-5.774295809697477</v>
       </c>
       <c r="J77" t="n">
-        <v>-4.326508417132974</v>
+        <v>-5.774295809697477</v>
       </c>
       <c r="K77" t="n">
-        <v>-4.326508417132974</v>
+        <v>-5.774295809697477</v>
       </c>
       <c r="L77" t="n">
-        <v>-4.326508417132974</v>
+        <v>-5.774295809697477</v>
       </c>
       <c r="M77" t="n">
-        <v>-4.326508417132974</v>
+        <v>-5.774295809697477</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>818.6534333084664</v>
+        <v>824.0304646639983</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>823.8036550956461</v>
+        <v>830.8868032597503</v>
       </c>
       <c r="D78" t="n">
-        <v>733.0345966082039</v>
+        <v>732.9724591817227</v>
       </c>
       <c r="E78" t="n">
-        <v>874.7921373461492</v>
+        <v>889.116291301664</v>
       </c>
       <c r="F78" t="n">
-        <v>819.1898632721267</v>
+        <v>827.523555947258</v>
       </c>
       <c r="G78" t="n">
-        <v>828.3884661005925</v>
+        <v>834.964187998331</v>
       </c>
       <c r="H78" t="n">
-        <v>-20.14517805434673</v>
+        <v>-21.69529993785365</v>
       </c>
       <c r="I78" t="n">
-        <v>-20.14517805434673</v>
+        <v>-21.69529993785365</v>
       </c>
       <c r="J78" t="n">
-        <v>-20.14517805434673</v>
+        <v>-21.69529993785365</v>
       </c>
       <c r="K78" t="n">
-        <v>-20.14517805434673</v>
+        <v>-21.69529993785365</v>
       </c>
       <c r="L78" t="n">
-        <v>-20.14517805434673</v>
+        <v>-21.69529993785365</v>
       </c>
       <c r="M78" t="n">
-        <v>-20.14517805434673</v>
+        <v>-21.69529993785365</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>803.6584770412994</v>
+        <v>809.1915033218967</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>824.654825578028</v>
+        <v>832.0049141386734</v>
       </c>
       <c r="D79" t="n">
-        <v>712.6137288578891</v>
+        <v>728.4925059168712</v>
       </c>
       <c r="E79" t="n">
-        <v>868.0988077974573</v>
+        <v>878.2135296815718</v>
       </c>
       <c r="F79" t="n">
-        <v>819.4161085221582</v>
+        <v>828.1233304103762</v>
       </c>
       <c r="G79" t="n">
-        <v>830.1226930765599</v>
+        <v>836.7091851335217</v>
       </c>
       <c r="H79" t="n">
-        <v>-33.44734392174642</v>
+        <v>-29.255953319625</v>
       </c>
       <c r="I79" t="n">
-        <v>-33.44734392174642</v>
+        <v>-29.255953319625</v>
       </c>
       <c r="J79" t="n">
-        <v>-33.44734392174642</v>
+        <v>-29.255953319625</v>
       </c>
       <c r="K79" t="n">
-        <v>-33.44734392174642</v>
+        <v>-29.255953319625</v>
       </c>
       <c r="L79" t="n">
-        <v>-33.44734392174642</v>
+        <v>-29.255953319625</v>
       </c>
       <c r="M79" t="n">
-        <v>-33.44734392174642</v>
+        <v>-29.255953319625</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>791.2074816562815</v>
+        <v>802.7489608190484</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>825.4785389480746</v>
+        <v>833.0869569247282</v>
       </c>
       <c r="D80" t="n">
-        <v>740.2804618118274</v>
+        <v>751.5016711546087</v>
       </c>
       <c r="E80" t="n">
-        <v>900.0849858224718</v>
+        <v>903.2083159178533</v>
       </c>
       <c r="F80" t="n">
-        <v>819.6806550010685</v>
+        <v>828.4728444863023</v>
       </c>
       <c r="G80" t="n">
-        <v>831.7436059998507</v>
+        <v>838.288855312864</v>
       </c>
       <c r="H80" t="n">
-        <v>-4.823530186341413</v>
+        <v>-5.618037866817351</v>
       </c>
       <c r="I80" t="n">
-        <v>-4.823530186341413</v>
+        <v>-5.618037866817351</v>
       </c>
       <c r="J80" t="n">
-        <v>-4.823530186341413</v>
+        <v>-5.618037866817351</v>
       </c>
       <c r="K80" t="n">
-        <v>-4.823530186341413</v>
+        <v>-5.618037866817351</v>
       </c>
       <c r="L80" t="n">
-        <v>-4.823530186341413</v>
+        <v>-5.618037866817351</v>
       </c>
       <c r="M80" t="n">
-        <v>-4.823530186341413</v>
+        <v>-5.618037866817351</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>820.6550087617333</v>
+        <v>827.4689190579109</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>826.3297094304563</v>
+        <v>834.2050678036512</v>
       </c>
       <c r="D81" t="n">
-        <v>725.6145262855698</v>
+        <v>732.2443520529177</v>
       </c>
       <c r="E81" t="n">
-        <v>879.5841736603251</v>
+        <v>882.0276707503898</v>
       </c>
       <c r="F81" t="n">
-        <v>819.7718378414888</v>
+        <v>829.06100041829</v>
       </c>
       <c r="G81" t="n">
-        <v>833.5025048540472</v>
+        <v>839.950484716086</v>
       </c>
       <c r="H81" t="n">
-        <v>-25.19019483187619</v>
+        <v>-25.92080164377148</v>
       </c>
       <c r="I81" t="n">
-        <v>-25.19019483187619</v>
+        <v>-25.92080164377148</v>
       </c>
       <c r="J81" t="n">
-        <v>-25.19019483187619</v>
+        <v>-25.92080164377148</v>
       </c>
       <c r="K81" t="n">
-        <v>-25.19019483187619</v>
+        <v>-25.92080164377148</v>
       </c>
       <c r="L81" t="n">
-        <v>-25.19019483187619</v>
+        <v>-25.92080164377148</v>
       </c>
       <c r="M81" t="n">
-        <v>-25.19019483187619</v>
+        <v>-25.92080164377148</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>801.1395145985801</v>
+        <v>808.2842661598797</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>827.1808799128379</v>
+        <v>835.3231786825744</v>
       </c>
       <c r="D82" t="n">
-        <v>731.3261499370723</v>
+        <v>741.4728706123335</v>
       </c>
       <c r="E82" t="n">
-        <v>880.4602984207985</v>
+        <v>895.0990235574045</v>
       </c>
       <c r="F82" t="n">
-        <v>819.9156564441556</v>
+        <v>829.5813617192294</v>
       </c>
       <c r="G82" t="n">
-        <v>835.0736260842563</v>
+        <v>841.7121209383884</v>
       </c>
       <c r="H82" t="n">
-        <v>-20.38960283758035</v>
+        <v>-21.13985761385767</v>
       </c>
       <c r="I82" t="n">
-        <v>-20.38960283758035</v>
+        <v>-21.13985761385767</v>
       </c>
       <c r="J82" t="n">
-        <v>-20.38960283758035</v>
+        <v>-21.13985761385767</v>
       </c>
       <c r="K82" t="n">
-        <v>-20.38960283758035</v>
+        <v>-21.13985761385767</v>
       </c>
       <c r="L82" t="n">
-        <v>-20.38960283758035</v>
+        <v>-21.13985761385767</v>
       </c>
       <c r="M82" t="n">
-        <v>-20.38960283758035</v>
+        <v>-21.13985761385767</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>806.7912770752575</v>
+        <v>814.1833210687167</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>828.0045932828846</v>
+        <v>836.4052214686291</v>
       </c>
       <c r="D83" t="n">
-        <v>723.1107536245457</v>
+        <v>730.2349596008177</v>
       </c>
       <c r="E83" t="n">
-        <v>874.8733342094368</v>
+        <v>881.3398468655782</v>
       </c>
       <c r="F83" t="n">
-        <v>820.0184689040028</v>
+        <v>829.9741592344313</v>
       </c>
       <c r="G83" t="n">
-        <v>836.5470903654837</v>
+        <v>843.357109003745</v>
       </c>
       <c r="H83" t="n">
-        <v>-27.05595273153452</v>
+        <v>-27.74998557855148</v>
       </c>
       <c r="I83" t="n">
-        <v>-27.05595273153452</v>
+        <v>-27.74998557855148</v>
       </c>
       <c r="J83" t="n">
-        <v>-27.05595273153452</v>
+        <v>-27.74998557855148</v>
       </c>
       <c r="K83" t="n">
-        <v>-27.05595273153452</v>
+        <v>-27.74998557855148</v>
       </c>
       <c r="L83" t="n">
-        <v>-27.05595273153452</v>
+        <v>-27.74998557855148</v>
       </c>
       <c r="M83" t="n">
-        <v>-27.05595273153452</v>
+        <v>-27.74998557855148</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>800.9486405513501</v>
+        <v>808.6552358900776</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>837.5233323475524</v>
+      </c>
+      <c r="D84" t="n">
+        <v>725.2225095331665</v>
+      </c>
+      <c r="E84" t="n">
+        <v>870.9221096001834</v>
+      </c>
+      <c r="F84" t="n">
+        <v>830.3690311815762</v>
+      </c>
+      <c r="G84" t="n">
+        <v>845.2381831126535</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-40.17855749962183</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-40.17855749962183</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-40.17855749962183</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-40.17855749962183</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-40.17855749962183</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-40.17855749962183</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>797.3447748479305</v>
       </c>
     </row>
   </sheetData>
